--- a/PHA4GE to Sequence Repository Field Mappings.xlsx
+++ b/PHA4GE to Sequence Repository Field Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmagriffiths/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9498704-9E15-134B-94D1-C340E0781CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDCB4F9-BA12-C245-BC6D-97C3F1E192A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="580" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GISAID to PHA4GE field mappings" sheetId="3" r:id="rId1"/>
@@ -21,44 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Flag to ensure this is most current guidance :)
-	-Ruth Timme</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>would it make sense to map this field to the existing "host_tissue_sampled" attribute?
-	-Ruth Timme</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="551">
   <si>
     <t>bioproject accession</t>
   </si>
@@ -216,13 +180,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>gravidity</t>
-  </si>
-  <si>
-    <t>sample_title</t>
   </si>
   <si>
     <t>strain</t>
@@ -994,13 +952,7 @@
     <t xml:space="preserve">This field can be populated by the PHA4GE field "specimen collector sample ID". Caution: the sample ID may be considered sensitive information. Consult your data steward before sharing. You may need to provide an alternative ID. </t>
   </si>
   <si>
-    <t>Title of the sample.</t>
-  </si>
-  <si>
     <t>Optional</t>
-  </si>
-  <si>
-    <t>Provide a descriptive title for your sample.</t>
   </si>
   <si>
     <t>The accession number of the BioProject(s) to which the BioSample belongs. A valid BioProject accession has prefix PRJN, PRJE or PRJD, e.g., PRJNA12345.</t>
@@ -1025,15 +977,6 @@
   </si>
   <si>
     <t>This field can be populated by the PHA4GE field "organism".</t>
-  </si>
-  <si>
-    <t>Microbial or eukaryotic strain name</t>
-  </si>
-  <si>
-    <t>Mandatory (either strain or isolate)</t>
-  </si>
-  <si>
-    <t>Leave this blank. Populate the "isolate" field.</t>
   </si>
   <si>
     <t>Identification or description of the specific individual from which this sample was obtained.</t>
@@ -1063,13 +1006,7 @@
     <t>geo_loc name (country): geo_loc name (state/province/region)</t>
   </si>
   <si>
-    <t>This field can be populated by combining the PHA4GE fields "geo_loc name (country)" and "geo_loc name (state/province/region)". The PHA4GE country pick list was derived from the INSDC country list. Put more country field first, followed by state/province/region, separated by a colon. Caution: the geo_loc name (state/province/region" may be considered sensitive information. Consult the data steward before sharing.</t>
-  </si>
-  <si>
     <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-  </si>
-  <si>
-    <t>Describe the sample as "Clinical", "Animal", or "Environmental". Add the statement "See additional sample source fields for further information  (i.e. anatomical material, anatomical part, body product, environmental material, environmental site, collection device, collection method)."</t>
   </si>
   <si>
     <t>The geographical coordinates of the location where the sample was collected. Specify as degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 38.98 N 77.11 W</t>
@@ -1081,19 +1018,7 @@
     <t>If known, provide the geographical coordinates of the location where the sample was collected. Concatenate the PHA4GE fields "geo_loc latitude" and "geo_loc longitude". Specify as degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 38.98 N 77.11 W. Do not provide lat/lon of the institution, nor the centre of the city/region where the sample was collected as this falsely implicates an existing location. Cautin: lat/lon information may be considered sensitive information. Consult the data steward before sharing. If unknown or can not be shared, provide a null value.</t>
   </si>
   <si>
-    <t>culture_collection</t>
-  </si>
-  <si>
-    <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
-  </si>
-  <si>
     <t>If the information is unknown or not available, leave blank.</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>observed genotype</t>
   </si>
   <si>
     <t>host</t>
@@ -1112,12 +1037,6 @@
   </si>
   <si>
     <t xml:space="preserve">This field can be populated by the PHA4GE field "host age". Provide age in years. Age-binning is also acceptable. Caution: the host age may be considered public health identifiable information. Consult your data steward before sharing. If the information is unknown or can not be shared, leave blank or provide a null value.  </t>
-  </si>
-  <si>
-    <t>host_description</t>
-  </si>
-  <si>
-    <t>Additional information not included in other defined vocabulary fields</t>
   </si>
   <si>
     <t>Name of relevant disease, e.g. Salmonella gastroenteritis. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1009 or http://www.ncbi.nlm.nih.gov/mesh</t>
@@ -1156,94 +1075,13 @@
     <t>This field can be populated by the PHA4GE field "host subject ID". This ID is likely subject to privacy policies. Consult the data steward before sharing. If the information is unknown or can not be shared, leave blank or provide a null value.</t>
   </si>
   <si>
-    <t>host_tissue_sampled</t>
-  </si>
-  <si>
-    <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005)</t>
-  </si>
-  <si>
-    <t>anatomical material, anatomical part</t>
-  </si>
-  <si>
-    <t>This field can be populated by the PHA4GE fields "anatomical material" and "anatomical part". If the information is unknown, not applicable, or can not be shared, leave blank or provide a null value.</t>
-  </si>
-  <si>
-    <t>passage_history</t>
-  </si>
-  <si>
-    <t>Number of passages and passage method</t>
-  </si>
-  <si>
-    <t>This field can be populated by the PHA4GE fields "specimen processing", "lab host", "passage number", and "passage method". If the information is unknown, not applicable, or can not be shared, leave blank or provide a null value.</t>
-  </si>
-  <si>
-    <t>pathotype</t>
-  </si>
-  <si>
-    <t>Some bacterial specific pathotypes (example Eschericia coli - STEC, UPEC)</t>
-  </si>
-  <si>
-    <t>serotype</t>
-  </si>
-  <si>
-    <t>Taxonomy below subspecies; a variety (in bacteria, fungi or virus) usually based on its antigenic properties. Same as serovar and serogroup. e.g. serotype="H1N1" in Influenza A virus CY098518.</t>
-  </si>
-  <si>
-    <t>serovar</t>
-  </si>
-  <si>
-    <t>Taxonomy below subspecies; a variety (in bacteria, fungi or virus) usually based on its antigenic properties. Same as serovar and serotype. Sometimes used as species identifier in bacteria with shaky taxonomy, e.g. Leptospira, serovar saopaolo S76607 (65357 in Entrez).</t>
-  </si>
-  <si>
     <t>host_specimen_voucher</t>
   </si>
   <si>
     <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit: http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier.</t>
   </si>
   <si>
-    <t>subgroup</t>
-  </si>
-  <si>
-    <t>Taxonomy below subspecies; sometimes used in viruses to denote subgroups taken from a single isolate.</t>
-  </si>
-  <si>
-    <t>subtype</t>
-  </si>
-  <si>
-    <t>Used as classifier in viruses (e.g. HIV type 1, Group M, Subtype A).</t>
-  </si>
-  <si>
-    <t>Description of the sample.</t>
-  </si>
-  <si>
-    <t>Add PHA4GE field to template</t>
-  </si>
-  <si>
-    <t>Add the PHA4GE field "purpose of sampling" to your submission form. Populate the field using the values in the PHA4GE specification. Sampling information is important for interpreting clusters.</t>
-  </si>
-  <si>
     <t xml:space="preserve">anatomical material </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "anatomical material" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "anatomical part" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "body product" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "environmental material" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "environmental site" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "collection device" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the PHA4GE field "collection method" to your submission form. Populate the field using the values in the PHA4GE specification where applicable. This field helps to better structure information in NCBI's "isolation source" field. </t>
   </si>
   <si>
     <t>NCBI SRA Field</t>
@@ -1252,16 +1090,10 @@
     <t xml:space="preserve">BioSample accession </t>
   </si>
   <si>
-    <t xml:space="preserve">This field can be populated with the PHA4GE field "biosample accession". </t>
-  </si>
-  <si>
     <t xml:space="preserve">Library_ID </t>
   </si>
   <si>
     <t>Short unique identifier for the sequencing library.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This field can be populated with the PHA4GE field "library ID". </t>
   </si>
   <si>
     <t>Title</t>
@@ -1270,16 +1102,10 @@
     <t>Short description of the library that will identify the dataset on public pages.</t>
   </si>
   <si>
-    <t>Free text. Suggested format: {methodology} of {organism}: {sample info} e.g. "RNA-Seq of SARS-CoV-2: human sample"</t>
-  </si>
-  <si>
     <t>Platform</t>
   </si>
   <si>
     <t>Sequencing platform</t>
-  </si>
-  <si>
-    <t>See NCBI SRA pick list. (e.g., Illumina, Oxford_nanopore, PacBio_SMRT).</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -1288,16 +1114,10 @@
     <t>Name of the sequencing instrument</t>
   </si>
   <si>
-    <t>See NCBI SRA pick list. (e.g. Illumina MiSeq, iSeq 100, GridION, MinION, PacBio Sequel II)</t>
-  </si>
-  <si>
     <t>library_strategy</t>
   </si>
   <si>
     <t>Overall sequencing strategy or approach</t>
-  </si>
-  <si>
-    <t>See NCBI SRA pick list. (e.g. WGS, RNA-Seq, Amplicon)</t>
   </si>
   <si>
     <t>library_source</t>
@@ -1306,16 +1126,10 @@
     <t>Molecule type used to make the library</t>
   </si>
   <si>
-    <t>See NCBI SRA pick list. (e.g. viral RNA, metagenomic)</t>
-  </si>
-  <si>
     <t>library_selection</t>
   </si>
   <si>
     <t>Library capture method</t>
-  </si>
-  <si>
-    <t>See NCBI SRA pick list. (e.g. random, PCR)</t>
   </si>
   <si>
     <t>library_layout</t>
@@ -1324,16 +1138,7 @@
     <t>Single or paired</t>
   </si>
   <si>
-    <t>See NCBI SRA pick list. (single, paired)</t>
-  </si>
-  <si>
-    <t>Design_description</t>
-  </si>
-  <si>
     <t>optional field for free text description of methods</t>
-  </si>
-  <si>
-    <t>Free text</t>
   </si>
   <si>
     <t xml:space="preserve">Filetype </t>
@@ -1342,23 +1147,602 @@
     <t>File format name for the raw sequence data</t>
   </si>
   <si>
-    <t>See NCBI SRA pick list. (e.g. Fastq, OxfordNanopore_native, PacBio_HDF5)</t>
-  </si>
-  <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>include ALL of the files resulting from this library. **Add additional fields if there are more than two files (e.g. Filename3)</t>
+    <t>Filename2</t>
   </si>
   <si>
-    <t>Filename2</t>
+    <t>Sampling Strategy</t>
+  </si>
+  <si>
+    <t>e.g. Sentinel surveillance (ILI), Sentinel surveillance (ARI), Sentinel surveillance (SARI), Non-sentinel-surveillance (hospital), Non-sentinel-surveillance (GP network), Longitudinal sampling on same patient(s), S gene dropout</t>
+  </si>
+  <si>
+    <t>purpose of sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reason a sample was sequenced may provide information about potential biases in sequencing strategy. Provide the purpose of sequencing from the picklist in the template. </t>
+  </si>
+  <si>
+    <t>GISAID_virus_name</t>
+  </si>
+  <si>
+    <t>GISAID_accession</t>
+  </si>
+  <si>
+    <t>The full virus name submitted to GISAID.</t>
+  </si>
+  <si>
+    <t>The GISAID accession assigned to the sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory </t>
+  </si>
+  <si>
+    <t>sequenced_by</t>
+  </si>
+  <si>
+    <t>purpose_of_sampling</t>
+  </si>
+  <si>
+    <t>purpose_of_sequencing</t>
+  </si>
+  <si>
+    <t>The reason that the sample was collected.</t>
+  </si>
+  <si>
+    <t>The reason that the sample was sequenced.</t>
+  </si>
+  <si>
+    <t>passage_number</t>
+  </si>
+  <si>
+    <t>Number of passages.</t>
+  </si>
+  <si>
+    <t>passage_method</t>
+  </si>
+  <si>
+    <t>Description of how organism was passaged. Should include if passage_number is used</t>
+  </si>
+  <si>
+    <t>host_anatomical_material</t>
+  </si>
+  <si>
+    <t>Substance produced by the body, e.g. Stool, mucus, where the sample was obtained from.</t>
+  </si>
+  <si>
+    <t>host_anatomical_part</t>
+  </si>
+  <si>
+    <t>Anatomical part of an organism e.g. tissue, blood.</t>
+  </si>
+  <si>
+    <t>environmental_material</t>
+  </si>
+  <si>
+    <t>A substance obtained from the natural or man-made environment e.g. soil, water, sewage, door handle, bed handrail, face mask.</t>
+  </si>
+  <si>
+    <t>environmental_site</t>
+  </si>
+  <si>
+    <t>An environmental location may describe a site in the natural or built environment e.g. hospital, wet market, bat cave.</t>
+  </si>
+  <si>
+    <t>collection_device</t>
+  </si>
+  <si>
+    <t>Instrument or container used to collect sample e.g. swab</t>
+  </si>
+  <si>
+    <t>collection_method</t>
+  </si>
+  <si>
+    <t>Process used to collect sample</t>
+  </si>
+  <si>
+    <t>recent_travel_history_location</t>
+  </si>
+  <si>
+    <t>recent_travel_history_return_date</t>
+  </si>
+  <si>
+    <t>location of exposure geo_loc name (country)</t>
+  </si>
+  <si>
+    <t>The country where the host was likely exposed to the causative agent of the illness.</t>
+  </si>
+  <si>
+    <t>exposure_event</t>
+  </si>
+  <si>
+    <t>Event leading to exposure</t>
+  </si>
+  <si>
+    <t>prior_SARS-CoV-2_infection</t>
+  </si>
+  <si>
+    <t>yes or no</t>
+  </si>
+  <si>
+    <t>date_of_prior_SARS-CoV-2_infection</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>virus_isolate_of_prior_infection</t>
+  </si>
+  <si>
+    <t>if known</t>
+  </si>
+  <si>
+    <t>prior_SARS-CoV-2_vaccination</t>
+  </si>
+  <si>
+    <t>no, yes completed, yes partially completed</t>
+  </si>
+  <si>
+    <t>vaccine_received</t>
+  </si>
+  <si>
+    <t>Which vaccine?</t>
+  </si>
+  <si>
+    <t>date_of_prior_SARS-CoV-2_vaccination_ (1st_dose)</t>
+  </si>
+  <si>
+    <t>prior_SARS-CoV-2_antiviral_treatment</t>
+  </si>
+  <si>
+    <t>date_of_prior_SARS-CoV-2_antiviral_treatment</t>
+  </si>
+  <si>
+    <t>antiviral_treatment_agent</t>
+  </si>
+  <si>
+    <t>diagnostic_gene_name_1</t>
+  </si>
+  <si>
+    <t>The name of the gene used in the diagnostic RT-PCR test.</t>
+  </si>
+  <si>
+    <t>diagnostic_pcr_protocol_1</t>
+  </si>
+  <si>
+    <t>The name and version number of the protocol used for diagnostic marker amplification.</t>
+  </si>
+  <si>
+    <t>diagnostic_pcr_Ct_value_1</t>
+  </si>
+  <si>
+    <t>The Ct value result from a diagnostic SARS-CoV-2 RT-PCR test.</t>
+  </si>
+  <si>
+    <t>diagnostic_gene_name_2</t>
+  </si>
+  <si>
+    <t>diagnostic_pcr_protocol_2</t>
+  </si>
+  <si>
+    <t>diagnostic_pcr_Ct_value_2</t>
+  </si>
+  <si>
+    <t>The cycle threshold (CT) value result from a diagnostic SARS-CoV-2 RT-PCR test.</t>
+  </si>
+  <si>
+    <t>GISAID accession</t>
+  </si>
+  <si>
+    <t>GISAID virus name</t>
+  </si>
+  <si>
+    <t>Describe the sample as "Clinical", "Animal", or "Environmental". Add the statement "See additional sample source fields for further information  (i.e. anatomical material, anatomical part, body product, environmental material, environmental site, collection device, collection method)."</t>
+  </si>
+  <si>
+    <t>passage number</t>
+  </si>
+  <si>
+    <t>passage method</t>
+  </si>
+  <si>
+    <t>most recent travel return date</t>
+  </si>
+  <si>
+    <t>destination of most recent travel (country): destination of most recent travel ((state/province/territory): destination of most recent travel (city)</t>
+  </si>
+  <si>
+    <t>This field can be populated by combining the PHA4GE fields "destination of most recent travel (country)", "destination of most recent travel ((state/province/territory), and "destination of most recent travel (city)". The PHA4GE country pick list was derived from the INSDC country list. Put country field first, followed by state/province/region (if known), followed by the city (if known), separated by colons. Caution: the geo_loc names state/province/region and city may be considered sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by combining the PHA4GE fields "geo_loc name (country)" and "geo_loc name (state/province/region)". The PHA4GE country pick list was derived from the INSDC country list. Put country field first, followed by state/province/region, separated by a colon. Caution: the geo_loc name (state/province/region) may be considered sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 infection</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 infection date</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 infection isolate</t>
+  </si>
+  <si>
+    <t>host vaccination status</t>
+  </si>
+  <si>
+    <t>vaccine name</t>
+  </si>
+  <si>
+    <t>first dose vaccination date</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 antiviral treatment</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 antiviral treatment date</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 antiviral treatment agent</t>
+  </si>
+  <si>
+    <t>gene name 1</t>
+  </si>
+  <si>
+    <t>diagnostic pcr protocol 1</t>
+  </si>
+  <si>
+    <t>diagnostic pcr Ct value 1</t>
+  </si>
+  <si>
+    <t>gene name 2</t>
+  </si>
+  <si>
+    <t>diagnostic pcr protocol 2</t>
+  </si>
+  <si>
+    <t>diagnostic pcr Ct value 2</t>
+  </si>
+  <si>
+    <t>host specimen voucher</t>
+  </si>
+  <si>
+    <t>Populate the "bioproject accession" field.</t>
+  </si>
+  <si>
+    <t>Populate the "library ID" field.</t>
+  </si>
+  <si>
+    <t>Format: {methodology} of {organism}: {sample info}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide the library strategy by selecting a value from the pick list. For amplicon sequencing select "AMPLICON". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide the library source by selecting a value from the pick list. For amplicon sequencing select "Viral RNA". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide the library selection by selecting a value from the pick list. For amplicon sequencing select "PCR". </t>
+  </si>
+  <si>
+    <t>Provide the library layout by selecting a value from the pick list. For Illumina instruments, select "PAIRED". For Oxford Nanopore instruments, select "SINGLE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide the filetype by selecting a value from the pick list. </t>
+  </si>
+  <si>
+    <t>sequence_submitter_contact_email</t>
+  </si>
+  <si>
+    <t>r1 fastq filename, r2 fastq filename, fast5 filename</t>
+  </si>
+  <si>
+    <t>Provide the appropriate filename recorded in the Bioinformatics and QC metrics section.</t>
+  </si>
+  <si>
+    <t>Provide the appropriate filename recorded in the Bioinformatics and QC metrics section. If sequence data is "paired", provide the second filename under "Filename 2".</t>
+  </si>
+  <si>
+    <t>no NCBI definition</t>
+  </si>
+  <si>
+    <t>NCBI GenBank Field</t>
+  </si>
+  <si>
+    <t>biosample_accession</t>
+  </si>
+  <si>
+    <t>assembly_date</t>
+  </si>
+  <si>
+    <t>assembly_name</t>
+  </si>
+  <si>
+    <t>assembly_method</t>
+  </si>
+  <si>
+    <t>assembly_method_version</t>
+  </si>
+  <si>
+    <t>genome_coverage</t>
+  </si>
+  <si>
+    <t>sequencing_technology</t>
+  </si>
+  <si>
+    <t>reference_genome</t>
+  </si>
+  <si>
+    <t>update_for</t>
+  </si>
+  <si>
+    <t>bacteria_available_from</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>genome_completeness</t>
+  </si>
+  <si>
+    <t>SAMNxxxxxx</t>
+  </si>
+  <si>
+    <t>The estimated base coverage across the genome e.g. 12x. This can be calculated by dividing the number of base pairs sequenced byt the expected genome size and multiplying that by the percentage of bases that were placed in the final assembly. More simply it is the number of bases sequenced divided by the expected genome size.</t>
+  </si>
+  <si>
+    <t>The sequencing machine(s) used to generate the data e.g. Illumina MiSeq or 454</t>
+  </si>
+  <si>
+    <t>For reference guided assemblies: the accession.version and/or the assembly name of the genome assembly that was used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a name and physical address. </t>
+  </si>
+  <si>
+    <t>Each genome must be in 1 or 2 files. You can concatenate multiple fasta files inot a single file that can be submitted or used as input for tbl2astn.</t>
+  </si>
+  <si>
+    <t>sequence submitter contact email</t>
+  </si>
+  <si>
+    <t>consensus sequence name</t>
+  </si>
+  <si>
+    <t>consensus sequence filename</t>
+  </si>
+  <si>
+    <t>consensus sequence software name</t>
+  </si>
+  <si>
+    <t>consensus sequence software version</t>
+  </si>
+  <si>
+    <t>depth of coverage value</t>
+  </si>
+  <si>
+    <t>reference genome accession</t>
+  </si>
+  <si>
+    <t>Accession of the genome being updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence software name". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence software version". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence name". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "depth of coverage value". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "sequencing instrument". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "reference genome accession". </t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "passage number".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "passage method".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "anatomical material".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "anatomical part".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "body product".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "environmental material".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "environmental site".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "collection device".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "collection method".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence filename". </t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "sequence submitter contact email". Ensure that the data provider consensts to their email being shared publicly.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "purpose of sampling".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "purpose of sequencing".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "most recent travel return date". Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "location of exposure geo_loc name (country)". Caution: the country of exposure is likely sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "exposure event". Caution: the exposure event is likely sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>NCBI GenBank Modifiers Field</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "vaccine name".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "prior SARS-CoV-2 antiviral treatment".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "diagnostic pcr protocol 1".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "diagnostic pcr Ct value 1".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "gene name 2".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "diagnostic pcr protocol 2".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "diagnostic pcr Ct value 2".</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "host specimen voucher".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "GISAID accession". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "GISAID virus name". </t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "prior SARS-CoV-2 infection". Caution: prior infection infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "prior SARS-CoV-2 infection date". Caution: prior infection infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "prior SARS-CoV-2 infection isolate". Caution: prior infection infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "host vaccination status". Caution: vaccination infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "first dose vaccination date". Caution: vaccination infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "prior SARS-CoV-2 antiviral treatment date". Caution: vaccination infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "prior SARS-CoV-2 antiviral treatment agent". Caution: vaccination infromation may be sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "gene name 1".</t>
+  </si>
+  <si>
+    <t>Platform and instrument information can be sourced from the PHA4GE field "sequencing instrument". Provide the platform by selecting a value from the pick list.</t>
+  </si>
+  <si>
+    <t>Platform and instrument information can be sourced from the PHA4GE field "sequencing instrument". Provide the instrument model by selecting a value from the pick list.</t>
+  </si>
+  <si>
+    <t>Provide a free text description of the methods and materials used to generate the sequence. Suggested text, fill in information where indicated.: "Viral sequencing was performed following a tiling amplicon strategy using the &lt;fill in&gt; primer scheme. Sequencing was performed using a &lt;fill in&gt; sequencing instrument. Libraries were prepared using &lt;fill in&gt; library kit. "</t>
+  </si>
+  <si>
+    <t>design_description</t>
+  </si>
+  <si>
+    <t>This field has been added by PHA4GE to enhance methods descriptions. Populate this field with the PHA4GE "amplicon PCR primer scheme" field.</t>
+  </si>
+  <si>
+    <t>This field has been added by PHA4GE to enhance methods descriptions. Populate this field with the PHA4GE "amplicon size" field.</t>
+  </si>
+  <si>
+    <t>This field has been added by PHA4GE to enhance methods descriptions. Populate this field with the PHA4GE "sequencing protocol name" field.</t>
+  </si>
+  <si>
+    <t>This field has been added by PHA4GE to enhance methods descriptions. Populate this field with the PHA4GE "raw sequence data processing method" field.</t>
+  </si>
+  <si>
+    <t>This field has been added by PHA4GE to enhance methods descriptions. Populate this field with the PHA4GE "dehosting method" field.</t>
+  </si>
+  <si>
+    <t>This field has been added by PHA4GE to enhance methods descriptions. Populate this field with the PHA4GE "sequence submitter contact email" field.</t>
+  </si>
+  <si>
+    <t>amplicon  PCR primer scheme</t>
+  </si>
+  <si>
+    <t>amplicon size</t>
+  </si>
+  <si>
+    <t>sequencing protocol name</t>
+  </si>
+  <si>
+    <t>raw sequence data processing_method</t>
+  </si>
+  <si>
+    <t>dehosting method</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>collection-date</t>
+  </si>
+  <si>
+    <t>isolation-source</t>
+  </si>
+  <si>
+    <t>BioSample</t>
+  </si>
+  <si>
+    <t>BioProject</t>
+  </si>
+  <si>
+    <t>GISAID-accession</t>
+  </si>
+  <si>
+    <t>GISAID-virus-name</t>
+  </si>
+  <si>
+    <t>sequence_ID</t>
+  </si>
+  <si>
+    <t>ID to link the fasta sequence to these source modifiers for a batch submission. This ID must match the ID listed as the fasta file header. Suggestion: use the sample_name submitted to BioSample, or the short lab ID contained within the isolate name.</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "sample collector sample ID".</t>
+  </si>
+  <si>
+    <t>This field is only required for host-associated samples (Pathogen.cl specified in attribute package). Leave blank for environmental isolates.</t>
+  </si>
+  <si>
+    <t>Mandatory (when sample comes from a host)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field has been added by PHA4GE to enhance linkage between repositories. Populate this field with the PHA4GE "GISAID accession" field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field has been added by PHA4GE to enhance linkage between repositories. Populate this field with the PHA4GE "GISAID virus name" field. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1414,8 +1798,27 @@
       <sz val="9"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1440,6 +1843,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1453,7 +1862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1538,33 +1947,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,9 +2212,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1797,21 +2227,21 @@
     <col min="5" max="5" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1838,19 +2268,19 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1877,19 +2307,19 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1916,19 +2346,19 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1955,19 +2385,19 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1994,19 +2424,19 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2033,19 +2463,19 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2072,19 +2502,19 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2111,17 +2541,17 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2148,19 +2578,19 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2187,17 +2617,17 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2223,59 +2653,57 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="A12" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2302,19 +2730,19 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2340,18 +2768,20 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
-        <v>105</v>
+      <c r="A15" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="15" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2378,17 +2808,17 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2415,17 +2845,17 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2452,17 +2882,17 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2488,20 +2918,18 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
-        <v>115</v>
+      <c r="A19" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>23</v>
+        <v>112</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2527,18 +2955,20 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
-        <v>118</v>
+      <c r="A20" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>114</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2565,17 +2995,17 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2601,20 +3031,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
-        <v>124</v>
+      <c r="A22" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2641,17 +3069,19 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="C23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2677,16 +3107,18 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
-        <v>129</v>
+      <c r="A24" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="D24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2712,20 +3144,16 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>133</v>
+      <c r="A25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2752,17 +3180,19 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="C26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2788,16 +3218,18 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
-        <v>135</v>
+      <c r="A27" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>136</v>
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2824,17 +3256,15 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="18" t="s">
-        <v>30</v>
+        <v>133</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2860,11 +3290,19 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3410,7 +3848,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -31046,6 +31484,35 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+      <c r="AA1001" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -31076,22 +31543,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
@@ -31117,22 +31584,22 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -31158,22 +31625,22 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -31199,22 +31666,22 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -31240,22 +31707,22 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -31281,22 +31748,22 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -31322,22 +31789,22 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -31363,22 +31830,22 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -31404,22 +31871,22 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -31445,22 +31912,22 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -31486,22 +31953,22 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="E11" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -31527,22 +31994,22 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="E12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -31568,22 +32035,22 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -31609,22 +32076,22 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -31650,7 +32117,7 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>16</v>
@@ -31659,13 +32126,13 @@
         <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -31691,22 +32158,22 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -31732,22 +32199,22 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -31773,22 +32240,22 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -31814,7 +32281,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>14</v>
@@ -31823,13 +32290,13 @@
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -31855,22 +32322,22 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -31896,22 +32363,22 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -31937,22 +32404,22 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -31978,22 +32445,22 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -32019,22 +32486,22 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -32060,22 +32527,22 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -32101,22 +32568,22 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -32142,22 +32609,22 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -32183,22 +32650,22 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -32224,22 +32691,22 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -32263,24 +32730,24 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -32306,22 +32773,22 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -32347,22 +32814,22 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -32388,22 +32855,22 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -32429,22 +32896,22 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -32470,22 +32937,22 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>245</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -32511,22 +32978,22 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="D36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -32581,22 +33048,22 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -32625,19 +33092,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -32663,22 +33130,22 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -32704,22 +33171,22 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -32745,22 +33212,22 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -32786,16 +33253,16 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>51</v>
@@ -32825,22 +33292,22 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -32866,22 +33333,22 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -32907,22 +33374,22 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -32948,22 +33415,22 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -32989,22 +33456,22 @@
     </row>
     <row r="48" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -33030,22 +33497,22 @@
     </row>
     <row r="49" spans="1:27" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -33078,7 +33545,7 @@
         <v>26</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -60484,13 +60951,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1031"/>
+  <dimension ref="A1:AA1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -60501,21 +60970,21 @@
     <col min="5" max="5" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>60</v>
+      <c r="D1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -60541,3883 +61010,4466 @@
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D7" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="C10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E11" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="E12" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>316</v>
-      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>317</v>
-      </c>
+      <c r="A13" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>337</v>
+      <c r="E20" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>338</v>
+      <c r="A21" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>322</v>
+      <c r="E21" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>339</v>
+      <c r="A22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>341</v>
+      <c r="E22" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>343</v>
+      <c r="E23" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>344</v>
+      <c r="E24" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>346</v>
+      <c r="A25" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>348</v>
+        <v>289</v>
+      </c>
+      <c r="D25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>350</v>
+      <c r="A26" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>373</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="D26" t="s">
+        <v>420</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>353</v>
+      <c r="A27" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>375</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>151</v>
+        <v>289</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>355</v>
+      <c r="A28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>377</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>151</v>
+        <v>289</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>151</v>
+      <c r="A29" s="2"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>359</v>
+      <c r="A30" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>151</v>
+        <v>289</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>361</v>
+      <c r="A31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>381</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>151</v>
+        <v>289</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>363</v>
+      <c r="A32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>383</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>364</v>
+        <v>289</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>385</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="31"/>
       <c r="C34" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="31"/>
       <c r="C35" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>365</v>
+        <v>289</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>389</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>365</v>
+        <v>289</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>391</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>365</v>
+        <v>289</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>393</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>365</v>
+        <v>289</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>365</v>
+        <v>289</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>365</v>
+        <v>289</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>399</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45" s="31"/>
       <c r="C45" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>379</v>
-      </c>
+      <c r="D45" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" s="31"/>
       <c r="C46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>382</v>
+      <c r="D46" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>407</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>385</v>
+      <c r="D47" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>409</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A49" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>388</v>
+      <c r="D48" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>391</v>
+      <c r="D49" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>407</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>394</v>
+      <c r="D50" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>409</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>397</v>
+      <c r="D51" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>415</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>400</v>
+      <c r="D52" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="E59" s="38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="55" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A68" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C70" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D70" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B71" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D71" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A56" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B72" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="2" t="s">
+      <c r="D72" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A73" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E112" s="1"/>
+      <c r="D73" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="C75" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="C76" s="39"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="C77" s="39"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M79" t="s">
+        <v>466</v>
+      </c>
+      <c r="N79" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>456</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>457</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>462</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>463</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>464</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="53" t="s">
+        <v>544</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="B96" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A99" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A101" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A102" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>542</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>543</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E113" s="1"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E114" s="1"/>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E115" s="1"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E116" s="1"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E117" s="1"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E118" s="1"/>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E119" s="1"/>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E120" s="1"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E121" s="1"/>
+      <c r="E121" s="2"/>
     </row>
     <row r="122" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E122" s="1"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E123" s="1"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E124" s="1"/>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E125" s="1"/>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E126" s="1"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E127" s="1"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E128" s="1"/>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E129" s="1"/>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E130" s="1"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E131" s="1"/>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E132" s="1"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E133" s="1"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E134" s="1"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E135" s="1"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E136" s="1"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E137" s="1"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E138" s="1"/>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E139" s="1"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E140" s="1"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E141" s="1"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E142" s="1"/>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E143" s="1"/>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E144" s="1"/>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E145" s="1"/>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E146" s="1"/>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E147" s="1"/>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E148" s="1"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E149" s="1"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E150" s="1"/>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E151" s="1"/>
+      <c r="E151" s="2"/>
     </row>
     <row r="152" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E152" s="1"/>
+      <c r="E152" s="2"/>
     </row>
     <row r="153" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E153" s="1"/>
+      <c r="E153" s="2"/>
     </row>
     <row r="154" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E154" s="1"/>
+      <c r="E154" s="2"/>
     </row>
     <row r="155" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E155" s="1"/>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E156" s="1"/>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E157" s="1"/>
+      <c r="E157" s="2"/>
     </row>
     <row r="158" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E158" s="1"/>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E159" s="1"/>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E160" s="1"/>
+      <c r="E160" s="2"/>
     </row>
     <row r="161" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E161" s="1"/>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E162" s="1"/>
+      <c r="E162" s="2"/>
     </row>
     <row r="163" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E163" s="1"/>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E164" s="1"/>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E165" s="1"/>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E166" s="1"/>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E167" s="1"/>
+      <c r="E167" s="2"/>
     </row>
     <row r="168" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E168" s="1"/>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E169" s="1"/>
+      <c r="E169" s="2"/>
     </row>
     <row r="170" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E170" s="1"/>
+      <c r="E170" s="2"/>
     </row>
     <row r="171" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E171" s="1"/>
+      <c r="E171" s="2"/>
     </row>
     <row r="172" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E172" s="1"/>
+      <c r="E172" s="2"/>
     </row>
     <row r="173" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E173" s="1"/>
+      <c r="E173" s="2"/>
     </row>
     <row r="174" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E174" s="1"/>
+      <c r="E174" s="2"/>
     </row>
     <row r="175" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E175" s="1"/>
+      <c r="E175" s="2"/>
     </row>
     <row r="176" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E176" s="1"/>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E177" s="1"/>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E178" s="1"/>
+      <c r="E178" s="2"/>
     </row>
     <row r="179" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E179" s="1"/>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E180" s="1"/>
+      <c r="E180" s="2"/>
     </row>
     <row r="181" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E181" s="1"/>
+      <c r="E181" s="2"/>
     </row>
     <row r="182" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E182" s="1"/>
+      <c r="E182" s="2"/>
     </row>
     <row r="183" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E183" s="1"/>
+      <c r="E183" s="2"/>
     </row>
     <row r="184" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E184" s="1"/>
+      <c r="E184" s="2"/>
     </row>
     <row r="185" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E185" s="1"/>
+      <c r="E185" s="2"/>
     </row>
     <row r="186" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E186" s="1"/>
+      <c r="E186" s="2"/>
     </row>
     <row r="187" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E187" s="1"/>
+      <c r="E187" s="2"/>
     </row>
     <row r="188" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E188" s="1"/>
+      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E189" s="1"/>
+      <c r="E189" s="2"/>
     </row>
     <row r="190" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E190" s="1"/>
+      <c r="E190" s="2"/>
     </row>
     <row r="191" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E191" s="1"/>
+      <c r="E191" s="2"/>
     </row>
     <row r="192" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E192" s="1"/>
+      <c r="E192" s="2"/>
     </row>
     <row r="193" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E193" s="1"/>
+      <c r="E193" s="2"/>
     </row>
     <row r="194" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E194" s="1"/>
+      <c r="E194" s="2"/>
     </row>
     <row r="195" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E195" s="1"/>
+      <c r="E195" s="2"/>
     </row>
     <row r="196" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E196" s="1"/>
+      <c r="E196" s="2"/>
     </row>
     <row r="197" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E197" s="1"/>
+      <c r="E197" s="2"/>
     </row>
     <row r="198" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E198" s="1"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E199" s="1"/>
+      <c r="E199" s="2"/>
     </row>
     <row r="200" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E200" s="1"/>
+      <c r="E200" s="2"/>
     </row>
     <row r="201" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E201" s="1"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E202" s="1"/>
+      <c r="E202" s="2"/>
     </row>
     <row r="203" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E203" s="1"/>
+      <c r="E203" s="2"/>
     </row>
     <row r="204" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E204" s="1"/>
+      <c r="E204" s="2"/>
     </row>
     <row r="205" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E205" s="1"/>
+      <c r="E205" s="2"/>
     </row>
     <row r="206" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E206" s="1"/>
+      <c r="E206" s="2"/>
     </row>
     <row r="207" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E207" s="1"/>
+      <c r="E207" s="2"/>
     </row>
     <row r="208" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E208" s="1"/>
+      <c r="E208" s="2"/>
     </row>
     <row r="209" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E209" s="1"/>
+      <c r="E209" s="2"/>
     </row>
     <row r="210" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E210" s="1"/>
+      <c r="E210" s="2"/>
     </row>
     <row r="211" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E211" s="1"/>
+      <c r="E211" s="2"/>
     </row>
     <row r="212" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E212" s="1"/>
+      <c r="E212" s="2"/>
     </row>
     <row r="213" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E213" s="1"/>
+      <c r="E213" s="2"/>
     </row>
     <row r="214" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E214" s="1"/>
+      <c r="E214" s="2"/>
     </row>
     <row r="215" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E215" s="1"/>
+      <c r="E215" s="2"/>
     </row>
     <row r="216" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E216" s="1"/>
+      <c r="E216" s="2"/>
     </row>
     <row r="217" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E217" s="1"/>
+      <c r="E217" s="2"/>
     </row>
     <row r="218" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E218" s="1"/>
+      <c r="E218" s="2"/>
     </row>
     <row r="219" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E219" s="1"/>
+      <c r="E219" s="2"/>
     </row>
     <row r="220" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E220" s="1"/>
+      <c r="E220" s="2"/>
     </row>
     <row r="221" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E221" s="1"/>
+      <c r="E221" s="2"/>
     </row>
     <row r="222" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E222" s="1"/>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E223" s="1"/>
+      <c r="E223" s="2"/>
     </row>
     <row r="224" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E224" s="1"/>
+      <c r="E224" s="2"/>
     </row>
     <row r="225" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E225" s="1"/>
+      <c r="E225" s="2"/>
     </row>
     <row r="226" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E226" s="1"/>
+      <c r="E226" s="2"/>
     </row>
     <row r="227" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E227" s="1"/>
+      <c r="E227" s="2"/>
     </row>
     <row r="228" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E228" s="1"/>
+      <c r="E228" s="2"/>
     </row>
     <row r="229" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E229" s="1"/>
+      <c r="E229" s="2"/>
     </row>
     <row r="230" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E230" s="1"/>
+      <c r="E230" s="2"/>
     </row>
     <row r="231" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E231" s="1"/>
+      <c r="E231" s="2"/>
     </row>
     <row r="232" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E232" s="1"/>
+      <c r="E232" s="2"/>
     </row>
     <row r="233" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E233" s="1"/>
+      <c r="E233" s="2"/>
     </row>
     <row r="234" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E234" s="1"/>
+      <c r="E234" s="2"/>
     </row>
     <row r="235" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E235" s="1"/>
+      <c r="E235" s="2"/>
     </row>
     <row r="236" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E236" s="1"/>
+      <c r="E236" s="2"/>
     </row>
     <row r="237" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E237" s="1"/>
+      <c r="E237" s="2"/>
     </row>
     <row r="238" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E238" s="1"/>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E239" s="1"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E240" s="1"/>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E241" s="1"/>
+      <c r="E241" s="2"/>
     </row>
     <row r="242" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E242" s="1"/>
+      <c r="E242" s="2"/>
     </row>
     <row r="243" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E243" s="1"/>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E244" s="1"/>
+      <c r="E244" s="2"/>
     </row>
     <row r="245" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E245" s="1"/>
+      <c r="E245" s="2"/>
     </row>
     <row r="246" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E246" s="1"/>
+      <c r="E246" s="2"/>
     </row>
     <row r="247" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E247" s="1"/>
+      <c r="E247" s="2"/>
     </row>
     <row r="248" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E248" s="1"/>
+      <c r="E248" s="2"/>
     </row>
     <row r="249" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E249" s="1"/>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E250" s="1"/>
+      <c r="E250" s="2"/>
     </row>
     <row r="251" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E251" s="1"/>
+      <c r="E251" s="2"/>
     </row>
     <row r="252" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E252" s="1"/>
+      <c r="E252" s="2"/>
     </row>
     <row r="253" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E253" s="1"/>
+      <c r="E253" s="2"/>
     </row>
     <row r="254" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E254" s="1"/>
+      <c r="E254" s="2"/>
     </row>
     <row r="255" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E255" s="1"/>
+      <c r="E255" s="2"/>
     </row>
     <row r="256" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E256" s="1"/>
+      <c r="E256" s="2"/>
     </row>
     <row r="257" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E257" s="1"/>
+      <c r="E257" s="2"/>
     </row>
     <row r="258" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E258" s="1"/>
+      <c r="E258" s="2"/>
     </row>
     <row r="259" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E259" s="1"/>
+      <c r="E259" s="2"/>
     </row>
     <row r="260" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E260" s="1"/>
+      <c r="E260" s="2"/>
     </row>
     <row r="261" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E261" s="1"/>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E262" s="1"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E263" s="1"/>
+      <c r="E263" s="2"/>
     </row>
     <row r="264" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E264" s="1"/>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E265" s="1"/>
+      <c r="E265" s="2"/>
     </row>
     <row r="266" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E266" s="1"/>
+      <c r="E266" s="2"/>
     </row>
     <row r="267" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E267" s="1"/>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E268" s="1"/>
+      <c r="E268" s="2"/>
     </row>
     <row r="269" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E269" s="1"/>
+      <c r="E269" s="2"/>
     </row>
     <row r="270" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E270" s="1"/>
+      <c r="E270" s="2"/>
     </row>
     <row r="271" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E271" s="1"/>
+      <c r="E271" s="2"/>
     </row>
     <row r="272" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E272" s="1"/>
+      <c r="E272" s="2"/>
     </row>
     <row r="273" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E273" s="1"/>
+      <c r="E273" s="2"/>
     </row>
     <row r="274" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E274" s="1"/>
+      <c r="E274" s="2"/>
     </row>
     <row r="275" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E275" s="1"/>
+      <c r="E275" s="2"/>
     </row>
     <row r="276" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E276" s="1"/>
+      <c r="E276" s="2"/>
     </row>
     <row r="277" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E277" s="1"/>
+      <c r="E277" s="2"/>
     </row>
     <row r="278" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E278" s="1"/>
+      <c r="E278" s="2"/>
     </row>
     <row r="279" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E279" s="1"/>
+      <c r="E279" s="2"/>
     </row>
     <row r="280" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E280" s="1"/>
+      <c r="E280" s="2"/>
     </row>
     <row r="281" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E281" s="1"/>
+      <c r="E281" s="2"/>
     </row>
     <row r="282" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E282" s="1"/>
+      <c r="E282" s="2"/>
     </row>
     <row r="283" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E283" s="1"/>
+      <c r="E283" s="2"/>
     </row>
     <row r="284" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E284" s="1"/>
+      <c r="E284" s="2"/>
     </row>
     <row r="285" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E285" s="1"/>
+      <c r="E285" s="2"/>
     </row>
     <row r="286" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E286" s="1"/>
+      <c r="E286" s="2"/>
     </row>
     <row r="287" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E287" s="1"/>
+      <c r="E287" s="2"/>
     </row>
     <row r="288" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E288" s="1"/>
+      <c r="E288" s="2"/>
     </row>
     <row r="289" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E289" s="1"/>
+      <c r="E289" s="2"/>
     </row>
     <row r="290" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E290" s="1"/>
+      <c r="E290" s="2"/>
     </row>
     <row r="291" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E291" s="1"/>
+      <c r="E291" s="2"/>
     </row>
     <row r="292" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E292" s="1"/>
+      <c r="E292" s="2"/>
     </row>
     <row r="293" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E293" s="1"/>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E294" s="1"/>
+      <c r="E294" s="2"/>
     </row>
     <row r="295" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E295" s="1"/>
+      <c r="E295" s="2"/>
     </row>
     <row r="296" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E296" s="1"/>
+      <c r="E296" s="2"/>
     </row>
     <row r="297" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E297" s="1"/>
+      <c r="E297" s="2"/>
     </row>
     <row r="298" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E298" s="1"/>
+      <c r="E298" s="2"/>
     </row>
     <row r="299" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E299" s="1"/>
+      <c r="E299" s="2"/>
     </row>
     <row r="300" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E300" s="1"/>
+      <c r="E300" s="2"/>
     </row>
     <row r="301" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E301" s="1"/>
+      <c r="E301" s="2"/>
     </row>
     <row r="302" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E302" s="1"/>
+      <c r="E302" s="2"/>
     </row>
     <row r="303" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E303" s="1"/>
+      <c r="E303" s="2"/>
     </row>
     <row r="304" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E304" s="1"/>
+      <c r="E304" s="2"/>
     </row>
     <row r="305" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E305" s="1"/>
+      <c r="E305" s="2"/>
     </row>
     <row r="306" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E306" s="1"/>
+      <c r="E306" s="2"/>
     </row>
     <row r="307" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E307" s="1"/>
+      <c r="E307" s="2"/>
     </row>
     <row r="308" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E308" s="1"/>
+      <c r="E308" s="2"/>
     </row>
     <row r="309" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E309" s="1"/>
+      <c r="E309" s="2"/>
     </row>
     <row r="310" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E310" s="1"/>
+      <c r="E310" s="2"/>
     </row>
     <row r="311" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E311" s="1"/>
+      <c r="E311" s="2"/>
     </row>
     <row r="312" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E312" s="1"/>
+      <c r="E312" s="2"/>
     </row>
     <row r="313" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E313" s="1"/>
+      <c r="E313" s="2"/>
     </row>
     <row r="314" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E314" s="1"/>
+      <c r="E314" s="2"/>
     </row>
     <row r="315" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E315" s="1"/>
+      <c r="E315" s="2"/>
     </row>
     <row r="316" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E316" s="1"/>
+      <c r="E316" s="2"/>
     </row>
     <row r="317" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E317" s="1"/>
+      <c r="E317" s="2"/>
     </row>
     <row r="318" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E318" s="1"/>
+      <c r="E318" s="2"/>
     </row>
     <row r="319" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E319" s="1"/>
+      <c r="E319" s="2"/>
     </row>
     <row r="320" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E320" s="1"/>
+      <c r="E320" s="2"/>
     </row>
     <row r="321" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E321" s="1"/>
+      <c r="E321" s="2"/>
     </row>
     <row r="322" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E322" s="1"/>
+      <c r="E322" s="2"/>
     </row>
     <row r="323" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E323" s="1"/>
+      <c r="E323" s="2"/>
     </row>
     <row r="324" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E324" s="1"/>
+      <c r="E324" s="2"/>
     </row>
     <row r="325" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E325" s="1"/>
+      <c r="E325" s="2"/>
     </row>
     <row r="326" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E326" s="1"/>
+      <c r="E326" s="2"/>
     </row>
     <row r="327" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E327" s="1"/>
+      <c r="E327" s="2"/>
     </row>
     <row r="328" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E328" s="1"/>
+      <c r="E328" s="2"/>
     </row>
     <row r="329" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E329" s="1"/>
+      <c r="E329" s="2"/>
     </row>
     <row r="330" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E330" s="1"/>
+      <c r="E330" s="2"/>
     </row>
     <row r="331" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E331" s="1"/>
+      <c r="E331" s="2"/>
     </row>
     <row r="332" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E332" s="1"/>
+      <c r="E332" s="2"/>
     </row>
     <row r="333" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E333" s="1"/>
+      <c r="E333" s="2"/>
     </row>
     <row r="334" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E334" s="1"/>
+      <c r="E334" s="2"/>
     </row>
     <row r="335" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E335" s="1"/>
+      <c r="E335" s="2"/>
     </row>
     <row r="336" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E336" s="1"/>
+      <c r="E336" s="2"/>
     </row>
     <row r="337" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E337" s="1"/>
+      <c r="E337" s="2"/>
     </row>
     <row r="338" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E338" s="1"/>
+      <c r="E338" s="2"/>
     </row>
     <row r="339" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E339" s="1"/>
+      <c r="E339" s="2"/>
     </row>
     <row r="340" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E340" s="1"/>
+      <c r="E340" s="2"/>
     </row>
     <row r="341" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E341" s="1"/>
+      <c r="E341" s="2"/>
     </row>
     <row r="342" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E342" s="1"/>
+      <c r="E342" s="2"/>
     </row>
     <row r="343" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E343" s="1"/>
+      <c r="E343" s="2"/>
     </row>
     <row r="344" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E344" s="1"/>
+      <c r="E344" s="2"/>
     </row>
     <row r="345" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E345" s="1"/>
+      <c r="E345" s="2"/>
     </row>
     <row r="346" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E346" s="1"/>
+      <c r="E346" s="2"/>
     </row>
     <row r="347" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E347" s="1"/>
+      <c r="E347" s="2"/>
     </row>
     <row r="348" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E348" s="1"/>
+      <c r="E348" s="2"/>
     </row>
     <row r="349" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E349" s="1"/>
+      <c r="E349" s="2"/>
     </row>
     <row r="350" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E350" s="1"/>
+      <c r="E350" s="2"/>
     </row>
     <row r="351" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E351" s="1"/>
+      <c r="E351" s="2"/>
     </row>
     <row r="352" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E352" s="1"/>
+      <c r="E352" s="2"/>
     </row>
     <row r="353" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E353" s="1"/>
+      <c r="E353" s="2"/>
     </row>
     <row r="354" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E354" s="1"/>
+      <c r="E354" s="2"/>
     </row>
     <row r="355" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E355" s="1"/>
+      <c r="E355" s="2"/>
     </row>
     <row r="356" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E356" s="1"/>
+      <c r="E356" s="2"/>
     </row>
     <row r="357" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E357" s="1"/>
+      <c r="E357" s="2"/>
     </row>
     <row r="358" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E358" s="1"/>
+      <c r="E358" s="2"/>
     </row>
     <row r="359" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E359" s="1"/>
+      <c r="E359" s="2"/>
     </row>
     <row r="360" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E360" s="1"/>
+      <c r="E360" s="2"/>
     </row>
     <row r="361" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E361" s="1"/>
+      <c r="E361" s="2"/>
     </row>
     <row r="362" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E362" s="1"/>
+      <c r="E362" s="2"/>
     </row>
     <row r="363" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E363" s="1"/>
+      <c r="E363" s="2"/>
     </row>
     <row r="364" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E364" s="1"/>
+      <c r="E364" s="2"/>
     </row>
     <row r="365" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E365" s="1"/>
+      <c r="E365" s="2"/>
     </row>
     <row r="366" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E366" s="1"/>
+      <c r="E366" s="2"/>
     </row>
     <row r="367" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E367" s="1"/>
+      <c r="E367" s="2"/>
     </row>
     <row r="368" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E368" s="1"/>
+      <c r="E368" s="2"/>
     </row>
     <row r="369" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E369" s="1"/>
+      <c r="E369" s="2"/>
     </row>
     <row r="370" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E370" s="1"/>
+      <c r="E370" s="2"/>
     </row>
     <row r="371" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E371" s="1"/>
+      <c r="E371" s="2"/>
     </row>
     <row r="372" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E372" s="1"/>
+      <c r="E372" s="2"/>
     </row>
     <row r="373" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E373" s="1"/>
+      <c r="E373" s="2"/>
     </row>
     <row r="374" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E374" s="1"/>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E375" s="1"/>
+      <c r="E375" s="2"/>
     </row>
     <row r="376" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E376" s="1"/>
+      <c r="E376" s="2"/>
     </row>
     <row r="377" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E377" s="1"/>
+      <c r="E377" s="2"/>
     </row>
     <row r="378" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E378" s="1"/>
+      <c r="E378" s="2"/>
     </row>
     <row r="379" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E379" s="1"/>
+      <c r="E379" s="2"/>
     </row>
     <row r="380" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E380" s="1"/>
+      <c r="E380" s="2"/>
     </row>
     <row r="381" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E381" s="1"/>
+      <c r="E381" s="2"/>
     </row>
     <row r="382" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E382" s="1"/>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E383" s="1"/>
+      <c r="E383" s="2"/>
     </row>
     <row r="384" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E384" s="1"/>
+      <c r="E384" s="2"/>
     </row>
     <row r="385" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E385" s="1"/>
+      <c r="E385" s="2"/>
     </row>
     <row r="386" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E386" s="1"/>
+      <c r="E386" s="2"/>
     </row>
     <row r="387" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E387" s="1"/>
+      <c r="E387" s="2"/>
     </row>
     <row r="388" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E388" s="1"/>
+      <c r="E388" s="2"/>
     </row>
     <row r="389" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E389" s="1"/>
+      <c r="E389" s="2"/>
     </row>
     <row r="390" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E390" s="1"/>
+      <c r="E390" s="2"/>
     </row>
     <row r="391" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E391" s="1"/>
+      <c r="E391" s="2"/>
     </row>
     <row r="392" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E392" s="1"/>
+      <c r="E392" s="2"/>
     </row>
     <row r="393" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E393" s="1"/>
+      <c r="E393" s="2"/>
     </row>
     <row r="394" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E394" s="1"/>
+      <c r="E394" s="2"/>
     </row>
     <row r="395" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E395" s="1"/>
+      <c r="E395" s="2"/>
     </row>
     <row r="396" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E396" s="1"/>
+      <c r="E396" s="2"/>
     </row>
     <row r="397" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E397" s="1"/>
+      <c r="E397" s="2"/>
     </row>
     <row r="398" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E398" s="1"/>
+      <c r="E398" s="2"/>
     </row>
     <row r="399" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E399" s="1"/>
+      <c r="E399" s="2"/>
     </row>
     <row r="400" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E400" s="1"/>
+      <c r="E400" s="2"/>
     </row>
     <row r="401" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E401" s="1"/>
+      <c r="E401" s="2"/>
     </row>
     <row r="402" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E402" s="1"/>
+      <c r="E402" s="2"/>
     </row>
     <row r="403" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E403" s="1"/>
+      <c r="E403" s="2"/>
     </row>
     <row r="404" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E404" s="1"/>
+      <c r="E404" s="2"/>
     </row>
     <row r="405" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E405" s="1"/>
+      <c r="E405" s="2"/>
     </row>
     <row r="406" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E406" s="1"/>
+      <c r="E406" s="2"/>
     </row>
     <row r="407" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E407" s="1"/>
+      <c r="E407" s="2"/>
     </row>
     <row r="408" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E408" s="1"/>
+      <c r="E408" s="2"/>
     </row>
     <row r="409" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E409" s="1"/>
+      <c r="E409" s="2"/>
     </row>
     <row r="410" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E410" s="1"/>
+      <c r="E410" s="2"/>
     </row>
     <row r="411" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E411" s="1"/>
+      <c r="E411" s="2"/>
     </row>
     <row r="412" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E412" s="1"/>
+      <c r="E412" s="2"/>
     </row>
     <row r="413" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E413" s="1"/>
+      <c r="E413" s="2"/>
     </row>
     <row r="414" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E414" s="1"/>
+      <c r="E414" s="2"/>
     </row>
     <row r="415" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E415" s="1"/>
+      <c r="E415" s="2"/>
     </row>
     <row r="416" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E416" s="1"/>
+      <c r="E416" s="2"/>
     </row>
     <row r="417" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E417" s="1"/>
+      <c r="E417" s="2"/>
     </row>
     <row r="418" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E418" s="1"/>
+      <c r="E418" s="2"/>
     </row>
     <row r="419" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E419" s="1"/>
+      <c r="E419" s="2"/>
     </row>
     <row r="420" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E420" s="1"/>
+      <c r="E420" s="2"/>
     </row>
     <row r="421" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E421" s="1"/>
+      <c r="E421" s="2"/>
     </row>
     <row r="422" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E422" s="1"/>
+      <c r="E422" s="2"/>
     </row>
     <row r="423" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E423" s="1"/>
+      <c r="E423" s="2"/>
     </row>
     <row r="424" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E424" s="1"/>
+      <c r="E424" s="2"/>
     </row>
     <row r="425" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E425" s="1"/>
+      <c r="E425" s="2"/>
     </row>
     <row r="426" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E426" s="1"/>
+      <c r="E426" s="2"/>
     </row>
     <row r="427" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E427" s="1"/>
+      <c r="E427" s="2"/>
     </row>
     <row r="428" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E428" s="1"/>
+      <c r="E428" s="2"/>
     </row>
     <row r="429" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E429" s="1"/>
+      <c r="E429" s="2"/>
     </row>
     <row r="430" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E430" s="1"/>
+      <c r="E430" s="2"/>
     </row>
     <row r="431" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E431" s="1"/>
+      <c r="E431" s="2"/>
     </row>
     <row r="432" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E432" s="1"/>
+      <c r="E432" s="2"/>
     </row>
     <row r="433" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E433" s="1"/>
+      <c r="E433" s="2"/>
     </row>
     <row r="434" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E434" s="1"/>
+      <c r="E434" s="2"/>
     </row>
     <row r="435" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E435" s="1"/>
+      <c r="E435" s="2"/>
     </row>
     <row r="436" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E436" s="1"/>
+      <c r="E436" s="2"/>
     </row>
     <row r="437" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E437" s="1"/>
+      <c r="E437" s="2"/>
     </row>
     <row r="438" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E438" s="1"/>
+      <c r="E438" s="2"/>
     </row>
     <row r="439" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E439" s="1"/>
+      <c r="E439" s="2"/>
     </row>
     <row r="440" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E440" s="1"/>
+      <c r="E440" s="2"/>
     </row>
     <row r="441" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E441" s="1"/>
+      <c r="E441" s="2"/>
     </row>
     <row r="442" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E442" s="1"/>
+      <c r="E442" s="2"/>
     </row>
     <row r="443" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E443" s="1"/>
+      <c r="E443" s="2"/>
     </row>
     <row r="444" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E444" s="1"/>
+      <c r="E444" s="2"/>
     </row>
     <row r="445" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E445" s="1"/>
+      <c r="E445" s="2"/>
     </row>
     <row r="446" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E446" s="1"/>
+      <c r="E446" s="2"/>
     </row>
     <row r="447" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E447" s="1"/>
+      <c r="E447" s="2"/>
     </row>
     <row r="448" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E448" s="1"/>
+      <c r="E448" s="2"/>
     </row>
     <row r="449" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E449" s="1"/>
+      <c r="E449" s="2"/>
     </row>
     <row r="450" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E450" s="1"/>
+      <c r="E450" s="2"/>
     </row>
     <row r="451" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E451" s="1"/>
+      <c r="E451" s="2"/>
     </row>
     <row r="452" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E452" s="1"/>
+      <c r="E452" s="2"/>
     </row>
     <row r="453" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E453" s="1"/>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E454" s="1"/>
+      <c r="E454" s="2"/>
     </row>
     <row r="455" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E455" s="1"/>
+      <c r="E455" s="2"/>
     </row>
     <row r="456" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E456" s="1"/>
+      <c r="E456" s="2"/>
     </row>
     <row r="457" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E457" s="1"/>
+      <c r="E457" s="2"/>
     </row>
     <row r="458" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E458" s="1"/>
+      <c r="E458" s="2"/>
     </row>
     <row r="459" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E459" s="1"/>
+      <c r="E459" s="2"/>
     </row>
     <row r="460" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E460" s="1"/>
+      <c r="E460" s="2"/>
     </row>
     <row r="461" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E461" s="1"/>
+      <c r="E461" s="2"/>
     </row>
     <row r="462" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E462" s="1"/>
+      <c r="E462" s="2"/>
     </row>
     <row r="463" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E463" s="1"/>
+      <c r="E463" s="2"/>
     </row>
     <row r="464" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E464" s="1"/>
+      <c r="E464" s="2"/>
     </row>
     <row r="465" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E465" s="1"/>
+      <c r="E465" s="2"/>
     </row>
     <row r="466" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E466" s="1"/>
+      <c r="E466" s="2"/>
     </row>
     <row r="467" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E467" s="1"/>
+      <c r="E467" s="2"/>
     </row>
     <row r="468" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E468" s="1"/>
+      <c r="E468" s="2"/>
     </row>
     <row r="469" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E469" s="1"/>
+      <c r="E469" s="2"/>
     </row>
     <row r="470" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E470" s="1"/>
+      <c r="E470" s="2"/>
     </row>
     <row r="471" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E471" s="1"/>
+      <c r="E471" s="2"/>
     </row>
     <row r="472" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E472" s="1"/>
+      <c r="E472" s="2"/>
     </row>
     <row r="473" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E473" s="1"/>
+      <c r="E473" s="2"/>
     </row>
     <row r="474" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E474" s="1"/>
+      <c r="E474" s="2"/>
     </row>
     <row r="475" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E475" s="1"/>
+      <c r="E475" s="2"/>
     </row>
     <row r="476" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E476" s="1"/>
+      <c r="E476" s="2"/>
     </row>
     <row r="477" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E477" s="1"/>
+      <c r="E477" s="2"/>
     </row>
     <row r="478" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E478" s="1"/>
+      <c r="E478" s="2"/>
     </row>
     <row r="479" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E479" s="1"/>
+      <c r="E479" s="2"/>
     </row>
     <row r="480" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E480" s="1"/>
+      <c r="E480" s="2"/>
     </row>
     <row r="481" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E481" s="1"/>
+      <c r="E481" s="2"/>
     </row>
     <row r="482" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E482" s="1"/>
+      <c r="E482" s="2"/>
     </row>
     <row r="483" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E483" s="1"/>
+      <c r="E483" s="2"/>
     </row>
     <row r="484" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E484" s="1"/>
+      <c r="E484" s="2"/>
     </row>
     <row r="485" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E485" s="1"/>
+      <c r="E485" s="2"/>
     </row>
     <row r="486" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E486" s="1"/>
+      <c r="E486" s="2"/>
     </row>
     <row r="487" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E487" s="1"/>
+      <c r="E487" s="2"/>
     </row>
     <row r="488" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E488" s="1"/>
+      <c r="E488" s="2"/>
     </row>
     <row r="489" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E489" s="1"/>
+      <c r="E489" s="2"/>
     </row>
     <row r="490" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E490" s="1"/>
+      <c r="E490" s="2"/>
     </row>
     <row r="491" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E491" s="1"/>
+      <c r="E491" s="2"/>
     </row>
     <row r="492" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E492" s="1"/>
+      <c r="E492" s="2"/>
     </row>
     <row r="493" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E493" s="1"/>
+      <c r="E493" s="2"/>
     </row>
     <row r="494" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E494" s="1"/>
+      <c r="E494" s="2"/>
     </row>
     <row r="495" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E495" s="1"/>
+      <c r="E495" s="2"/>
     </row>
     <row r="496" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E496" s="1"/>
+      <c r="E496" s="2"/>
     </row>
     <row r="497" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E497" s="1"/>
+      <c r="E497" s="2"/>
     </row>
     <row r="498" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E498" s="1"/>
+      <c r="E498" s="2"/>
     </row>
     <row r="499" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E499" s="1"/>
+      <c r="E499" s="2"/>
     </row>
     <row r="500" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E500" s="1"/>
+      <c r="E500" s="2"/>
     </row>
     <row r="501" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E501" s="1"/>
+      <c r="E501" s="2"/>
     </row>
     <row r="502" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E502" s="1"/>
+      <c r="E502" s="2"/>
     </row>
     <row r="503" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E503" s="1"/>
+      <c r="E503" s="2"/>
     </row>
     <row r="504" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E504" s="1"/>
+      <c r="E504" s="2"/>
     </row>
     <row r="505" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E505" s="1"/>
+      <c r="E505" s="2"/>
     </row>
     <row r="506" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E506" s="1"/>
+      <c r="E506" s="2"/>
     </row>
     <row r="507" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E507" s="1"/>
+      <c r="E507" s="2"/>
     </row>
     <row r="508" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E508" s="1"/>
+      <c r="E508" s="2"/>
     </row>
     <row r="509" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E509" s="1"/>
+      <c r="E509" s="2"/>
     </row>
     <row r="510" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E510" s="1"/>
+      <c r="E510" s="2"/>
     </row>
     <row r="511" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E511" s="1"/>
+      <c r="E511" s="2"/>
     </row>
     <row r="512" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E512" s="1"/>
+      <c r="E512" s="2"/>
     </row>
     <row r="513" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E513" s="1"/>
+      <c r="E513" s="2"/>
     </row>
     <row r="514" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E514" s="1"/>
+      <c r="E514" s="2"/>
     </row>
     <row r="515" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E515" s="1"/>
+      <c r="E515" s="2"/>
     </row>
     <row r="516" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E516" s="1"/>
+      <c r="E516" s="2"/>
     </row>
     <row r="517" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E517" s="1"/>
+      <c r="E517" s="2"/>
     </row>
     <row r="518" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E518" s="1"/>
+      <c r="E518" s="2"/>
     </row>
     <row r="519" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E519" s="1"/>
+      <c r="E519" s="2"/>
     </row>
     <row r="520" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E520" s="1"/>
+      <c r="E520" s="2"/>
     </row>
     <row r="521" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E521" s="1"/>
+      <c r="E521" s="2"/>
     </row>
     <row r="522" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E522" s="1"/>
+      <c r="E522" s="2"/>
     </row>
     <row r="523" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E523" s="1"/>
+      <c r="E523" s="2"/>
     </row>
     <row r="524" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E524" s="1"/>
+      <c r="E524" s="2"/>
     </row>
     <row r="525" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E525" s="1"/>
+      <c r="E525" s="2"/>
     </row>
     <row r="526" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E526" s="1"/>
+      <c r="E526" s="2"/>
     </row>
     <row r="527" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E527" s="1"/>
+      <c r="E527" s="2"/>
     </row>
     <row r="528" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E528" s="1"/>
+      <c r="E528" s="2"/>
     </row>
     <row r="529" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E529" s="1"/>
+      <c r="E529" s="2"/>
     </row>
     <row r="530" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E530" s="1"/>
+      <c r="E530" s="2"/>
     </row>
     <row r="531" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E531" s="1"/>
+      <c r="E531" s="2"/>
     </row>
     <row r="532" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E532" s="1"/>
+      <c r="E532" s="2"/>
     </row>
     <row r="533" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E533" s="1"/>
+      <c r="E533" s="2"/>
     </row>
     <row r="534" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E534" s="1"/>
+      <c r="E534" s="2"/>
     </row>
     <row r="535" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E535" s="1"/>
+      <c r="E535" s="2"/>
     </row>
     <row r="536" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E536" s="1"/>
+      <c r="E536" s="2"/>
     </row>
     <row r="537" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E537" s="1"/>
+      <c r="E537" s="2"/>
     </row>
     <row r="538" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E538" s="1"/>
+      <c r="E538" s="2"/>
     </row>
     <row r="539" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E539" s="1"/>
+      <c r="E539" s="2"/>
     </row>
     <row r="540" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E540" s="1"/>
+      <c r="E540" s="2"/>
     </row>
     <row r="541" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E541" s="1"/>
+      <c r="E541" s="2"/>
     </row>
     <row r="542" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E542" s="1"/>
+      <c r="E542" s="2"/>
     </row>
     <row r="543" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E543" s="1"/>
+      <c r="E543" s="2"/>
     </row>
     <row r="544" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E544" s="1"/>
+      <c r="E544" s="2"/>
     </row>
     <row r="545" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E545" s="1"/>
+      <c r="E545" s="2"/>
     </row>
     <row r="546" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E546" s="1"/>
+      <c r="E546" s="2"/>
     </row>
     <row r="547" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E547" s="1"/>
+      <c r="E547" s="2"/>
     </row>
     <row r="548" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E548" s="1"/>
+      <c r="E548" s="2"/>
     </row>
     <row r="549" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E549" s="1"/>
+      <c r="E549" s="2"/>
     </row>
     <row r="550" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E550" s="1"/>
+      <c r="E550" s="2"/>
     </row>
     <row r="551" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E551" s="1"/>
+      <c r="E551" s="2"/>
     </row>
     <row r="552" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E552" s="1"/>
+      <c r="E552" s="2"/>
     </row>
     <row r="553" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E553" s="1"/>
+      <c r="E553" s="2"/>
     </row>
     <row r="554" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E554" s="1"/>
+      <c r="E554" s="2"/>
     </row>
     <row r="555" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E555" s="1"/>
+      <c r="E555" s="2"/>
     </row>
     <row r="556" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E556" s="1"/>
+      <c r="E556" s="2"/>
     </row>
     <row r="557" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E557" s="1"/>
+      <c r="E557" s="2"/>
     </row>
     <row r="558" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E558" s="1"/>
+      <c r="E558" s="2"/>
     </row>
     <row r="559" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E559" s="1"/>
+      <c r="E559" s="2"/>
     </row>
     <row r="560" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E560" s="1"/>
+      <c r="E560" s="2"/>
     </row>
     <row r="561" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E561" s="1"/>
+      <c r="E561" s="2"/>
     </row>
     <row r="562" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E562" s="1"/>
+      <c r="E562" s="2"/>
     </row>
     <row r="563" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E563" s="1"/>
+      <c r="E563" s="2"/>
     </row>
     <row r="564" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E564" s="1"/>
+      <c r="E564" s="2"/>
     </row>
     <row r="565" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E565" s="1"/>
+      <c r="E565" s="2"/>
     </row>
     <row r="566" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E566" s="1"/>
+      <c r="E566" s="2"/>
     </row>
     <row r="567" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E567" s="1"/>
+      <c r="E567" s="2"/>
     </row>
     <row r="568" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E568" s="1"/>
+      <c r="E568" s="2"/>
     </row>
     <row r="569" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E569" s="1"/>
+      <c r="E569" s="2"/>
     </row>
     <row r="570" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E570" s="1"/>
+      <c r="E570" s="2"/>
     </row>
     <row r="571" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E571" s="1"/>
+      <c r="E571" s="2"/>
     </row>
     <row r="572" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E572" s="1"/>
+      <c r="E572" s="2"/>
     </row>
     <row r="573" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E573" s="1"/>
+      <c r="E573" s="2"/>
     </row>
     <row r="574" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E574" s="1"/>
+      <c r="E574" s="2"/>
     </row>
     <row r="575" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E575" s="1"/>
+      <c r="E575" s="2"/>
     </row>
     <row r="576" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E576" s="1"/>
+      <c r="E576" s="2"/>
     </row>
     <row r="577" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E577" s="1"/>
+      <c r="E577" s="2"/>
     </row>
     <row r="578" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E578" s="1"/>
+      <c r="E578" s="2"/>
     </row>
     <row r="579" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E579" s="1"/>
+      <c r="E579" s="2"/>
     </row>
     <row r="580" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E580" s="1"/>
+      <c r="E580" s="2"/>
     </row>
     <row r="581" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E581" s="1"/>
+      <c r="E581" s="2"/>
     </row>
     <row r="582" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E582" s="1"/>
+      <c r="E582" s="2"/>
     </row>
     <row r="583" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E583" s="1"/>
+      <c r="E583" s="2"/>
     </row>
     <row r="584" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E584" s="1"/>
+      <c r="E584" s="2"/>
     </row>
     <row r="585" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E585" s="1"/>
+      <c r="E585" s="2"/>
     </row>
     <row r="586" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E586" s="1"/>
+      <c r="E586" s="2"/>
     </row>
     <row r="587" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E587" s="1"/>
+      <c r="E587" s="2"/>
     </row>
     <row r="588" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E588" s="1"/>
+      <c r="E588" s="2"/>
     </row>
     <row r="589" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E589" s="1"/>
+      <c r="E589" s="2"/>
     </row>
     <row r="590" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E590" s="1"/>
+      <c r="E590" s="2"/>
     </row>
     <row r="591" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E591" s="1"/>
+      <c r="E591" s="2"/>
     </row>
     <row r="592" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E592" s="1"/>
+      <c r="E592" s="2"/>
     </row>
     <row r="593" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E593" s="1"/>
+      <c r="E593" s="2"/>
     </row>
     <row r="594" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E594" s="1"/>
+      <c r="E594" s="2"/>
     </row>
     <row r="595" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E595" s="1"/>
+      <c r="E595" s="2"/>
     </row>
     <row r="596" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E596" s="1"/>
+      <c r="E596" s="2"/>
     </row>
     <row r="597" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E597" s="1"/>
+      <c r="E597" s="2"/>
     </row>
     <row r="598" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E598" s="1"/>
+      <c r="E598" s="2"/>
     </row>
     <row r="599" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E599" s="1"/>
+      <c r="E599" s="2"/>
     </row>
     <row r="600" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E600" s="1"/>
+      <c r="E600" s="2"/>
     </row>
     <row r="601" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E601" s="1"/>
+      <c r="E601" s="2"/>
     </row>
     <row r="602" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E602" s="1"/>
+      <c r="E602" s="2"/>
     </row>
     <row r="603" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E603" s="1"/>
+      <c r="E603" s="2"/>
     </row>
     <row r="604" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E604" s="1"/>
+      <c r="E604" s="2"/>
     </row>
     <row r="605" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E605" s="1"/>
+      <c r="E605" s="2"/>
     </row>
     <row r="606" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E606" s="1"/>
+      <c r="E606" s="2"/>
     </row>
     <row r="607" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E607" s="1"/>
+      <c r="E607" s="2"/>
     </row>
     <row r="608" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E608" s="1"/>
+      <c r="E608" s="2"/>
     </row>
     <row r="609" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E609" s="1"/>
+      <c r="E609" s="2"/>
     </row>
     <row r="610" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E610" s="1"/>
+      <c r="E610" s="2"/>
     </row>
     <row r="611" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E611" s="1"/>
+      <c r="E611" s="2"/>
     </row>
     <row r="612" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E612" s="1"/>
+      <c r="E612" s="2"/>
     </row>
     <row r="613" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E613" s="1"/>
+      <c r="E613" s="2"/>
     </row>
     <row r="614" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E614" s="1"/>
+      <c r="E614" s="2"/>
     </row>
     <row r="615" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E615" s="1"/>
+      <c r="E615" s="2"/>
     </row>
     <row r="616" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E616" s="1"/>
+      <c r="E616" s="2"/>
     </row>
     <row r="617" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E617" s="1"/>
+      <c r="E617" s="2"/>
     </row>
     <row r="618" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E618" s="1"/>
+      <c r="E618" s="2"/>
     </row>
     <row r="619" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E619" s="1"/>
+      <c r="E619" s="2"/>
     </row>
     <row r="620" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E620" s="1"/>
+      <c r="E620" s="2"/>
     </row>
     <row r="621" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E621" s="1"/>
+      <c r="E621" s="2"/>
     </row>
     <row r="622" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E622" s="1"/>
+      <c r="E622" s="2"/>
     </row>
     <row r="623" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E623" s="1"/>
+      <c r="E623" s="2"/>
     </row>
     <row r="624" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E624" s="1"/>
+      <c r="E624" s="2"/>
     </row>
     <row r="625" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E625" s="1"/>
+      <c r="E625" s="2"/>
     </row>
     <row r="626" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E626" s="1"/>
+      <c r="E626" s="2"/>
     </row>
     <row r="627" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E627" s="1"/>
+      <c r="E627" s="2"/>
     </row>
     <row r="628" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E628" s="1"/>
+      <c r="E628" s="2"/>
     </row>
     <row r="629" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E629" s="1"/>
+      <c r="E629" s="2"/>
     </row>
     <row r="630" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E630" s="1"/>
+      <c r="E630" s="2"/>
     </row>
     <row r="631" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E631" s="1"/>
+      <c r="E631" s="2"/>
     </row>
     <row r="632" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E632" s="1"/>
+      <c r="E632" s="2"/>
     </row>
     <row r="633" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E633" s="1"/>
+      <c r="E633" s="2"/>
     </row>
     <row r="634" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E634" s="1"/>
+      <c r="E634" s="2"/>
     </row>
     <row r="635" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E635" s="1"/>
+      <c r="E635" s="2"/>
     </row>
     <row r="636" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E636" s="1"/>
+      <c r="E636" s="2"/>
     </row>
     <row r="637" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E637" s="1"/>
+      <c r="E637" s="2"/>
     </row>
     <row r="638" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E638" s="1"/>
+      <c r="E638" s="2"/>
     </row>
     <row r="639" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E639" s="1"/>
+      <c r="E639" s="2"/>
     </row>
     <row r="640" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E640" s="1"/>
+      <c r="E640" s="2"/>
     </row>
     <row r="641" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E641" s="1"/>
+      <c r="E641" s="2"/>
     </row>
     <row r="642" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E642" s="1"/>
+      <c r="E642" s="2"/>
     </row>
     <row r="643" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E643" s="1"/>
+      <c r="E643" s="2"/>
     </row>
     <row r="644" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E644" s="1"/>
+      <c r="E644" s="2"/>
     </row>
     <row r="645" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E645" s="1"/>
+      <c r="E645" s="2"/>
     </row>
     <row r="646" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E646" s="1"/>
+      <c r="E646" s="2"/>
     </row>
     <row r="647" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E647" s="1"/>
+      <c r="E647" s="2"/>
     </row>
     <row r="648" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E648" s="1"/>
+      <c r="E648" s="2"/>
     </row>
     <row r="649" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E649" s="1"/>
+      <c r="E649" s="2"/>
     </row>
     <row r="650" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E650" s="1"/>
+      <c r="E650" s="2"/>
     </row>
     <row r="651" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E651" s="1"/>
+      <c r="E651" s="2"/>
     </row>
     <row r="652" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E652" s="1"/>
+      <c r="E652" s="2"/>
     </row>
     <row r="653" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E653" s="1"/>
+      <c r="E653" s="2"/>
     </row>
     <row r="654" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E654" s="1"/>
+      <c r="E654" s="2"/>
     </row>
     <row r="655" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E655" s="1"/>
+      <c r="E655" s="2"/>
     </row>
     <row r="656" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E656" s="1"/>
+      <c r="E656" s="2"/>
     </row>
     <row r="657" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E657" s="1"/>
+      <c r="E657" s="2"/>
     </row>
     <row r="658" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E658" s="1"/>
+      <c r="E658" s="2"/>
     </row>
     <row r="659" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E659" s="1"/>
+      <c r="E659" s="2"/>
     </row>
     <row r="660" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E660" s="1"/>
+      <c r="E660" s="2"/>
     </row>
     <row r="661" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E661" s="1"/>
+      <c r="E661" s="2"/>
     </row>
     <row r="662" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E662" s="1"/>
+      <c r="E662" s="2"/>
     </row>
     <row r="663" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E663" s="1"/>
+      <c r="E663" s="2"/>
     </row>
     <row r="664" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E664" s="1"/>
+      <c r="E664" s="2"/>
     </row>
     <row r="665" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E665" s="1"/>
+      <c r="E665" s="2"/>
     </row>
     <row r="666" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E666" s="1"/>
+      <c r="E666" s="2"/>
     </row>
     <row r="667" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E667" s="1"/>
+      <c r="E667" s="2"/>
     </row>
     <row r="668" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E668" s="1"/>
+      <c r="E668" s="2"/>
     </row>
     <row r="669" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E669" s="1"/>
+      <c r="E669" s="2"/>
     </row>
     <row r="670" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E670" s="1"/>
+      <c r="E670" s="2"/>
     </row>
     <row r="671" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E671" s="1"/>
+      <c r="E671" s="2"/>
     </row>
     <row r="672" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E672" s="1"/>
+      <c r="E672" s="2"/>
     </row>
     <row r="673" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E673" s="1"/>
+      <c r="E673" s="2"/>
     </row>
     <row r="674" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E674" s="1"/>
+      <c r="E674" s="2"/>
     </row>
     <row r="675" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E675" s="1"/>
+      <c r="E675" s="2"/>
     </row>
     <row r="676" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E676" s="1"/>
+      <c r="E676" s="2"/>
     </row>
     <row r="677" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E677" s="1"/>
+      <c r="E677" s="2"/>
     </row>
     <row r="678" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E678" s="1"/>
+      <c r="E678" s="2"/>
     </row>
     <row r="679" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E679" s="1"/>
+      <c r="E679" s="2"/>
     </row>
     <row r="680" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E680" s="1"/>
+      <c r="E680" s="2"/>
     </row>
     <row r="681" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E681" s="1"/>
+      <c r="E681" s="2"/>
     </row>
     <row r="682" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E682" s="1"/>
+      <c r="E682" s="2"/>
     </row>
     <row r="683" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E683" s="1"/>
+      <c r="E683" s="2"/>
     </row>
     <row r="684" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E684" s="1"/>
+      <c r="E684" s="2"/>
     </row>
     <row r="685" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E685" s="1"/>
+      <c r="E685" s="2"/>
     </row>
     <row r="686" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E686" s="1"/>
+      <c r="E686" s="2"/>
     </row>
     <row r="687" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E687" s="1"/>
+      <c r="E687" s="2"/>
     </row>
     <row r="688" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E688" s="1"/>
+      <c r="E688" s="2"/>
     </row>
     <row r="689" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E689" s="1"/>
+      <c r="E689" s="2"/>
     </row>
     <row r="690" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E690" s="1"/>
+      <c r="E690" s="2"/>
     </row>
     <row r="691" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E691" s="1"/>
+      <c r="E691" s="2"/>
     </row>
     <row r="692" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E692" s="1"/>
+      <c r="E692" s="2"/>
     </row>
     <row r="693" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E693" s="1"/>
+      <c r="E693" s="2"/>
     </row>
     <row r="694" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E694" s="1"/>
+      <c r="E694" s="2"/>
     </row>
     <row r="695" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E695" s="1"/>
+      <c r="E695" s="2"/>
     </row>
     <row r="696" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E696" s="1"/>
+      <c r="E696" s="2"/>
     </row>
     <row r="697" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E697" s="1"/>
+      <c r="E697" s="2"/>
     </row>
     <row r="698" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E698" s="1"/>
+      <c r="E698" s="2"/>
     </row>
     <row r="699" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E699" s="1"/>
+      <c r="E699" s="2"/>
     </row>
     <row r="700" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E700" s="1"/>
+      <c r="E700" s="2"/>
     </row>
     <row r="701" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E701" s="1"/>
+      <c r="E701" s="2"/>
     </row>
     <row r="702" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E702" s="1"/>
+      <c r="E702" s="2"/>
     </row>
     <row r="703" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E703" s="1"/>
+      <c r="E703" s="2"/>
     </row>
     <row r="704" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E704" s="1"/>
+      <c r="E704" s="2"/>
     </row>
     <row r="705" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E705" s="1"/>
+      <c r="E705" s="2"/>
     </row>
     <row r="706" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E706" s="1"/>
+      <c r="E706" s="2"/>
     </row>
     <row r="707" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E707" s="1"/>
+      <c r="E707" s="2"/>
     </row>
     <row r="708" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E708" s="1"/>
+      <c r="E708" s="2"/>
     </row>
     <row r="709" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E709" s="1"/>
+      <c r="E709" s="2"/>
     </row>
     <row r="710" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E710" s="1"/>
+      <c r="E710" s="2"/>
     </row>
     <row r="711" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E711" s="1"/>
+      <c r="E711" s="2"/>
     </row>
     <row r="712" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E712" s="1"/>
+      <c r="E712" s="2"/>
     </row>
     <row r="713" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E713" s="1"/>
+      <c r="E713" s="2"/>
     </row>
     <row r="714" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E714" s="1"/>
+      <c r="E714" s="2"/>
     </row>
     <row r="715" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E715" s="1"/>
+      <c r="E715" s="2"/>
     </row>
     <row r="716" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E716" s="1"/>
+      <c r="E716" s="2"/>
     </row>
     <row r="717" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E717" s="1"/>
+      <c r="E717" s="2"/>
     </row>
     <row r="718" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E718" s="1"/>
+      <c r="E718" s="2"/>
     </row>
     <row r="719" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E719" s="1"/>
+      <c r="E719" s="2"/>
     </row>
     <row r="720" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E720" s="1"/>
+      <c r="E720" s="2"/>
     </row>
     <row r="721" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E721" s="1"/>
+      <c r="E721" s="2"/>
     </row>
     <row r="722" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E722" s="1"/>
+      <c r="E722" s="2"/>
     </row>
     <row r="723" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E723" s="1"/>
+      <c r="E723" s="2"/>
     </row>
     <row r="724" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E724" s="1"/>
+      <c r="E724" s="2"/>
     </row>
     <row r="725" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E725" s="1"/>
+      <c r="E725" s="2"/>
     </row>
     <row r="726" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E726" s="1"/>
+      <c r="E726" s="2"/>
     </row>
     <row r="727" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E727" s="1"/>
+      <c r="E727" s="2"/>
     </row>
     <row r="728" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E728" s="1"/>
+      <c r="E728" s="2"/>
     </row>
     <row r="729" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E729" s="1"/>
+      <c r="E729" s="2"/>
     </row>
     <row r="730" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E730" s="1"/>
+      <c r="E730" s="2"/>
     </row>
     <row r="731" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E731" s="1"/>
+      <c r="E731" s="2"/>
     </row>
     <row r="732" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E732" s="1"/>
+      <c r="E732" s="2"/>
     </row>
     <row r="733" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E733" s="1"/>
+      <c r="E733" s="2"/>
     </row>
     <row r="734" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E734" s="1"/>
+      <c r="E734" s="2"/>
     </row>
     <row r="735" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E735" s="1"/>
+      <c r="E735" s="2"/>
     </row>
     <row r="736" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E736" s="1"/>
+      <c r="E736" s="2"/>
     </row>
     <row r="737" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E737" s="1"/>
+      <c r="E737" s="2"/>
     </row>
     <row r="738" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E738" s="1"/>
+      <c r="E738" s="2"/>
     </row>
     <row r="739" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E739" s="1"/>
+      <c r="E739" s="2"/>
     </row>
     <row r="740" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E740" s="1"/>
+      <c r="E740" s="2"/>
     </row>
     <row r="741" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E741" s="1"/>
+      <c r="E741" s="2"/>
     </row>
     <row r="742" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E742" s="1"/>
+      <c r="E742" s="2"/>
     </row>
     <row r="743" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E743" s="1"/>
+      <c r="E743" s="2"/>
     </row>
     <row r="744" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E744" s="1"/>
+      <c r="E744" s="2"/>
     </row>
     <row r="745" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E745" s="1"/>
+      <c r="E745" s="2"/>
     </row>
     <row r="746" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E746" s="1"/>
+      <c r="E746" s="2"/>
     </row>
     <row r="747" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E747" s="1"/>
+      <c r="E747" s="2"/>
     </row>
     <row r="748" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E748" s="1"/>
+      <c r="E748" s="2"/>
     </row>
     <row r="749" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E749" s="1"/>
+      <c r="E749" s="2"/>
     </row>
     <row r="750" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E750" s="1"/>
+      <c r="E750" s="2"/>
     </row>
     <row r="751" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E751" s="1"/>
+      <c r="E751" s="2"/>
     </row>
     <row r="752" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E752" s="1"/>
+      <c r="E752" s="2"/>
     </row>
     <row r="753" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E753" s="1"/>
+      <c r="E753" s="2"/>
     </row>
     <row r="754" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E754" s="1"/>
+      <c r="E754" s="2"/>
     </row>
     <row r="755" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E755" s="1"/>
+      <c r="E755" s="2"/>
     </row>
     <row r="756" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E756" s="1"/>
+      <c r="E756" s="2"/>
     </row>
     <row r="757" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E757" s="1"/>
+      <c r="E757" s="2"/>
     </row>
     <row r="758" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E758" s="1"/>
+      <c r="E758" s="2"/>
     </row>
     <row r="759" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E759" s="1"/>
+      <c r="E759" s="2"/>
     </row>
     <row r="760" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E760" s="1"/>
+      <c r="E760" s="2"/>
     </row>
     <row r="761" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E761" s="1"/>
+      <c r="E761" s="2"/>
     </row>
     <row r="762" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E762" s="1"/>
+      <c r="E762" s="2"/>
     </row>
     <row r="763" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E763" s="1"/>
+      <c r="E763" s="2"/>
     </row>
     <row r="764" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E764" s="1"/>
+      <c r="E764" s="2"/>
     </row>
     <row r="765" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E765" s="1"/>
+      <c r="E765" s="2"/>
     </row>
     <row r="766" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E766" s="1"/>
+      <c r="E766" s="2"/>
     </row>
     <row r="767" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E767" s="1"/>
+      <c r="E767" s="2"/>
     </row>
     <row r="768" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E768" s="1"/>
+      <c r="E768" s="2"/>
     </row>
     <row r="769" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E769" s="1"/>
+      <c r="E769" s="2"/>
     </row>
     <row r="770" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E770" s="1"/>
+      <c r="E770" s="2"/>
     </row>
     <row r="771" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E771" s="1"/>
+      <c r="E771" s="2"/>
     </row>
     <row r="772" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E772" s="1"/>
+      <c r="E772" s="2"/>
     </row>
     <row r="773" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E773" s="1"/>
+      <c r="E773" s="2"/>
     </row>
     <row r="774" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E774" s="1"/>
+      <c r="E774" s="2"/>
     </row>
     <row r="775" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E775" s="1"/>
+      <c r="E775" s="2"/>
     </row>
     <row r="776" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E776" s="1"/>
+      <c r="E776" s="2"/>
     </row>
     <row r="777" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E777" s="1"/>
+      <c r="E777" s="2"/>
     </row>
     <row r="778" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E778" s="1"/>
+      <c r="E778" s="2"/>
     </row>
     <row r="779" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E779" s="1"/>
+      <c r="E779" s="2"/>
     </row>
     <row r="780" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E780" s="1"/>
+      <c r="E780" s="2"/>
     </row>
     <row r="781" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E781" s="1"/>
+      <c r="E781" s="2"/>
     </row>
     <row r="782" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E782" s="1"/>
+      <c r="E782" s="2"/>
     </row>
     <row r="783" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E783" s="1"/>
+      <c r="E783" s="2"/>
     </row>
     <row r="784" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E784" s="1"/>
+      <c r="E784" s="2"/>
     </row>
     <row r="785" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E785" s="1"/>
+      <c r="E785" s="2"/>
     </row>
     <row r="786" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E786" s="1"/>
+      <c r="E786" s="2"/>
     </row>
     <row r="787" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E787" s="1"/>
+      <c r="E787" s="2"/>
     </row>
     <row r="788" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E788" s="1"/>
+      <c r="E788" s="2"/>
     </row>
     <row r="789" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E789" s="1"/>
+      <c r="E789" s="2"/>
     </row>
     <row r="790" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E790" s="1"/>
+      <c r="E790" s="2"/>
     </row>
     <row r="791" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E791" s="1"/>
+      <c r="E791" s="2"/>
     </row>
     <row r="792" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E792" s="1"/>
+      <c r="E792" s="2"/>
     </row>
     <row r="793" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E793" s="1"/>
+      <c r="E793" s="2"/>
     </row>
     <row r="794" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E794" s="1"/>
+      <c r="E794" s="2"/>
     </row>
     <row r="795" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E795" s="1"/>
+      <c r="E795" s="2"/>
     </row>
     <row r="796" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E796" s="1"/>
+      <c r="E796" s="2"/>
     </row>
     <row r="797" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E797" s="1"/>
+      <c r="E797" s="2"/>
     </row>
     <row r="798" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E798" s="1"/>
+      <c r="E798" s="2"/>
     </row>
     <row r="799" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E799" s="1"/>
+      <c r="E799" s="2"/>
     </row>
     <row r="800" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E800" s="1"/>
+      <c r="E800" s="2"/>
     </row>
     <row r="801" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E801" s="1"/>
+      <c r="E801" s="2"/>
     </row>
     <row r="802" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E802" s="1"/>
+      <c r="E802" s="2"/>
     </row>
     <row r="803" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E803" s="1"/>
+      <c r="E803" s="2"/>
     </row>
     <row r="804" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E804" s="1"/>
+      <c r="E804" s="2"/>
     </row>
     <row r="805" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E805" s="1"/>
+      <c r="E805" s="2"/>
     </row>
     <row r="806" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E806" s="1"/>
+      <c r="E806" s="2"/>
     </row>
     <row r="807" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E807" s="1"/>
+      <c r="E807" s="2"/>
     </row>
     <row r="808" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E808" s="1"/>
+      <c r="E808" s="2"/>
     </row>
     <row r="809" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E809" s="1"/>
+      <c r="E809" s="2"/>
     </row>
     <row r="810" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E810" s="1"/>
+      <c r="E810" s="2"/>
     </row>
     <row r="811" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E811" s="1"/>
+      <c r="E811" s="2"/>
     </row>
     <row r="812" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E812" s="1"/>
+      <c r="E812" s="2"/>
     </row>
     <row r="813" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E813" s="1"/>
+      <c r="E813" s="2"/>
     </row>
     <row r="814" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E814" s="1"/>
+      <c r="E814" s="2"/>
     </row>
     <row r="815" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E815" s="1"/>
+      <c r="E815" s="2"/>
     </row>
     <row r="816" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E816" s="1"/>
+      <c r="E816" s="2"/>
     </row>
     <row r="817" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E817" s="1"/>
+      <c r="E817" s="2"/>
     </row>
     <row r="818" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E818" s="1"/>
+      <c r="E818" s="2"/>
     </row>
     <row r="819" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E819" s="1"/>
+      <c r="E819" s="2"/>
     </row>
     <row r="820" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E820" s="1"/>
+      <c r="E820" s="2"/>
     </row>
     <row r="821" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E821" s="1"/>
+      <c r="E821" s="2"/>
     </row>
     <row r="822" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E822" s="1"/>
+      <c r="E822" s="2"/>
     </row>
     <row r="823" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E823" s="1"/>
+      <c r="E823" s="2"/>
     </row>
     <row r="824" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E824" s="1"/>
+      <c r="E824" s="2"/>
     </row>
     <row r="825" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E825" s="1"/>
+      <c r="E825" s="2"/>
     </row>
     <row r="826" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E826" s="1"/>
+      <c r="E826" s="2"/>
     </row>
     <row r="827" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E827" s="1"/>
+      <c r="E827" s="2"/>
     </row>
     <row r="828" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E828" s="1"/>
+      <c r="E828" s="2"/>
     </row>
     <row r="829" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E829" s="1"/>
+      <c r="E829" s="2"/>
     </row>
     <row r="830" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E830" s="1"/>
+      <c r="E830" s="2"/>
     </row>
     <row r="831" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E831" s="1"/>
+      <c r="E831" s="2"/>
     </row>
     <row r="832" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E832" s="1"/>
+      <c r="E832" s="2"/>
     </row>
     <row r="833" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E833" s="1"/>
+      <c r="E833" s="2"/>
     </row>
     <row r="834" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E834" s="1"/>
+      <c r="E834" s="2"/>
     </row>
     <row r="835" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E835" s="1"/>
+      <c r="E835" s="2"/>
     </row>
     <row r="836" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E836" s="1"/>
+      <c r="E836" s="2"/>
     </row>
     <row r="837" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E837" s="1"/>
+      <c r="E837" s="2"/>
     </row>
     <row r="838" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E838" s="1"/>
+      <c r="E838" s="2"/>
     </row>
     <row r="839" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E839" s="1"/>
+      <c r="E839" s="2"/>
     </row>
     <row r="840" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E840" s="1"/>
+      <c r="E840" s="2"/>
     </row>
     <row r="841" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E841" s="1"/>
+      <c r="E841" s="2"/>
     </row>
     <row r="842" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E842" s="1"/>
+      <c r="E842" s="2"/>
     </row>
     <row r="843" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E843" s="1"/>
+      <c r="E843" s="2"/>
     </row>
     <row r="844" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E844" s="1"/>
+      <c r="E844" s="2"/>
     </row>
     <row r="845" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E845" s="1"/>
+      <c r="E845" s="2"/>
     </row>
     <row r="846" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E846" s="1"/>
+      <c r="E846" s="2"/>
     </row>
     <row r="847" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E847" s="1"/>
+      <c r="E847" s="2"/>
     </row>
     <row r="848" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E848" s="1"/>
+      <c r="E848" s="2"/>
     </row>
     <row r="849" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E849" s="1"/>
+      <c r="E849" s="2"/>
     </row>
     <row r="850" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E850" s="1"/>
+      <c r="E850" s="2"/>
     </row>
     <row r="851" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E851" s="1"/>
+      <c r="E851" s="2"/>
     </row>
     <row r="852" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E852" s="1"/>
+      <c r="E852" s="2"/>
     </row>
     <row r="853" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E853" s="1"/>
+      <c r="E853" s="2"/>
     </row>
     <row r="854" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E854" s="1"/>
+      <c r="E854" s="2"/>
     </row>
     <row r="855" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E855" s="1"/>
+      <c r="E855" s="2"/>
     </row>
     <row r="856" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E856" s="1"/>
+      <c r="E856" s="2"/>
     </row>
     <row r="857" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E857" s="1"/>
+      <c r="E857" s="2"/>
     </row>
     <row r="858" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E858" s="1"/>
+      <c r="E858" s="2"/>
     </row>
     <row r="859" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E859" s="1"/>
+      <c r="E859" s="2"/>
     </row>
     <row r="860" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E860" s="1"/>
+      <c r="E860" s="2"/>
     </row>
     <row r="861" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E861" s="1"/>
+      <c r="E861" s="2"/>
     </row>
     <row r="862" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E862" s="1"/>
+      <c r="E862" s="2"/>
     </row>
     <row r="863" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E863" s="1"/>
+      <c r="E863" s="2"/>
     </row>
     <row r="864" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E864" s="1"/>
+      <c r="E864" s="2"/>
     </row>
     <row r="865" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E865" s="1"/>
+      <c r="E865" s="2"/>
     </row>
     <row r="866" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E866" s="1"/>
+      <c r="E866" s="2"/>
     </row>
     <row r="867" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E867" s="1"/>
+      <c r="E867" s="2"/>
     </row>
     <row r="868" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E868" s="1"/>
+      <c r="E868" s="2"/>
     </row>
     <row r="869" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E869" s="1"/>
+      <c r="E869" s="2"/>
     </row>
     <row r="870" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E870" s="1"/>
+      <c r="E870" s="2"/>
     </row>
     <row r="871" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E871" s="1"/>
+      <c r="E871" s="2"/>
     </row>
     <row r="872" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E872" s="1"/>
+      <c r="E872" s="2"/>
     </row>
     <row r="873" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E873" s="1"/>
+      <c r="E873" s="2"/>
     </row>
     <row r="874" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E874" s="1"/>
+      <c r="E874" s="2"/>
     </row>
     <row r="875" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E875" s="1"/>
+      <c r="E875" s="2"/>
     </row>
     <row r="876" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E876" s="1"/>
+      <c r="E876" s="2"/>
     </row>
     <row r="877" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E877" s="1"/>
+      <c r="E877" s="2"/>
     </row>
     <row r="878" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E878" s="1"/>
+      <c r="E878" s="2"/>
     </row>
     <row r="879" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E879" s="1"/>
+      <c r="E879" s="2"/>
     </row>
     <row r="880" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E880" s="1"/>
+      <c r="E880" s="2"/>
     </row>
     <row r="881" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E881" s="1"/>
+      <c r="E881" s="2"/>
     </row>
     <row r="882" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E882" s="1"/>
+      <c r="E882" s="2"/>
     </row>
     <row r="883" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E883" s="1"/>
+      <c r="E883" s="2"/>
     </row>
     <row r="884" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E884" s="1"/>
+      <c r="E884" s="2"/>
     </row>
     <row r="885" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E885" s="1"/>
+      <c r="E885" s="2"/>
     </row>
     <row r="886" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E886" s="1"/>
+      <c r="E886" s="2"/>
     </row>
     <row r="887" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E887" s="1"/>
+      <c r="E887" s="2"/>
     </row>
     <row r="888" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E888" s="1"/>
+      <c r="E888" s="2"/>
     </row>
     <row r="889" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E889" s="1"/>
+      <c r="E889" s="2"/>
     </row>
     <row r="890" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E890" s="1"/>
+      <c r="E890" s="2"/>
     </row>
     <row r="891" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E891" s="1"/>
+      <c r="E891" s="2"/>
     </row>
     <row r="892" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E892" s="1"/>
+      <c r="E892" s="2"/>
     </row>
     <row r="893" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E893" s="1"/>
+      <c r="E893" s="2"/>
     </row>
     <row r="894" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E894" s="1"/>
+      <c r="E894" s="2"/>
     </row>
     <row r="895" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E895" s="1"/>
+      <c r="E895" s="2"/>
     </row>
     <row r="896" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E896" s="1"/>
+      <c r="E896" s="2"/>
     </row>
     <row r="897" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E897" s="1"/>
+      <c r="E897" s="2"/>
     </row>
     <row r="898" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E898" s="1"/>
+      <c r="E898" s="2"/>
     </row>
     <row r="899" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E899" s="1"/>
+      <c r="E899" s="2"/>
     </row>
     <row r="900" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E900" s="1"/>
+      <c r="E900" s="2"/>
     </row>
     <row r="901" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E901" s="1"/>
+      <c r="E901" s="2"/>
     </row>
     <row r="902" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E902" s="1"/>
+      <c r="E902" s="2"/>
     </row>
     <row r="903" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E903" s="1"/>
+      <c r="E903" s="2"/>
     </row>
     <row r="904" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E904" s="1"/>
+      <c r="E904" s="2"/>
     </row>
     <row r="905" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E905" s="1"/>
+      <c r="E905" s="2"/>
     </row>
     <row r="906" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E906" s="1"/>
+      <c r="E906" s="2"/>
     </row>
     <row r="907" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E907" s="1"/>
+      <c r="E907" s="2"/>
     </row>
     <row r="908" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E908" s="1"/>
+      <c r="E908" s="2"/>
     </row>
     <row r="909" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E909" s="1"/>
+      <c r="E909" s="2"/>
     </row>
     <row r="910" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E910" s="1"/>
+      <c r="E910" s="2"/>
     </row>
     <row r="911" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E911" s="1"/>
+      <c r="E911" s="2"/>
     </row>
     <row r="912" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E912" s="1"/>
+      <c r="E912" s="2"/>
     </row>
     <row r="913" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E913" s="1"/>
+      <c r="E913" s="2"/>
     </row>
     <row r="914" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E914" s="1"/>
+      <c r="E914" s="2"/>
     </row>
     <row r="915" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E915" s="1"/>
+      <c r="E915" s="2"/>
     </row>
     <row r="916" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E916" s="1"/>
+      <c r="E916" s="2"/>
     </row>
     <row r="917" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E917" s="1"/>
+      <c r="E917" s="2"/>
     </row>
     <row r="918" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E918" s="1"/>
+      <c r="E918" s="2"/>
     </row>
     <row r="919" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E919" s="1"/>
+      <c r="E919" s="2"/>
     </row>
     <row r="920" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E920" s="1"/>
+      <c r="E920" s="2"/>
     </row>
     <row r="921" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E921" s="1"/>
+      <c r="E921" s="2"/>
     </row>
     <row r="922" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E922" s="1"/>
+      <c r="E922" s="2"/>
     </row>
     <row r="923" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E923" s="1"/>
+      <c r="E923" s="2"/>
     </row>
     <row r="924" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E924" s="1"/>
+      <c r="E924" s="2"/>
     </row>
     <row r="925" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E925" s="1"/>
+      <c r="E925" s="2"/>
     </row>
     <row r="926" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E926" s="1"/>
+      <c r="E926" s="2"/>
     </row>
     <row r="927" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E927" s="1"/>
+      <c r="E927" s="2"/>
     </row>
     <row r="928" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E928" s="1"/>
+      <c r="E928" s="2"/>
     </row>
     <row r="929" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E929" s="1"/>
+      <c r="E929" s="2"/>
     </row>
     <row r="930" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E930" s="1"/>
+      <c r="E930" s="2"/>
     </row>
     <row r="931" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E931" s="1"/>
+      <c r="E931" s="2"/>
     </row>
     <row r="932" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E932" s="1"/>
+      <c r="E932" s="2"/>
     </row>
     <row r="933" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E933" s="1"/>
+      <c r="E933" s="2"/>
     </row>
     <row r="934" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E934" s="1"/>
+      <c r="E934" s="2"/>
     </row>
     <row r="935" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E935" s="1"/>
+      <c r="E935" s="2"/>
     </row>
     <row r="936" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E936" s="1"/>
+      <c r="E936" s="2"/>
     </row>
     <row r="937" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E937" s="1"/>
+      <c r="E937" s="2"/>
     </row>
     <row r="938" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E938" s="1"/>
+      <c r="E938" s="2"/>
     </row>
     <row r="939" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E939" s="1"/>
+      <c r="E939" s="2"/>
     </row>
     <row r="940" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E940" s="1"/>
+      <c r="E940" s="2"/>
     </row>
     <row r="941" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E941" s="1"/>
+      <c r="E941" s="2"/>
     </row>
     <row r="942" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E942" s="1"/>
+      <c r="E942" s="2"/>
     </row>
     <row r="943" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E943" s="1"/>
+      <c r="E943" s="2"/>
     </row>
     <row r="944" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E944" s="1"/>
+      <c r="E944" s="2"/>
     </row>
     <row r="945" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E945" s="1"/>
+      <c r="E945" s="2"/>
     </row>
     <row r="946" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E946" s="1"/>
+      <c r="E946" s="2"/>
     </row>
     <row r="947" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E947" s="1"/>
+      <c r="E947" s="2"/>
     </row>
     <row r="948" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E948" s="1"/>
+      <c r="E948" s="2"/>
     </row>
     <row r="949" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E949" s="1"/>
+      <c r="E949" s="2"/>
     </row>
     <row r="950" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E950" s="1"/>
+      <c r="E950" s="2"/>
     </row>
     <row r="951" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E951" s="1"/>
+      <c r="E951" s="2"/>
     </row>
     <row r="952" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E952" s="1"/>
+      <c r="E952" s="2"/>
     </row>
     <row r="953" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E953" s="1"/>
+      <c r="E953" s="2"/>
     </row>
     <row r="954" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E954" s="1"/>
+      <c r="E954" s="2"/>
     </row>
     <row r="955" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E955" s="1"/>
+      <c r="E955" s="2"/>
     </row>
     <row r="956" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E956" s="1"/>
+      <c r="E956" s="2"/>
     </row>
     <row r="957" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E957" s="1"/>
+      <c r="E957" s="2"/>
     </row>
     <row r="958" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E958" s="1"/>
+      <c r="E958" s="2"/>
     </row>
     <row r="959" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E959" s="1"/>
+      <c r="E959" s="2"/>
     </row>
     <row r="960" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E960" s="1"/>
+      <c r="E960" s="2"/>
     </row>
     <row r="961" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E961" s="1"/>
+      <c r="E961" s="2"/>
     </row>
     <row r="962" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E962" s="1"/>
+      <c r="E962" s="2"/>
     </row>
     <row r="963" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E963" s="1"/>
+      <c r="E963" s="2"/>
     </row>
     <row r="964" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E964" s="1"/>
+      <c r="E964" s="2"/>
     </row>
     <row r="965" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E965" s="1"/>
+      <c r="E965" s="2"/>
     </row>
     <row r="966" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E966" s="1"/>
+      <c r="E966" s="2"/>
     </row>
     <row r="967" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E967" s="1"/>
+      <c r="E967" s="2"/>
     </row>
     <row r="968" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E968" s="1"/>
+      <c r="E968" s="2"/>
     </row>
     <row r="969" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E969" s="1"/>
+      <c r="E969" s="2"/>
     </row>
     <row r="970" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E970" s="1"/>
+      <c r="E970" s="2"/>
     </row>
     <row r="971" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E971" s="1"/>
+      <c r="E971" s="2"/>
     </row>
     <row r="972" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E972" s="1"/>
+      <c r="E972" s="2"/>
     </row>
     <row r="973" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E973" s="1"/>
+      <c r="E973" s="2"/>
     </row>
     <row r="974" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E974" s="1"/>
+      <c r="E974" s="2"/>
     </row>
     <row r="975" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E975" s="1"/>
+      <c r="E975" s="2"/>
     </row>
     <row r="976" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E976" s="1"/>
+      <c r="E976" s="2"/>
     </row>
     <row r="977" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E977" s="1"/>
+      <c r="E977" s="2"/>
     </row>
     <row r="978" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E978" s="1"/>
+      <c r="E978" s="2"/>
     </row>
     <row r="979" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E979" s="1"/>
+      <c r="E979" s="2"/>
     </row>
     <row r="980" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E980" s="1"/>
+      <c r="E980" s="2"/>
     </row>
     <row r="981" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E981" s="1"/>
+      <c r="E981" s="2"/>
     </row>
     <row r="982" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E982" s="1"/>
+      <c r="E982" s="2"/>
     </row>
     <row r="983" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E983" s="1"/>
+      <c r="E983" s="2"/>
     </row>
     <row r="984" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E984" s="1"/>
+      <c r="E984" s="2"/>
     </row>
     <row r="985" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E985" s="1"/>
+      <c r="E985" s="2"/>
     </row>
     <row r="986" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E986" s="1"/>
+      <c r="E986" s="2"/>
     </row>
     <row r="987" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E987" s="1"/>
+      <c r="E987" s="2"/>
     </row>
     <row r="988" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E988" s="1"/>
+      <c r="E988" s="2"/>
     </row>
     <row r="989" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E989" s="1"/>
+      <c r="E989" s="2"/>
     </row>
     <row r="990" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E990" s="1"/>
+      <c r="E990" s="2"/>
     </row>
     <row r="991" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E991" s="1"/>
+      <c r="E991" s="2"/>
     </row>
     <row r="992" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E992" s="1"/>
+      <c r="E992" s="2"/>
     </row>
     <row r="993" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E993" s="1"/>
+      <c r="E993" s="2"/>
     </row>
     <row r="994" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E994" s="1"/>
+      <c r="E994" s="2"/>
     </row>
     <row r="995" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E995" s="1"/>
+      <c r="E995" s="2"/>
     </row>
     <row r="996" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E996" s="1"/>
+      <c r="E996" s="2"/>
     </row>
     <row r="997" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E997" s="1"/>
+      <c r="E997" s="2"/>
     </row>
     <row r="998" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E998" s="1"/>
+      <c r="E998" s="2"/>
     </row>
     <row r="999" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E999" s="1"/>
+      <c r="E999" s="2"/>
     </row>
     <row r="1000" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1000" s="1"/>
+      <c r="E1000" s="2"/>
     </row>
     <row r="1001" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1001" s="1"/>
+      <c r="E1001" s="2"/>
     </row>
     <row r="1002" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1002" s="1"/>
+      <c r="E1002" s="2"/>
     </row>
     <row r="1003" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1003" s="1"/>
+      <c r="E1003" s="2"/>
     </row>
     <row r="1004" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1004" s="1"/>
+      <c r="E1004" s="2"/>
     </row>
     <row r="1005" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1005" s="1"/>
+      <c r="E1005" s="2"/>
     </row>
     <row r="1006" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1006" s="1"/>
+      <c r="E1006" s="2"/>
     </row>
     <row r="1007" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1007" s="1"/>
+      <c r="E1007" s="2"/>
     </row>
     <row r="1008" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1008" s="1"/>
+      <c r="E1008" s="2"/>
     </row>
     <row r="1009" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1009" s="1"/>
+      <c r="E1009" s="2"/>
     </row>
     <row r="1010" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1010" s="1"/>
+      <c r="E1010" s="2"/>
     </row>
     <row r="1011" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1011" s="1"/>
+      <c r="E1011" s="2"/>
     </row>
     <row r="1012" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1012" s="1"/>
+      <c r="E1012" s="2"/>
     </row>
     <row r="1013" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1013" s="1"/>
+      <c r="E1013" s="2"/>
     </row>
     <row r="1014" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1014" s="1"/>
+      <c r="E1014" s="2"/>
     </row>
     <row r="1015" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1015" s="1"/>
+      <c r="E1015" s="2"/>
     </row>
     <row r="1016" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1016" s="1"/>
+      <c r="E1016" s="2"/>
     </row>
     <row r="1017" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1017" s="1"/>
+      <c r="E1017" s="2"/>
     </row>
     <row r="1018" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1018" s="1"/>
+      <c r="E1018" s="2"/>
     </row>
     <row r="1019" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1019" s="1"/>
+      <c r="E1019" s="2"/>
     </row>
     <row r="1020" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1020" s="1"/>
+      <c r="E1020" s="2"/>
     </row>
     <row r="1021" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1021" s="1"/>
+      <c r="E1021" s="2"/>
     </row>
     <row r="1022" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1022" s="1"/>
+      <c r="E1022" s="2"/>
     </row>
     <row r="1023" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1023" s="1"/>
+      <c r="E1023" s="2"/>
     </row>
     <row r="1024" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1024" s="1"/>
+      <c r="E1024" s="2"/>
     </row>
     <row r="1025" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1025" s="1"/>
+      <c r="E1025" s="2"/>
     </row>
     <row r="1026" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1026" s="1"/>
+      <c r="E1026" s="2"/>
     </row>
     <row r="1027" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1027" s="1"/>
+      <c r="E1027" s="2"/>
     </row>
     <row r="1028" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1028" s="1"/>
+      <c r="E1028" s="2"/>
     </row>
     <row r="1029" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1029" s="1"/>
+      <c r="E1029" s="2"/>
     </row>
     <row r="1030" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1030" s="1"/>
+      <c r="E1030" s="2"/>
     </row>
     <row r="1031" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1031" s="1"/>
+      <c r="E1031" s="2"/>
+    </row>
+    <row r="1032" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1032" s="2"/>
+    </row>
+    <row r="1033" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1033" s="2"/>
+    </row>
+    <row r="1034" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1034" s="2"/>
+    </row>
+    <row r="1035" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1035" s="2"/>
+    </row>
+    <row r="1036" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1036" s="2"/>
+    </row>
+    <row r="1037" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1037" s="2"/>
+    </row>
+    <row r="1038" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1038" s="2"/>
+    </row>
+    <row r="1039" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1039" s="2"/>
+    </row>
+    <row r="1040" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1040" s="2"/>
+    </row>
+    <row r="1041" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1041" s="2"/>
+    </row>
+    <row r="1042" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1042" s="2"/>
+    </row>
+    <row r="1043" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1043" s="2"/>
+    </row>
+    <row r="1044" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1044" s="2"/>
+    </row>
+    <row r="1045" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E1045" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PHA4GE to Sequence Repository Field Mappings.xlsx
+++ b/PHA4GE to Sequence Repository Field Mappings.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmagriffiths/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fda-my.sharepoint.com/personal/ruth_timme_fda_gov/Documents/workingGroups-Projects/PHA4GE/SARS-CoV-2 metadata spec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDCB4F9-BA12-C245-BC6D-97C3F1E192A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{51042134-DAB5-D344-9564-0FBD49DC2C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E146FC95-68C3-504E-9B7D-6922032300AC}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="580" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="25860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GISAID to PHA4GE field mappings" sheetId="3" r:id="rId1"/>
     <sheet name="ENA to PHA4GE field mappings" sheetId="4" r:id="rId2"/>
     <sheet name="NCBI to PHA4GE field mappings" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NCBI to PHA4GE field mappings'!$A$4:$F$39</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="542">
   <si>
     <t>bioproject accession</t>
   </si>
@@ -239,6 +253,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SARS-CoV-2</t>
     </r>
@@ -247,6 +262,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">/country/sapleID/2020, GISAID structure: </t>
     </r>
@@ -255,6 +271,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>hCov-19</t>
     </r>
@@ -263,6 +280,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/country/sampleID/2020. Change "SARS-CoV-2" to "hCov-19" in the isolate name.</t>
     </r>
@@ -363,6 +381,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Age-binning is not accepted.</t>
     </r>
@@ -371,6 +390,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Caution: the host age may be considered public health identifiable information. Consult the data steward before sharing. If the information is unknown or can not be shared, put "unknown".  </t>
     </r>
@@ -833,6 +853,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(not in template, but appear in submission process)</t>
     </r>
@@ -934,9 +955,6 @@
     <t>This field can be populated by the PHA4GE field "r2 fastq filename".</t>
   </si>
   <si>
-    <t>NCBI Pathogen Package Field</t>
-  </si>
-  <si>
     <t>NCBI Definition</t>
   </si>
   <si>
@@ -961,16 +979,7 @@
     <t>This field can be populated by the PHA4GE field "bioproject accession".</t>
   </si>
   <si>
-    <t>attribute package</t>
-  </si>
-  <si>
-    <t>Specify the pathogen type. Allowed values are "Pathogen.cl" (for clinical or host-associated pathogen) or "Pathogen.env" (for environmental, food or other pathogen). The value provided in this field drives validation of other fields.</t>
-  </si>
-  <si>
     <t xml:space="preserve">N/A </t>
-  </si>
-  <si>
-    <t>Specify either "Pathogen.cl" (for clinical or host-associated pathogen) or "Pathogen.env" (for environmental sample).</t>
   </si>
   <si>
     <t xml:space="preserve">The most descriptive organism name for this sample (to the species, if possible). It is OK to submit an organism name that is not in our database. In the case of a new species, provide the desired organism name, and our taxonomists may assign a provisional taxID. In the case of unidentified species, choose the appropriate Genus and include 'sp.', e.g., "Escherichia sp.". </t>
@@ -1018,16 +1027,10 @@
     <t>If known, provide the geographical coordinates of the location where the sample was collected. Concatenate the PHA4GE fields "geo_loc latitude" and "geo_loc longitude". Specify as degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 38.98 N 77.11 W. Do not provide lat/lon of the institution, nor the centre of the city/region where the sample was collected as this falsely implicates an existing location. Cautin: lat/lon information may be considered sensitive information. Consult the data steward before sharing. If unknown or can not be shared, provide a null value.</t>
   </si>
   <si>
-    <t>If the information is unknown or not available, leave blank.</t>
-  </si>
-  <si>
     <t>host</t>
   </si>
   <si>
     <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
-  </si>
-  <si>
-    <t>Mandatory, if sample has host (i.e. not environmental)</t>
   </si>
   <si>
     <t>This field can be populated by the PHA4GE field "host (scientific name)". This field is only required for host-associated samples (Pathogen.cl specified in attribute_package). If the combined attribute package is being used, this field can be left empty for Pathogen.env isolates.</t>
@@ -1054,9 +1057,6 @@
     <t>This field can be populated by PHA4GE field "host disease outcome". If the information is unknown, or can not be shared, leave blank or provide a null value.</t>
   </si>
   <si>
-    <t>host_disease_stage</t>
-  </si>
-  <si>
     <t>Stage of disease at the time of sampling</t>
   </si>
   <si>
@@ -1078,13 +1078,7 @@
     <t>host_specimen_voucher</t>
   </si>
   <si>
-    <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit: http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier.</t>
-  </si>
-  <si>
     <t xml:space="preserve">anatomical material </t>
-  </si>
-  <si>
-    <t>NCBI SRA Field</t>
   </si>
   <si>
     <t xml:space="preserve">BioSample accession </t>
@@ -1204,9 +1198,6 @@
     <t>passage_method</t>
   </si>
   <si>
-    <t>Description of how organism was passaged. Should include if passage_number is used</t>
-  </si>
-  <si>
     <t>host_anatomical_material</t>
   </si>
   <si>
@@ -1241,12 +1232,6 @@
   </si>
   <si>
     <t>Process used to collect sample</t>
-  </si>
-  <si>
-    <t>recent_travel_history_location</t>
-  </si>
-  <si>
-    <t>recent_travel_history_return_date</t>
   </si>
   <si>
     <t>location of exposure geo_loc name (country)</t>
@@ -1291,43 +1276,16 @@
     <t>Which vaccine?</t>
   </si>
   <si>
-    <t>date_of_prior_SARS-CoV-2_vaccination_ (1st_dose)</t>
-  </si>
-  <si>
-    <t>prior_SARS-CoV-2_antiviral_treatment</t>
-  </si>
-  <si>
-    <t>date_of_prior_SARS-CoV-2_antiviral_treatment</t>
-  </si>
-  <si>
     <t>antiviral_treatment_agent</t>
-  </si>
-  <si>
-    <t>diagnostic_gene_name_1</t>
   </si>
   <si>
     <t>The name of the gene used in the diagnostic RT-PCR test.</t>
   </si>
   <si>
-    <t>diagnostic_pcr_protocol_1</t>
-  </si>
-  <si>
     <t>The name and version number of the protocol used for diagnostic marker amplification.</t>
   </si>
   <si>
-    <t>diagnostic_pcr_Ct_value_1</t>
-  </si>
-  <si>
     <t>The Ct value result from a diagnostic SARS-CoV-2 RT-PCR test.</t>
-  </si>
-  <si>
-    <t>diagnostic_gene_name_2</t>
-  </si>
-  <si>
-    <t>diagnostic_pcr_protocol_2</t>
-  </si>
-  <si>
-    <t>diagnostic_pcr_Ct_value_2</t>
   </si>
   <si>
     <t>The cycle threshold (CT) value result from a diagnostic SARS-CoV-2 RT-PCR test.</t>
@@ -1352,9 +1310,6 @@
   </si>
   <si>
     <t>destination of most recent travel (country): destination of most recent travel ((state/province/territory): destination of most recent travel (city)</t>
-  </si>
-  <si>
-    <t>This field can be populated by combining the PHA4GE fields "destination of most recent travel (country)", "destination of most recent travel ((state/province/territory), and "destination of most recent travel (city)". The PHA4GE country pick list was derived from the INSDC country list. Put country field first, followed by state/province/region (if known), followed by the city (if known), separated by colons. Caution: the geo_loc names state/province/region and city may be considered sensitive information. Consult the data steward before sharing.</t>
   </si>
   <si>
     <t>This field can be populated by combining the PHA4GE fields "geo_loc name (country)" and "geo_loc name (state/province/region)". The PHA4GE country pick list was derived from the INSDC country list. Put country field first, followed by state/province/region, separated by a colon. Caution: the geo_loc name (state/province/region) may be considered sensitive information. Consult the data steward before sharing.</t>
@@ -1444,40 +1399,7 @@
     <t>Provide the appropriate filename recorded in the Bioinformatics and QC metrics section. If sequence data is "paired", provide the second filename under "Filename 2".</t>
   </si>
   <si>
-    <t>no NCBI definition</t>
-  </si>
-  <si>
-    <t>NCBI GenBank Field</t>
-  </si>
-  <si>
     <t>biosample_accession</t>
-  </si>
-  <si>
-    <t>assembly_date</t>
-  </si>
-  <si>
-    <t>assembly_name</t>
-  </si>
-  <si>
-    <t>assembly_method</t>
-  </si>
-  <si>
-    <t>assembly_method_version</t>
-  </si>
-  <si>
-    <t>genome_coverage</t>
-  </si>
-  <si>
-    <t>sequencing_technology</t>
-  </si>
-  <si>
-    <t>reference_genome</t>
-  </si>
-  <si>
-    <t>update_for</t>
-  </si>
-  <si>
-    <t>bacteria_available_from</t>
   </si>
   <si>
     <t>filename</t>
@@ -1489,25 +1411,10 @@
     <t>SAMNxxxxxx</t>
   </si>
   <si>
-    <t>The estimated base coverage across the genome e.g. 12x. This can be calculated by dividing the number of base pairs sequenced byt the expected genome size and multiplying that by the percentage of bases that were placed in the final assembly. More simply it is the number of bases sequenced divided by the expected genome size.</t>
-  </si>
-  <si>
     <t>The sequencing machine(s) used to generate the data e.g. Illumina MiSeq or 454</t>
   </si>
   <si>
-    <t>For reference guided assemblies: the accession.version and/or the assembly name of the genome assembly that was used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a name and physical address. </t>
-  </si>
-  <si>
-    <t>Each genome must be in 1 or 2 files. You can concatenate multiple fasta files inot a single file that can be submitted or used as input for tbl2astn.</t>
-  </si>
-  <si>
     <t>sequence submitter contact email</t>
-  </si>
-  <si>
-    <t>consensus sequence name</t>
   </si>
   <si>
     <t>consensus sequence filename</t>
@@ -1519,31 +1426,13 @@
     <t>consensus sequence software version</t>
   </si>
   <si>
-    <t>depth of coverage value</t>
-  </si>
-  <si>
-    <t>reference genome accession</t>
-  </si>
-  <si>
-    <t>Accession of the genome being updated</t>
-  </si>
-  <si>
     <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence software name". </t>
   </si>
   <si>
     <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence software version". </t>
   </si>
   <si>
-    <t xml:space="preserve">This field can be populated by the PHA4GE field "consensus sequence name". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This field can be populated by the PHA4GE field "depth of coverage value". </t>
-  </si>
-  <si>
     <t xml:space="preserve">This field can be populated by the PHA4GE field "sequencing instrument". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This field can be populated by the PHA4GE field "reference genome accession". </t>
   </si>
   <si>
     <t>This field can be populated by the PHA4GE field "passage number".</t>
@@ -1592,9 +1481,6 @@
   </si>
   <si>
     <t>This field can be populated by the PHA4GE field "exposure event". Caution: the exposure event is likely sensitive information. Consult the data steward before sharing.</t>
-  </si>
-  <si>
-    <t>NCBI GenBank Modifiers Field</t>
   </si>
   <si>
     <t>This field can be populated by the PHA4GE field "vaccine name".</t>
@@ -1690,9 +1576,6 @@
     <t>sequencing protocol name</t>
   </si>
   <si>
-    <t>raw sequence data processing_method</t>
-  </si>
-  <si>
     <t>dehosting method</t>
   </si>
   <si>
@@ -1711,19 +1594,10 @@
     <t>BioProject</t>
   </si>
   <si>
-    <t>GISAID-accession</t>
-  </si>
-  <si>
-    <t>GISAID-virus-name</t>
-  </si>
-  <si>
     <t>sequence_ID</t>
   </si>
   <si>
     <t>ID to link the fasta sequence to these source modifiers for a batch submission. This ID must match the ID listed as the fasta file header. Suggestion: use the sample_name submitted to BioSample, or the short lab ID contained within the isolate name.</t>
-  </si>
-  <si>
-    <t>This field can be populated by the PHA4GE field "sample collector sample ID".</t>
   </si>
   <si>
     <t>This field is only required for host-associated samples (Pathogen.cl specified in attribute package). Leave blank for environmental isolates.</t>
@@ -1732,17 +1606,137 @@
     <t>Mandatory (when sample comes from a host)</t>
   </si>
   <si>
-    <t xml:space="preserve">This field has been added by PHA4GE to enhance linkage between repositories. Populate this field with the PHA4GE "GISAID accession" field. </t>
+    <t xml:space="preserve">This field has been added by PHA4GE to enhance linkage between repositories. Populate this field with the PHA4GE "GISAID virus name" field. </t>
   </si>
   <si>
-    <t xml:space="preserve">This field has been added by PHA4GE to enhance linkage between repositories. Populate this field with the PHA4GE "GISAID virus name" field. </t>
+    <t>This field can be populated by combining the PHA4GE fields "destination of most recent travel (country)", "destination of most recent travel ((state/province/territory), and "destination of most recent travel (city)". The PHA4GE country pick list was derived from the INSDC country list. Put country field first, followed by the most granular geo_loc known, either state/province/region or city, separated by a colon. Caution: the geo_loc names state/province/region and city may be considered sensitive information. Consult the data steward before sharing.</t>
+  </si>
+  <si>
+    <t>host_recent_travel_loc</t>
+  </si>
+  <si>
+    <t>host_recent_travel_return_date</t>
+  </si>
+  <si>
+    <t>geo_loc_exposure</t>
+  </si>
+  <si>
+    <t>date_of_SARS-CoV-2_vaccination</t>
+  </si>
+  <si>
+    <t>prior_SARS-CoV-2_antiviral_treat</t>
+  </si>
+  <si>
+    <t>date_of_prior_antiviral_treat</t>
+  </si>
+  <si>
+    <t>SARS-Cov-2_diag_gene_name_1</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_diag_pcr_protocol_1</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_diag_pcr_Ct_value_1</t>
+  </si>
+  <si>
+    <t>SARS-Cov-2_diag_gene_name_2</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_diag_pcr_protocol_2</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2_diag_pcr_Ct_value_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier for the physical host specimen. </t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>host_body_product</t>
+  </si>
+  <si>
+    <t>Description of how organism was passaged.</t>
+  </si>
+  <si>
+    <t>Mandatory for NCBI</t>
+  </si>
+  <si>
+    <t>contitionally mandatory</t>
+  </si>
+  <si>
+    <t>NCBI SARS-CoV-2 BioSample template</t>
+  </si>
+  <si>
+    <t>SRA custom template for SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>amplicon _PCR_primer_scheme</t>
+  </si>
+  <si>
+    <t>amplicon_size</t>
+  </si>
+  <si>
+    <t>sequencing_protocol_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw_sequence_data_processing_method </t>
+  </si>
+  <si>
+    <t>raw sequence data processing method</t>
+  </si>
+  <si>
+    <t>dehosting_method</t>
+  </si>
+  <si>
+    <t>GenBank custom modifiers for SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Other GenBank info req. for submission and updates</t>
+  </si>
+  <si>
+    <t>Each genome must be in 1 or 2 files. You can concatenate multiple fasta files into a single file that can be submitted or used as input for tbl2astn.</t>
+  </si>
+  <si>
+    <t>Sequencing Technology</t>
+  </si>
+  <si>
+    <t>Assembly Program</t>
+  </si>
+  <si>
+    <t>assembly version or date</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "speciman collector sample ID".</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 package</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>env / wastewater</t>
+  </si>
+  <si>
+    <t>Mandatory, if sample has host</t>
+  </si>
+  <si>
+    <t>Human/host-associated</t>
+  </si>
+  <si>
+    <t>additional wastewater attributes being developed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1751,52 +1745,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1817,8 +1772,64 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1849,8 +1860,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1858,11 +1875,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1947,14 +1975,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1965,15 +1987,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1981,18 +1997,37 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2654,17 +2689,17 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -60955,4521 +60990,4592 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1045"/>
+  <dimension ref="A1:AB1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="74.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="72.5" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="74.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:28" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D4" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E4" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F57" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+    </row>
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="42"/>
+      <c r="C58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="42"/>
+      <c r="C60" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B61" s="50"/>
+      <c r="C61" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="50"/>
+      <c r="C66" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="B67" s="46"/>
+      <c r="C67" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="56"/>
+      <c r="C69" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="C76" s="51"/>
+      <c r="D76" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="D77" s="37"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="B78" s="49"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="B79" s="46"/>
+      <c r="C79" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83" s="42"/>
+      <c r="C83" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="B87" s="50"/>
+      <c r="C87" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="E88" s="51"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" s="49"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="N90" t="s">
+        <v>433</v>
+      </c>
+      <c r="O90" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D91" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E91" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>430</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="39" t="s">
+    </row>
+    <row r="92" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="55" t="s">
+        <v>531</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="37"/>
+    </row>
+    <row r="93" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="B93" s="50"/>
+      <c r="C93" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="B94" s="42"/>
+      <c r="D94" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B95" s="50"/>
+      <c r="D95" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="F95" s="37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="E45" s="37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="39" t="s">
+      <c r="C96" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="E50" s="37" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="55" t="s">
-        <v>525</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="28" x14ac:dyDescent="0.15">
-      <c r="A68" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="E68" s="45" t="s">
+      <c r="F96" s="37" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="C75" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="C76" s="39"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="C77" s="39"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="54" t="s">
-        <v>454</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M79" t="s">
-        <v>466</v>
-      </c>
-      <c r="N79" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>456</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>457</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="51" t="s">
-        <v>458</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D84" s="53" t="s">
-        <v>477</v>
-      </c>
-      <c r="E84" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="50" t="s">
-        <v>460</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>468</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="50" t="s">
-        <v>461</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="39" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>462</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="E87" s="39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>463</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="C88" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D88" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>464</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C89" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="E90" s="39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="53" t="s">
-        <v>544</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="37" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="B96" t="s">
-        <v>305</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E96" s="39" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="C97" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A99" s="51" t="s">
-        <v>538</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" s="37" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="50" t="s">
-        <v>540</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A102" s="50" t="s">
-        <v>541</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>542</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="E103" s="39" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>543</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E266" s="2"/>
-    </row>
-    <row r="267" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E280" s="2"/>
-    </row>
-    <row r="281" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E285" s="2"/>
-    </row>
-    <row r="286" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E286" s="2"/>
-    </row>
-    <row r="287" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E306" s="2"/>
-    </row>
-    <row r="307" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E307" s="2"/>
-    </row>
-    <row r="308" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E310" s="2"/>
-    </row>
-    <row r="311" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E313" s="2"/>
-    </row>
-    <row r="314" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E315" s="2"/>
-    </row>
-    <row r="316" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E316" s="2"/>
-    </row>
-    <row r="317" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E324" s="2"/>
-    </row>
-    <row r="325" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E325" s="2"/>
-    </row>
-    <row r="326" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E330" s="2"/>
-    </row>
-    <row r="331" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E331" s="2"/>
-    </row>
-    <row r="332" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E334" s="2"/>
-    </row>
-    <row r="335" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E337" s="2"/>
-    </row>
-    <row r="338" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E347" s="2"/>
-    </row>
-    <row r="348" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E348" s="2"/>
-    </row>
-    <row r="349" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E349" s="2"/>
-    </row>
-    <row r="350" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E351" s="2"/>
-    </row>
-    <row r="352" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E353" s="2"/>
-    </row>
-    <row r="354" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E354" s="2"/>
-    </row>
-    <row r="355" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E356" s="2"/>
-    </row>
-    <row r="357" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E357" s="2"/>
-    </row>
-    <row r="358" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E360" s="2"/>
-    </row>
-    <row r="361" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E361" s="2"/>
-    </row>
-    <row r="362" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E362" s="2"/>
-    </row>
-    <row r="363" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E363" s="2"/>
-    </row>
-    <row r="364" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E364" s="2"/>
-    </row>
-    <row r="365" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E366" s="2"/>
-    </row>
-    <row r="367" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E367" s="2"/>
-    </row>
-    <row r="368" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E368" s="2"/>
-    </row>
-    <row r="369" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E369" s="2"/>
-    </row>
-    <row r="370" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E370" s="2"/>
-    </row>
-    <row r="371" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E371" s="2"/>
-    </row>
-    <row r="372" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E372" s="2"/>
-    </row>
-    <row r="373" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E373" s="2"/>
-    </row>
-    <row r="374" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E374" s="2"/>
-    </row>
-    <row r="375" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E375" s="2"/>
-    </row>
-    <row r="376" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E376" s="2"/>
-    </row>
-    <row r="377" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E377" s="2"/>
-    </row>
-    <row r="378" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E378" s="2"/>
-    </row>
-    <row r="379" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E379" s="2"/>
-    </row>
-    <row r="380" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E380" s="2"/>
-    </row>
-    <row r="381" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E382" s="2"/>
-    </row>
-    <row r="383" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E383" s="2"/>
-    </row>
-    <row r="384" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E384" s="2"/>
-    </row>
-    <row r="385" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E385" s="2"/>
-    </row>
-    <row r="386" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E386" s="2"/>
-    </row>
-    <row r="387" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E387" s="2"/>
-    </row>
-    <row r="388" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E388" s="2"/>
-    </row>
-    <row r="389" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E389" s="2"/>
-    </row>
-    <row r="390" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E390" s="2"/>
-    </row>
-    <row r="391" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E391" s="2"/>
-    </row>
-    <row r="392" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E392" s="2"/>
-    </row>
-    <row r="393" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E393" s="2"/>
-    </row>
-    <row r="394" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E394" s="2"/>
-    </row>
-    <row r="395" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E395" s="2"/>
-    </row>
-    <row r="396" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E396" s="2"/>
-    </row>
-    <row r="397" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E397" s="2"/>
-    </row>
-    <row r="398" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E398" s="2"/>
-    </row>
-    <row r="399" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E399" s="2"/>
-    </row>
-    <row r="400" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E400" s="2"/>
-    </row>
-    <row r="401" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E404" s="2"/>
-    </row>
-    <row r="405" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E405" s="2"/>
-    </row>
-    <row r="406" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E407" s="2"/>
-    </row>
-    <row r="408" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E408" s="2"/>
-    </row>
-    <row r="409" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E410" s="2"/>
-    </row>
-    <row r="411" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E411" s="2"/>
-    </row>
-    <row r="412" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E412" s="2"/>
-    </row>
-    <row r="413" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E413" s="2"/>
-    </row>
-    <row r="414" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E414" s="2"/>
-    </row>
-    <row r="415" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E416" s="2"/>
-    </row>
-    <row r="417" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E417" s="2"/>
-    </row>
-    <row r="418" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E418" s="2"/>
-    </row>
-    <row r="419" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E419" s="2"/>
-    </row>
-    <row r="420" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E420" s="2"/>
-    </row>
-    <row r="421" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E421" s="2"/>
-    </row>
-    <row r="422" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E422" s="2"/>
-    </row>
-    <row r="423" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E423" s="2"/>
-    </row>
-    <row r="424" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E424" s="2"/>
-    </row>
-    <row r="425" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E425" s="2"/>
-    </row>
-    <row r="426" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E426" s="2"/>
-    </row>
-    <row r="427" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E427" s="2"/>
-    </row>
-    <row r="428" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E428" s="2"/>
-    </row>
-    <row r="429" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E429" s="2"/>
-    </row>
-    <row r="430" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E430" s="2"/>
-    </row>
-    <row r="431" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E431" s="2"/>
-    </row>
-    <row r="432" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E432" s="2"/>
-    </row>
-    <row r="433" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E433" s="2"/>
-    </row>
-    <row r="434" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E434" s="2"/>
-    </row>
-    <row r="435" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E435" s="2"/>
-    </row>
-    <row r="436" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E436" s="2"/>
-    </row>
-    <row r="437" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E437" s="2"/>
-    </row>
-    <row r="438" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E438" s="2"/>
-    </row>
-    <row r="439" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E439" s="2"/>
-    </row>
-    <row r="440" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E440" s="2"/>
-    </row>
-    <row r="441" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E441" s="2"/>
-    </row>
-    <row r="442" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E442" s="2"/>
-    </row>
-    <row r="443" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E443" s="2"/>
-    </row>
-    <row r="444" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E444" s="2"/>
-    </row>
-    <row r="445" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E445" s="2"/>
-    </row>
-    <row r="446" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E446" s="2"/>
-    </row>
-    <row r="447" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E447" s="2"/>
-    </row>
-    <row r="448" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E448" s="2"/>
-    </row>
-    <row r="449" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E449" s="2"/>
-    </row>
-    <row r="450" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E450" s="2"/>
-    </row>
-    <row r="451" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E451" s="2"/>
-    </row>
-    <row r="452" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E452" s="2"/>
-    </row>
-    <row r="453" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E453" s="2"/>
-    </row>
-    <row r="454" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E454" s="2"/>
-    </row>
-    <row r="455" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E455" s="2"/>
-    </row>
-    <row r="456" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E456" s="2"/>
-    </row>
-    <row r="457" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E457" s="2"/>
-    </row>
-    <row r="458" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E458" s="2"/>
-    </row>
-    <row r="459" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E459" s="2"/>
-    </row>
-    <row r="460" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E460" s="2"/>
-    </row>
-    <row r="461" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E461" s="2"/>
-    </row>
-    <row r="462" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E462" s="2"/>
-    </row>
-    <row r="463" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E463" s="2"/>
-    </row>
-    <row r="464" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E464" s="2"/>
-    </row>
-    <row r="465" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E465" s="2"/>
-    </row>
-    <row r="466" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E466" s="2"/>
-    </row>
-    <row r="467" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E467" s="2"/>
-    </row>
-    <row r="468" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E468" s="2"/>
-    </row>
-    <row r="469" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E469" s="2"/>
-    </row>
-    <row r="470" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E470" s="2"/>
-    </row>
-    <row r="471" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E471" s="2"/>
-    </row>
-    <row r="472" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E472" s="2"/>
-    </row>
-    <row r="473" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E473" s="2"/>
-    </row>
-    <row r="474" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E474" s="2"/>
-    </row>
-    <row r="475" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E475" s="2"/>
-    </row>
-    <row r="476" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E476" s="2"/>
-    </row>
-    <row r="477" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E477" s="2"/>
-    </row>
-    <row r="478" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E478" s="2"/>
-    </row>
-    <row r="479" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E479" s="2"/>
-    </row>
-    <row r="480" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E480" s="2"/>
-    </row>
-    <row r="481" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E481" s="2"/>
-    </row>
-    <row r="482" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E482" s="2"/>
-    </row>
-    <row r="483" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E483" s="2"/>
-    </row>
-    <row r="484" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E484" s="2"/>
-    </row>
-    <row r="485" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E485" s="2"/>
-    </row>
-    <row r="486" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E486" s="2"/>
-    </row>
-    <row r="487" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E487" s="2"/>
-    </row>
-    <row r="488" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E488" s="2"/>
-    </row>
-    <row r="489" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E489" s="2"/>
-    </row>
-    <row r="490" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E490" s="2"/>
-    </row>
-    <row r="491" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E491" s="2"/>
-    </row>
-    <row r="492" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E492" s="2"/>
-    </row>
-    <row r="493" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E493" s="2"/>
-    </row>
-    <row r="494" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E494" s="2"/>
-    </row>
-    <row r="495" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E495" s="2"/>
-    </row>
-    <row r="496" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E496" s="2"/>
-    </row>
-    <row r="497" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E497" s="2"/>
-    </row>
-    <row r="498" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E498" s="2"/>
-    </row>
-    <row r="499" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E499" s="2"/>
-    </row>
-    <row r="500" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E500" s="2"/>
-    </row>
-    <row r="501" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E501" s="2"/>
-    </row>
-    <row r="502" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E502" s="2"/>
-    </row>
-    <row r="503" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E503" s="2"/>
-    </row>
-    <row r="504" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E504" s="2"/>
-    </row>
-    <row r="505" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E505" s="2"/>
-    </row>
-    <row r="506" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E506" s="2"/>
-    </row>
-    <row r="507" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E507" s="2"/>
-    </row>
-    <row r="508" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E508" s="2"/>
-    </row>
-    <row r="509" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E509" s="2"/>
-    </row>
-    <row r="510" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E510" s="2"/>
-    </row>
-    <row r="511" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E511" s="2"/>
-    </row>
-    <row r="512" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E512" s="2"/>
-    </row>
-    <row r="513" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E513" s="2"/>
-    </row>
-    <row r="514" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E514" s="2"/>
-    </row>
-    <row r="515" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E515" s="2"/>
-    </row>
-    <row r="516" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E516" s="2"/>
-    </row>
-    <row r="517" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E517" s="2"/>
-    </row>
-    <row r="518" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E518" s="2"/>
-    </row>
-    <row r="519" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E519" s="2"/>
-    </row>
-    <row r="520" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E520" s="2"/>
-    </row>
-    <row r="521" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E521" s="2"/>
-    </row>
-    <row r="522" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E522" s="2"/>
-    </row>
-    <row r="523" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E523" s="2"/>
-    </row>
-    <row r="524" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E524" s="2"/>
-    </row>
-    <row r="525" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E525" s="2"/>
-    </row>
-    <row r="526" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E526" s="2"/>
-    </row>
-    <row r="527" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E527" s="2"/>
-    </row>
-    <row r="528" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E528" s="2"/>
-    </row>
-    <row r="529" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E529" s="2"/>
-    </row>
-    <row r="530" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E530" s="2"/>
-    </row>
-    <row r="531" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E531" s="2"/>
-    </row>
-    <row r="532" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E532" s="2"/>
-    </row>
-    <row r="533" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E533" s="2"/>
-    </row>
-    <row r="534" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E534" s="2"/>
-    </row>
-    <row r="535" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E535" s="2"/>
-    </row>
-    <row r="536" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E536" s="2"/>
-    </row>
-    <row r="537" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E537" s="2"/>
-    </row>
-    <row r="538" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E538" s="2"/>
-    </row>
-    <row r="539" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E539" s="2"/>
-    </row>
-    <row r="540" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E540" s="2"/>
-    </row>
-    <row r="541" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E541" s="2"/>
-    </row>
-    <row r="542" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E542" s="2"/>
-    </row>
-    <row r="543" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E543" s="2"/>
-    </row>
-    <row r="544" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E544" s="2"/>
-    </row>
-    <row r="545" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E545" s="2"/>
-    </row>
-    <row r="546" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E546" s="2"/>
-    </row>
-    <row r="547" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E547" s="2"/>
-    </row>
-    <row r="548" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E548" s="2"/>
-    </row>
-    <row r="549" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E549" s="2"/>
-    </row>
-    <row r="550" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E550" s="2"/>
-    </row>
-    <row r="551" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E551" s="2"/>
-    </row>
-    <row r="552" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E552" s="2"/>
-    </row>
-    <row r="553" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E553" s="2"/>
-    </row>
-    <row r="554" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E554" s="2"/>
-    </row>
-    <row r="555" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E555" s="2"/>
-    </row>
-    <row r="556" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E556" s="2"/>
-    </row>
-    <row r="557" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E557" s="2"/>
-    </row>
-    <row r="558" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E558" s="2"/>
-    </row>
-    <row r="559" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E559" s="2"/>
-    </row>
-    <row r="560" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E560" s="2"/>
-    </row>
-    <row r="561" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E561" s="2"/>
-    </row>
-    <row r="562" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E562" s="2"/>
-    </row>
-    <row r="563" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E563" s="2"/>
-    </row>
-    <row r="564" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E564" s="2"/>
-    </row>
-    <row r="565" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E565" s="2"/>
-    </row>
-    <row r="566" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E566" s="2"/>
-    </row>
-    <row r="567" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E567" s="2"/>
-    </row>
-    <row r="568" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E568" s="2"/>
-    </row>
-    <row r="569" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E569" s="2"/>
-    </row>
-    <row r="570" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E570" s="2"/>
-    </row>
-    <row r="571" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E571" s="2"/>
-    </row>
-    <row r="572" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E572" s="2"/>
-    </row>
-    <row r="573" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E573" s="2"/>
-    </row>
-    <row r="574" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E574" s="2"/>
-    </row>
-    <row r="575" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E575" s="2"/>
-    </row>
-    <row r="576" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E576" s="2"/>
-    </row>
-    <row r="577" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E577" s="2"/>
-    </row>
-    <row r="578" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E578" s="2"/>
-    </row>
-    <row r="579" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E579" s="2"/>
-    </row>
-    <row r="580" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E580" s="2"/>
-    </row>
-    <row r="581" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E581" s="2"/>
-    </row>
-    <row r="582" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E582" s="2"/>
-    </row>
-    <row r="583" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E583" s="2"/>
-    </row>
-    <row r="584" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E584" s="2"/>
-    </row>
-    <row r="585" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E585" s="2"/>
-    </row>
-    <row r="586" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E586" s="2"/>
-    </row>
-    <row r="587" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E587" s="2"/>
-    </row>
-    <row r="588" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E588" s="2"/>
-    </row>
-    <row r="589" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E589" s="2"/>
-    </row>
-    <row r="590" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E590" s="2"/>
-    </row>
-    <row r="591" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E591" s="2"/>
-    </row>
-    <row r="592" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E592" s="2"/>
-    </row>
-    <row r="593" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E593" s="2"/>
-    </row>
-    <row r="594" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E594" s="2"/>
-    </row>
-    <row r="595" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E595" s="2"/>
-    </row>
-    <row r="596" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E596" s="2"/>
-    </row>
-    <row r="597" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E597" s="2"/>
-    </row>
-    <row r="598" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E598" s="2"/>
-    </row>
-    <row r="599" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E599" s="2"/>
-    </row>
-    <row r="600" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E600" s="2"/>
-    </row>
-    <row r="601" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E601" s="2"/>
-    </row>
-    <row r="602" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E602" s="2"/>
-    </row>
-    <row r="603" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E603" s="2"/>
-    </row>
-    <row r="604" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E604" s="2"/>
-    </row>
-    <row r="605" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E605" s="2"/>
-    </row>
-    <row r="606" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E606" s="2"/>
-    </row>
-    <row r="607" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E607" s="2"/>
-    </row>
-    <row r="608" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E608" s="2"/>
-    </row>
-    <row r="609" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E609" s="2"/>
-    </row>
-    <row r="610" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E610" s="2"/>
-    </row>
-    <row r="611" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E611" s="2"/>
-    </row>
-    <row r="612" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E612" s="2"/>
-    </row>
-    <row r="613" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E613" s="2"/>
-    </row>
-    <row r="614" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E614" s="2"/>
-    </row>
-    <row r="615" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E615" s="2"/>
-    </row>
-    <row r="616" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E616" s="2"/>
-    </row>
-    <row r="617" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E617" s="2"/>
-    </row>
-    <row r="618" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E618" s="2"/>
-    </row>
-    <row r="619" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E619" s="2"/>
-    </row>
-    <row r="620" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E620" s="2"/>
-    </row>
-    <row r="621" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E621" s="2"/>
-    </row>
-    <row r="622" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E622" s="2"/>
-    </row>
-    <row r="623" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E623" s="2"/>
-    </row>
-    <row r="624" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E624" s="2"/>
-    </row>
-    <row r="625" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E625" s="2"/>
-    </row>
-    <row r="626" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E626" s="2"/>
-    </row>
-    <row r="627" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E627" s="2"/>
-    </row>
-    <row r="628" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E628" s="2"/>
-    </row>
-    <row r="629" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E629" s="2"/>
-    </row>
-    <row r="630" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E630" s="2"/>
-    </row>
-    <row r="631" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E631" s="2"/>
-    </row>
-    <row r="632" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E632" s="2"/>
-    </row>
-    <row r="633" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E633" s="2"/>
-    </row>
-    <row r="634" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E634" s="2"/>
-    </row>
-    <row r="635" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E635" s="2"/>
-    </row>
-    <row r="636" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E636" s="2"/>
-    </row>
-    <row r="637" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E637" s="2"/>
-    </row>
-    <row r="638" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E638" s="2"/>
-    </row>
-    <row r="639" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E639" s="2"/>
-    </row>
-    <row r="640" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E640" s="2"/>
-    </row>
-    <row r="641" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E641" s="2"/>
-    </row>
-    <row r="642" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E642" s="2"/>
-    </row>
-    <row r="643" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E643" s="2"/>
-    </row>
-    <row r="644" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E644" s="2"/>
-    </row>
-    <row r="645" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E645" s="2"/>
-    </row>
-    <row r="646" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E646" s="2"/>
-    </row>
-    <row r="647" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E647" s="2"/>
-    </row>
-    <row r="648" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E648" s="2"/>
-    </row>
-    <row r="649" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E649" s="2"/>
-    </row>
-    <row r="650" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E650" s="2"/>
-    </row>
-    <row r="651" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E651" s="2"/>
-    </row>
-    <row r="652" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E652" s="2"/>
-    </row>
-    <row r="653" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E653" s="2"/>
-    </row>
-    <row r="654" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E654" s="2"/>
-    </row>
-    <row r="655" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E655" s="2"/>
-    </row>
-    <row r="656" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E656" s="2"/>
-    </row>
-    <row r="657" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E657" s="2"/>
-    </row>
-    <row r="658" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E658" s="2"/>
-    </row>
-    <row r="659" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E659" s="2"/>
-    </row>
-    <row r="660" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E660" s="2"/>
-    </row>
-    <row r="661" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E661" s="2"/>
-    </row>
-    <row r="662" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E662" s="2"/>
-    </row>
-    <row r="663" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E663" s="2"/>
-    </row>
-    <row r="664" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E664" s="2"/>
-    </row>
-    <row r="665" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E665" s="2"/>
-    </row>
-    <row r="666" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E666" s="2"/>
-    </row>
-    <row r="667" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E667" s="2"/>
-    </row>
-    <row r="668" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E668" s="2"/>
-    </row>
-    <row r="669" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E669" s="2"/>
-    </row>
-    <row r="670" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E670" s="2"/>
-    </row>
-    <row r="671" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E671" s="2"/>
-    </row>
-    <row r="672" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E672" s="2"/>
-    </row>
-    <row r="673" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E673" s="2"/>
-    </row>
-    <row r="674" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E674" s="2"/>
-    </row>
-    <row r="675" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E675" s="2"/>
-    </row>
-    <row r="676" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E676" s="2"/>
-    </row>
-    <row r="677" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E677" s="2"/>
-    </row>
-    <row r="678" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E678" s="2"/>
-    </row>
-    <row r="679" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E679" s="2"/>
-    </row>
-    <row r="680" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E680" s="2"/>
-    </row>
-    <row r="681" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E681" s="2"/>
-    </row>
-    <row r="682" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E682" s="2"/>
-    </row>
-    <row r="683" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E683" s="2"/>
-    </row>
-    <row r="684" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E684" s="2"/>
-    </row>
-    <row r="685" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E685" s="2"/>
-    </row>
-    <row r="686" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E686" s="2"/>
-    </row>
-    <row r="687" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E687" s="2"/>
-    </row>
-    <row r="688" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E688" s="2"/>
-    </row>
-    <row r="689" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E689" s="2"/>
-    </row>
-    <row r="690" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E690" s="2"/>
-    </row>
-    <row r="691" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E691" s="2"/>
-    </row>
-    <row r="692" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E692" s="2"/>
-    </row>
-    <row r="693" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E693" s="2"/>
-    </row>
-    <row r="694" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E694" s="2"/>
-    </row>
-    <row r="695" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E695" s="2"/>
-    </row>
-    <row r="696" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E696" s="2"/>
-    </row>
-    <row r="697" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E697" s="2"/>
-    </row>
-    <row r="698" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E698" s="2"/>
-    </row>
-    <row r="699" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E699" s="2"/>
-    </row>
-    <row r="700" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E700" s="2"/>
-    </row>
-    <row r="701" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E701" s="2"/>
-    </row>
-    <row r="702" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E702" s="2"/>
-    </row>
-    <row r="703" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E703" s="2"/>
-    </row>
-    <row r="704" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E704" s="2"/>
-    </row>
-    <row r="705" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E705" s="2"/>
-    </row>
-    <row r="706" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E706" s="2"/>
-    </row>
-    <row r="707" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E707" s="2"/>
-    </row>
-    <row r="708" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E708" s="2"/>
-    </row>
-    <row r="709" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E709" s="2"/>
-    </row>
-    <row r="710" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E710" s="2"/>
-    </row>
-    <row r="711" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E711" s="2"/>
-    </row>
-    <row r="712" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E712" s="2"/>
-    </row>
-    <row r="713" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E713" s="2"/>
-    </row>
-    <row r="714" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E714" s="2"/>
-    </row>
-    <row r="715" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E715" s="2"/>
-    </row>
-    <row r="716" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E716" s="2"/>
-    </row>
-    <row r="717" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E717" s="2"/>
-    </row>
-    <row r="718" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E718" s="2"/>
-    </row>
-    <row r="719" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E719" s="2"/>
-    </row>
-    <row r="720" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E720" s="2"/>
-    </row>
-    <row r="721" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E721" s="2"/>
-    </row>
-    <row r="722" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E722" s="2"/>
-    </row>
-    <row r="723" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E723" s="2"/>
-    </row>
-    <row r="724" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E724" s="2"/>
-    </row>
-    <row r="725" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E725" s="2"/>
-    </row>
-    <row r="726" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E726" s="2"/>
-    </row>
-    <row r="727" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E727" s="2"/>
-    </row>
-    <row r="728" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E728" s="2"/>
-    </row>
-    <row r="729" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E729" s="2"/>
-    </row>
-    <row r="730" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E730" s="2"/>
-    </row>
-    <row r="731" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E731" s="2"/>
-    </row>
-    <row r="732" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E732" s="2"/>
-    </row>
-    <row r="733" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E733" s="2"/>
-    </row>
-    <row r="734" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E734" s="2"/>
-    </row>
-    <row r="735" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E735" s="2"/>
-    </row>
-    <row r="736" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E736" s="2"/>
-    </row>
-    <row r="737" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E737" s="2"/>
-    </row>
-    <row r="738" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E738" s="2"/>
-    </row>
-    <row r="739" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E739" s="2"/>
-    </row>
-    <row r="740" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E740" s="2"/>
-    </row>
-    <row r="741" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E741" s="2"/>
-    </row>
-    <row r="742" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E742" s="2"/>
-    </row>
-    <row r="743" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E743" s="2"/>
-    </row>
-    <row r="744" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E744" s="2"/>
-    </row>
-    <row r="745" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E745" s="2"/>
-    </row>
-    <row r="746" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E746" s="2"/>
-    </row>
-    <row r="747" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E747" s="2"/>
-    </row>
-    <row r="748" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E748" s="2"/>
-    </row>
-    <row r="749" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E749" s="2"/>
-    </row>
-    <row r="750" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E750" s="2"/>
-    </row>
-    <row r="751" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E751" s="2"/>
-    </row>
-    <row r="752" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E752" s="2"/>
-    </row>
-    <row r="753" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E753" s="2"/>
-    </row>
-    <row r="754" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E754" s="2"/>
-    </row>
-    <row r="755" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E755" s="2"/>
-    </row>
-    <row r="756" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E756" s="2"/>
-    </row>
-    <row r="757" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E757" s="2"/>
-    </row>
-    <row r="758" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E758" s="2"/>
-    </row>
-    <row r="759" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E759" s="2"/>
-    </row>
-    <row r="760" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E760" s="2"/>
-    </row>
-    <row r="761" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E761" s="2"/>
-    </row>
-    <row r="762" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E762" s="2"/>
-    </row>
-    <row r="763" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E763" s="2"/>
-    </row>
-    <row r="764" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E764" s="2"/>
-    </row>
-    <row r="765" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E765" s="2"/>
-    </row>
-    <row r="766" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E766" s="2"/>
-    </row>
-    <row r="767" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E767" s="2"/>
-    </row>
-    <row r="768" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E768" s="2"/>
-    </row>
-    <row r="769" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E769" s="2"/>
-    </row>
-    <row r="770" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E770" s="2"/>
-    </row>
-    <row r="771" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E771" s="2"/>
-    </row>
-    <row r="772" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E772" s="2"/>
-    </row>
-    <row r="773" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E773" s="2"/>
-    </row>
-    <row r="774" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E774" s="2"/>
-    </row>
-    <row r="775" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E775" s="2"/>
-    </row>
-    <row r="776" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E776" s="2"/>
-    </row>
-    <row r="777" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E777" s="2"/>
-    </row>
-    <row r="778" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E778" s="2"/>
-    </row>
-    <row r="779" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E779" s="2"/>
-    </row>
-    <row r="780" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E780" s="2"/>
-    </row>
-    <row r="781" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E781" s="2"/>
-    </row>
-    <row r="782" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E782" s="2"/>
-    </row>
-    <row r="783" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E783" s="2"/>
-    </row>
-    <row r="784" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E784" s="2"/>
-    </row>
-    <row r="785" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E785" s="2"/>
-    </row>
-    <row r="786" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E786" s="2"/>
-    </row>
-    <row r="787" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E787" s="2"/>
-    </row>
-    <row r="788" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E788" s="2"/>
-    </row>
-    <row r="789" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E789" s="2"/>
-    </row>
-    <row r="790" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E790" s="2"/>
-    </row>
-    <row r="791" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E791" s="2"/>
-    </row>
-    <row r="792" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E792" s="2"/>
-    </row>
-    <row r="793" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E793" s="2"/>
-    </row>
-    <row r="794" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E794" s="2"/>
-    </row>
-    <row r="795" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E795" s="2"/>
-    </row>
-    <row r="796" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E796" s="2"/>
-    </row>
-    <row r="797" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E797" s="2"/>
-    </row>
-    <row r="798" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E798" s="2"/>
-    </row>
-    <row r="799" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E799" s="2"/>
-    </row>
-    <row r="800" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E800" s="2"/>
-    </row>
-    <row r="801" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E801" s="2"/>
-    </row>
-    <row r="802" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E802" s="2"/>
-    </row>
-    <row r="803" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E803" s="2"/>
-    </row>
-    <row r="804" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E804" s="2"/>
-    </row>
-    <row r="805" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E805" s="2"/>
-    </row>
-    <row r="806" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E806" s="2"/>
-    </row>
-    <row r="807" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E807" s="2"/>
-    </row>
-    <row r="808" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E808" s="2"/>
-    </row>
-    <row r="809" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E809" s="2"/>
-    </row>
-    <row r="810" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E810" s="2"/>
-    </row>
-    <row r="811" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E811" s="2"/>
-    </row>
-    <row r="812" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E812" s="2"/>
-    </row>
-    <row r="813" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E813" s="2"/>
-    </row>
-    <row r="814" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E814" s="2"/>
-    </row>
-    <row r="815" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E815" s="2"/>
-    </row>
-    <row r="816" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E816" s="2"/>
-    </row>
-    <row r="817" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E817" s="2"/>
-    </row>
-    <row r="818" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E818" s="2"/>
-    </row>
-    <row r="819" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E819" s="2"/>
-    </row>
-    <row r="820" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E820" s="2"/>
-    </row>
-    <row r="821" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E821" s="2"/>
-    </row>
-    <row r="822" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E822" s="2"/>
-    </row>
-    <row r="823" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E823" s="2"/>
-    </row>
-    <row r="824" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E824" s="2"/>
-    </row>
-    <row r="825" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E825" s="2"/>
-    </row>
-    <row r="826" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E826" s="2"/>
-    </row>
-    <row r="827" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E827" s="2"/>
-    </row>
-    <row r="828" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E828" s="2"/>
-    </row>
-    <row r="829" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E829" s="2"/>
-    </row>
-    <row r="830" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E830" s="2"/>
-    </row>
-    <row r="831" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E831" s="2"/>
-    </row>
-    <row r="832" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E832" s="2"/>
-    </row>
-    <row r="833" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E833" s="2"/>
-    </row>
-    <row r="834" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E834" s="2"/>
-    </row>
-    <row r="835" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E835" s="2"/>
-    </row>
-    <row r="836" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E836" s="2"/>
-    </row>
-    <row r="837" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E837" s="2"/>
-    </row>
-    <row r="838" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E838" s="2"/>
-    </row>
-    <row r="839" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E839" s="2"/>
-    </row>
-    <row r="840" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E840" s="2"/>
-    </row>
-    <row r="841" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E841" s="2"/>
-    </row>
-    <row r="842" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E842" s="2"/>
-    </row>
-    <row r="843" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E843" s="2"/>
-    </row>
-    <row r="844" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E844" s="2"/>
-    </row>
-    <row r="845" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E845" s="2"/>
-    </row>
-    <row r="846" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E846" s="2"/>
-    </row>
-    <row r="847" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E847" s="2"/>
-    </row>
-    <row r="848" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E848" s="2"/>
-    </row>
-    <row r="849" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E849" s="2"/>
-    </row>
-    <row r="850" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E850" s="2"/>
-    </row>
-    <row r="851" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E851" s="2"/>
-    </row>
-    <row r="852" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E852" s="2"/>
-    </row>
-    <row r="853" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E853" s="2"/>
-    </row>
-    <row r="854" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E854" s="2"/>
-    </row>
-    <row r="855" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E855" s="2"/>
-    </row>
-    <row r="856" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E856" s="2"/>
-    </row>
-    <row r="857" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E857" s="2"/>
-    </row>
-    <row r="858" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E858" s="2"/>
-    </row>
-    <row r="859" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E859" s="2"/>
-    </row>
-    <row r="860" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E860" s="2"/>
-    </row>
-    <row r="861" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E861" s="2"/>
-    </row>
-    <row r="862" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E862" s="2"/>
-    </row>
-    <row r="863" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E863" s="2"/>
-    </row>
-    <row r="864" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E864" s="2"/>
-    </row>
-    <row r="865" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E865" s="2"/>
-    </row>
-    <row r="866" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E866" s="2"/>
-    </row>
-    <row r="867" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E867" s="2"/>
-    </row>
-    <row r="868" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E868" s="2"/>
-    </row>
-    <row r="869" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E869" s="2"/>
-    </row>
-    <row r="870" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E870" s="2"/>
-    </row>
-    <row r="871" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E871" s="2"/>
-    </row>
-    <row r="872" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E872" s="2"/>
-    </row>
-    <row r="873" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E873" s="2"/>
-    </row>
-    <row r="874" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E874" s="2"/>
-    </row>
-    <row r="875" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E875" s="2"/>
-    </row>
-    <row r="876" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E876" s="2"/>
-    </row>
-    <row r="877" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E877" s="2"/>
-    </row>
-    <row r="878" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E878" s="2"/>
-    </row>
-    <row r="879" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E879" s="2"/>
-    </row>
-    <row r="880" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E880" s="2"/>
-    </row>
-    <row r="881" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E881" s="2"/>
-    </row>
-    <row r="882" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E882" s="2"/>
-    </row>
-    <row r="883" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E883" s="2"/>
-    </row>
-    <row r="884" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E884" s="2"/>
-    </row>
-    <row r="885" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E885" s="2"/>
-    </row>
-    <row r="886" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E886" s="2"/>
-    </row>
-    <row r="887" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E887" s="2"/>
-    </row>
-    <row r="888" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E888" s="2"/>
-    </row>
-    <row r="889" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E889" s="2"/>
-    </row>
-    <row r="890" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E890" s="2"/>
-    </row>
-    <row r="891" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E891" s="2"/>
-    </row>
-    <row r="892" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E892" s="2"/>
-    </row>
-    <row r="893" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E893" s="2"/>
-    </row>
-    <row r="894" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E894" s="2"/>
-    </row>
-    <row r="895" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E895" s="2"/>
-    </row>
-    <row r="896" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E896" s="2"/>
-    </row>
-    <row r="897" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E897" s="2"/>
-    </row>
-    <row r="898" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E898" s="2"/>
-    </row>
-    <row r="899" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E899" s="2"/>
-    </row>
-    <row r="900" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E900" s="2"/>
-    </row>
-    <row r="901" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E901" s="2"/>
-    </row>
-    <row r="902" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E902" s="2"/>
-    </row>
-    <row r="903" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E903" s="2"/>
-    </row>
-    <row r="904" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E904" s="2"/>
-    </row>
-    <row r="905" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E905" s="2"/>
-    </row>
-    <row r="906" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E906" s="2"/>
-    </row>
-    <row r="907" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E907" s="2"/>
-    </row>
-    <row r="908" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E908" s="2"/>
-    </row>
-    <row r="909" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E909" s="2"/>
-    </row>
-    <row r="910" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E910" s="2"/>
-    </row>
-    <row r="911" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E911" s="2"/>
-    </row>
-    <row r="912" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E912" s="2"/>
-    </row>
-    <row r="913" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E913" s="2"/>
-    </row>
-    <row r="914" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E914" s="2"/>
-    </row>
-    <row r="915" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E915" s="2"/>
-    </row>
-    <row r="916" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E916" s="2"/>
-    </row>
-    <row r="917" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E917" s="2"/>
-    </row>
-    <row r="918" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E918" s="2"/>
-    </row>
-    <row r="919" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E919" s="2"/>
-    </row>
-    <row r="920" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E920" s="2"/>
-    </row>
-    <row r="921" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E921" s="2"/>
-    </row>
-    <row r="922" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E922" s="2"/>
-    </row>
-    <row r="923" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E923" s="2"/>
-    </row>
-    <row r="924" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E924" s="2"/>
-    </row>
-    <row r="925" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E925" s="2"/>
-    </row>
-    <row r="926" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E926" s="2"/>
-    </row>
-    <row r="927" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E927" s="2"/>
-    </row>
-    <row r="928" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E928" s="2"/>
-    </row>
-    <row r="929" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E929" s="2"/>
-    </row>
-    <row r="930" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E930" s="2"/>
-    </row>
-    <row r="931" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E931" s="2"/>
-    </row>
-    <row r="932" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E932" s="2"/>
-    </row>
-    <row r="933" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E933" s="2"/>
-    </row>
-    <row r="934" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E934" s="2"/>
-    </row>
-    <row r="935" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E935" s="2"/>
-    </row>
-    <row r="936" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E936" s="2"/>
-    </row>
-    <row r="937" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E937" s="2"/>
-    </row>
-    <row r="938" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E938" s="2"/>
-    </row>
-    <row r="939" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E939" s="2"/>
-    </row>
-    <row r="940" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E940" s="2"/>
-    </row>
-    <row r="941" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E941" s="2"/>
-    </row>
-    <row r="942" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E942" s="2"/>
-    </row>
-    <row r="943" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E943" s="2"/>
-    </row>
-    <row r="944" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E944" s="2"/>
-    </row>
-    <row r="945" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E945" s="2"/>
-    </row>
-    <row r="946" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E946" s="2"/>
-    </row>
-    <row r="947" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E947" s="2"/>
-    </row>
-    <row r="948" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E948" s="2"/>
-    </row>
-    <row r="949" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E949" s="2"/>
-    </row>
-    <row r="950" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E950" s="2"/>
-    </row>
-    <row r="951" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E951" s="2"/>
-    </row>
-    <row r="952" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E952" s="2"/>
-    </row>
-    <row r="953" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E953" s="2"/>
-    </row>
-    <row r="954" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E954" s="2"/>
-    </row>
-    <row r="955" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E955" s="2"/>
-    </row>
-    <row r="956" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E956" s="2"/>
-    </row>
-    <row r="957" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E957" s="2"/>
-    </row>
-    <row r="958" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E958" s="2"/>
-    </row>
-    <row r="959" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E959" s="2"/>
-    </row>
-    <row r="960" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E960" s="2"/>
-    </row>
-    <row r="961" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E961" s="2"/>
-    </row>
-    <row r="962" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E962" s="2"/>
-    </row>
-    <row r="963" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E963" s="2"/>
-    </row>
-    <row r="964" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E964" s="2"/>
-    </row>
-    <row r="965" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E965" s="2"/>
-    </row>
-    <row r="966" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E966" s="2"/>
-    </row>
-    <row r="967" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E967" s="2"/>
-    </row>
-    <row r="968" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E968" s="2"/>
-    </row>
-    <row r="969" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E969" s="2"/>
-    </row>
-    <row r="970" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E970" s="2"/>
-    </row>
-    <row r="971" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E971" s="2"/>
-    </row>
-    <row r="972" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E972" s="2"/>
-    </row>
-    <row r="973" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E973" s="2"/>
-    </row>
-    <row r="974" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E974" s="2"/>
-    </row>
-    <row r="975" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E975" s="2"/>
-    </row>
-    <row r="976" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E976" s="2"/>
-    </row>
-    <row r="977" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E977" s="2"/>
-    </row>
-    <row r="978" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E978" s="2"/>
-    </row>
-    <row r="979" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E979" s="2"/>
-    </row>
-    <row r="980" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E980" s="2"/>
-    </row>
-    <row r="981" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E981" s="2"/>
-    </row>
-    <row r="982" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E982" s="2"/>
-    </row>
-    <row r="983" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E983" s="2"/>
-    </row>
-    <row r="984" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E984" s="2"/>
-    </row>
-    <row r="985" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E985" s="2"/>
-    </row>
-    <row r="986" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E986" s="2"/>
-    </row>
-    <row r="987" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E987" s="2"/>
-    </row>
-    <row r="988" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E988" s="2"/>
-    </row>
-    <row r="989" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E989" s="2"/>
-    </row>
-    <row r="990" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E990" s="2"/>
-    </row>
-    <row r="991" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E991" s="2"/>
-    </row>
-    <row r="992" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E992" s="2"/>
-    </row>
-    <row r="993" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E993" s="2"/>
-    </row>
-    <row r="994" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E994" s="2"/>
-    </row>
-    <row r="995" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E995" s="2"/>
-    </row>
-    <row r="996" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E996" s="2"/>
-    </row>
-    <row r="997" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E997" s="2"/>
-    </row>
-    <row r="998" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E998" s="2"/>
-    </row>
-    <row r="999" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E999" s="2"/>
-    </row>
-    <row r="1000" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1000" s="2"/>
-    </row>
-    <row r="1001" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1001" s="2"/>
-    </row>
-    <row r="1002" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1002" s="2"/>
-    </row>
-    <row r="1003" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1003" s="2"/>
-    </row>
-    <row r="1004" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1004" s="2"/>
-    </row>
-    <row r="1005" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1005" s="2"/>
-    </row>
-    <row r="1006" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1006" s="2"/>
-    </row>
-    <row r="1007" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1007" s="2"/>
-    </row>
-    <row r="1008" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1008" s="2"/>
-    </row>
-    <row r="1009" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1009" s="2"/>
-    </row>
-    <row r="1010" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1010" s="2"/>
-    </row>
-    <row r="1011" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1011" s="2"/>
-    </row>
-    <row r="1012" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1012" s="2"/>
-    </row>
-    <row r="1013" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1013" s="2"/>
-    </row>
-    <row r="1014" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1014" s="2"/>
-    </row>
-    <row r="1015" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1015" s="2"/>
-    </row>
-    <row r="1016" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1016" s="2"/>
-    </row>
-    <row r="1017" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1017" s="2"/>
-    </row>
-    <row r="1018" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1018" s="2"/>
-    </row>
-    <row r="1019" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1019" s="2"/>
-    </row>
-    <row r="1020" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1020" s="2"/>
-    </row>
-    <row r="1021" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1021" s="2"/>
-    </row>
-    <row r="1022" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1022" s="2"/>
-    </row>
-    <row r="1023" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1023" s="2"/>
-    </row>
-    <row r="1024" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1024" s="2"/>
-    </row>
-    <row r="1025" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1025" s="2"/>
-    </row>
-    <row r="1026" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1026" s="2"/>
-    </row>
-    <row r="1027" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1027" s="2"/>
-    </row>
-    <row r="1028" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1028" s="2"/>
-    </row>
-    <row r="1029" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1029" s="2"/>
-    </row>
-    <row r="1030" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1030" s="2"/>
-    </row>
-    <row r="1031" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1031" s="2"/>
-    </row>
-    <row r="1032" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1032" s="2"/>
-    </row>
-    <row r="1033" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1033" s="2"/>
-    </row>
-    <row r="1034" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1034" s="2"/>
-    </row>
-    <row r="1035" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1035" s="2"/>
-    </row>
-    <row r="1036" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1036" s="2"/>
-    </row>
-    <row r="1037" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1037" s="2"/>
-    </row>
-    <row r="1038" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1038" s="2"/>
-    </row>
-    <row r="1039" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1039" s="2"/>
-    </row>
-    <row r="1040" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1040" s="2"/>
-    </row>
-    <row r="1041" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1041" s="2"/>
-    </row>
-    <row r="1042" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1042" s="2"/>
-    </row>
-    <row r="1043" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1043" s="2"/>
-    </row>
-    <row r="1044" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1044" s="2"/>
-    </row>
-    <row r="1045" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E1045" s="2"/>
+    <row r="97" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E97" s="51"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E98" s="51"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E99" s="51"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E100" s="51"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E101" s="51"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E102" s="51"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E103" s="51"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E104" s="51"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="E105" s="51"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="5:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F340" s="2"/>
+    </row>
+    <row r="341" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F345" s="2"/>
+    </row>
+    <row r="346" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F348" s="2"/>
+    </row>
+    <row r="349" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F354" s="2"/>
+    </row>
+    <row r="355" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F361" s="2"/>
+    </row>
+    <row r="362" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F362" s="2"/>
+    </row>
+    <row r="363" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F365" s="2"/>
+    </row>
+    <row r="366" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F367" s="2"/>
+    </row>
+    <row r="368" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F368" s="2"/>
+    </row>
+    <row r="369" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F369" s="2"/>
+    </row>
+    <row r="370" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F370" s="2"/>
+    </row>
+    <row r="371" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F371" s="2"/>
+    </row>
+    <row r="372" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F372" s="2"/>
+    </row>
+    <row r="373" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F373" s="2"/>
+    </row>
+    <row r="374" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F374" s="2"/>
+    </row>
+    <row r="375" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F376" s="2"/>
+    </row>
+    <row r="377" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F378" s="2"/>
+    </row>
+    <row r="379" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F379" s="2"/>
+    </row>
+    <row r="380" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F380" s="2"/>
+    </row>
+    <row r="381" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F381" s="2"/>
+    </row>
+    <row r="382" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F382" s="2"/>
+    </row>
+    <row r="383" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F383" s="2"/>
+    </row>
+    <row r="384" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F384" s="2"/>
+    </row>
+    <row r="385" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F385" s="2"/>
+    </row>
+    <row r="386" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F386" s="2"/>
+    </row>
+    <row r="387" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F387" s="2"/>
+    </row>
+    <row r="388" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F388" s="2"/>
+    </row>
+    <row r="389" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F389" s="2"/>
+    </row>
+    <row r="390" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F390" s="2"/>
+    </row>
+    <row r="391" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F391" s="2"/>
+    </row>
+    <row r="392" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F392" s="2"/>
+    </row>
+    <row r="393" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F393" s="2"/>
+    </row>
+    <row r="394" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F394" s="2"/>
+    </row>
+    <row r="395" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F395" s="2"/>
+    </row>
+    <row r="396" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F396" s="2"/>
+    </row>
+    <row r="397" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F397" s="2"/>
+    </row>
+    <row r="398" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F398" s="2"/>
+    </row>
+    <row r="399" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F399" s="2"/>
+    </row>
+    <row r="400" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F400" s="2"/>
+    </row>
+    <row r="401" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F401" s="2"/>
+    </row>
+    <row r="402" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F402" s="2"/>
+    </row>
+    <row r="403" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F403" s="2"/>
+    </row>
+    <row r="404" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F404" s="2"/>
+    </row>
+    <row r="405" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F405" s="2"/>
+    </row>
+    <row r="406" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F406" s="2"/>
+    </row>
+    <row r="407" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F407" s="2"/>
+    </row>
+    <row r="408" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F408" s="2"/>
+    </row>
+    <row r="409" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F409" s="2"/>
+    </row>
+    <row r="410" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F410" s="2"/>
+    </row>
+    <row r="411" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F411" s="2"/>
+    </row>
+    <row r="412" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F412" s="2"/>
+    </row>
+    <row r="413" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F413" s="2"/>
+    </row>
+    <row r="414" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F414" s="2"/>
+    </row>
+    <row r="415" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F415" s="2"/>
+    </row>
+    <row r="416" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F416" s="2"/>
+    </row>
+    <row r="417" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F417" s="2"/>
+    </row>
+    <row r="418" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F418" s="2"/>
+    </row>
+    <row r="419" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F419" s="2"/>
+    </row>
+    <row r="420" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F420" s="2"/>
+    </row>
+    <row r="421" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F421" s="2"/>
+    </row>
+    <row r="422" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F422" s="2"/>
+    </row>
+    <row r="423" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F423" s="2"/>
+    </row>
+    <row r="424" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F424" s="2"/>
+    </row>
+    <row r="425" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F425" s="2"/>
+    </row>
+    <row r="426" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F426" s="2"/>
+    </row>
+    <row r="427" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F427" s="2"/>
+    </row>
+    <row r="428" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F428" s="2"/>
+    </row>
+    <row r="429" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F429" s="2"/>
+    </row>
+    <row r="430" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F430" s="2"/>
+    </row>
+    <row r="431" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F431" s="2"/>
+    </row>
+    <row r="432" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F432" s="2"/>
+    </row>
+    <row r="433" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F433" s="2"/>
+    </row>
+    <row r="434" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F434" s="2"/>
+    </row>
+    <row r="435" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F435" s="2"/>
+    </row>
+    <row r="436" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F436" s="2"/>
+    </row>
+    <row r="437" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F437" s="2"/>
+    </row>
+    <row r="438" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F438" s="2"/>
+    </row>
+    <row r="439" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F439" s="2"/>
+    </row>
+    <row r="440" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F440" s="2"/>
+    </row>
+    <row r="441" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F441" s="2"/>
+    </row>
+    <row r="442" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F442" s="2"/>
+    </row>
+    <row r="443" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F443" s="2"/>
+    </row>
+    <row r="444" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F444" s="2"/>
+    </row>
+    <row r="445" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F445" s="2"/>
+    </row>
+    <row r="446" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F446" s="2"/>
+    </row>
+    <row r="447" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F448" s="2"/>
+    </row>
+    <row r="449" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F449" s="2"/>
+    </row>
+    <row r="450" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F450" s="2"/>
+    </row>
+    <row r="451" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F451" s="2"/>
+    </row>
+    <row r="452" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F452" s="2"/>
+    </row>
+    <row r="453" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F453" s="2"/>
+    </row>
+    <row r="454" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F454" s="2"/>
+    </row>
+    <row r="455" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F455" s="2"/>
+    </row>
+    <row r="456" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F456" s="2"/>
+    </row>
+    <row r="457" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F457" s="2"/>
+    </row>
+    <row r="458" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F458" s="2"/>
+    </row>
+    <row r="459" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F459" s="2"/>
+    </row>
+    <row r="460" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F460" s="2"/>
+    </row>
+    <row r="461" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F461" s="2"/>
+    </row>
+    <row r="462" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F462" s="2"/>
+    </row>
+    <row r="463" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F463" s="2"/>
+    </row>
+    <row r="464" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F464" s="2"/>
+    </row>
+    <row r="465" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F465" s="2"/>
+    </row>
+    <row r="466" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F466" s="2"/>
+    </row>
+    <row r="467" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F467" s="2"/>
+    </row>
+    <row r="468" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F468" s="2"/>
+    </row>
+    <row r="469" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F469" s="2"/>
+    </row>
+    <row r="470" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F470" s="2"/>
+    </row>
+    <row r="471" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F471" s="2"/>
+    </row>
+    <row r="472" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F472" s="2"/>
+    </row>
+    <row r="473" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F473" s="2"/>
+    </row>
+    <row r="474" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F474" s="2"/>
+    </row>
+    <row r="475" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F475" s="2"/>
+    </row>
+    <row r="476" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F476" s="2"/>
+    </row>
+    <row r="477" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F477" s="2"/>
+    </row>
+    <row r="478" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F478" s="2"/>
+    </row>
+    <row r="479" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F479" s="2"/>
+    </row>
+    <row r="480" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F480" s="2"/>
+    </row>
+    <row r="481" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F481" s="2"/>
+    </row>
+    <row r="482" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F482" s="2"/>
+    </row>
+    <row r="483" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F483" s="2"/>
+    </row>
+    <row r="484" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F484" s="2"/>
+    </row>
+    <row r="485" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F485" s="2"/>
+    </row>
+    <row r="486" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F486" s="2"/>
+    </row>
+    <row r="487" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F487" s="2"/>
+    </row>
+    <row r="488" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F488" s="2"/>
+    </row>
+    <row r="489" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F489" s="2"/>
+    </row>
+    <row r="490" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F490" s="2"/>
+    </row>
+    <row r="491" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F491" s="2"/>
+    </row>
+    <row r="492" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F492" s="2"/>
+    </row>
+    <row r="493" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F493" s="2"/>
+    </row>
+    <row r="494" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F494" s="2"/>
+    </row>
+    <row r="495" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F495" s="2"/>
+    </row>
+    <row r="496" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F496" s="2"/>
+    </row>
+    <row r="497" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F497" s="2"/>
+    </row>
+    <row r="498" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F498" s="2"/>
+    </row>
+    <row r="499" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F499" s="2"/>
+    </row>
+    <row r="500" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F500" s="2"/>
+    </row>
+    <row r="501" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F501" s="2"/>
+    </row>
+    <row r="502" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F502" s="2"/>
+    </row>
+    <row r="503" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F503" s="2"/>
+    </row>
+    <row r="504" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F504" s="2"/>
+    </row>
+    <row r="505" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F505" s="2"/>
+    </row>
+    <row r="506" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F506" s="2"/>
+    </row>
+    <row r="507" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F507" s="2"/>
+    </row>
+    <row r="508" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F508" s="2"/>
+    </row>
+    <row r="509" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F509" s="2"/>
+    </row>
+    <row r="510" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F511" s="2"/>
+    </row>
+    <row r="512" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F512" s="2"/>
+    </row>
+    <row r="513" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F513" s="2"/>
+    </row>
+    <row r="514" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F514" s="2"/>
+    </row>
+    <row r="515" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F515" s="2"/>
+    </row>
+    <row r="516" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F516" s="2"/>
+    </row>
+    <row r="517" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F517" s="2"/>
+    </row>
+    <row r="518" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F518" s="2"/>
+    </row>
+    <row r="519" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F519" s="2"/>
+    </row>
+    <row r="520" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F520" s="2"/>
+    </row>
+    <row r="521" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F521" s="2"/>
+    </row>
+    <row r="522" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F522" s="2"/>
+    </row>
+    <row r="523" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F523" s="2"/>
+    </row>
+    <row r="524" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F524" s="2"/>
+    </row>
+    <row r="525" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F525" s="2"/>
+    </row>
+    <row r="526" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F526" s="2"/>
+    </row>
+    <row r="527" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F527" s="2"/>
+    </row>
+    <row r="528" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F528" s="2"/>
+    </row>
+    <row r="529" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F529" s="2"/>
+    </row>
+    <row r="530" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F530" s="2"/>
+    </row>
+    <row r="531" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F531" s="2"/>
+    </row>
+    <row r="532" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F532" s="2"/>
+    </row>
+    <row r="533" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F533" s="2"/>
+    </row>
+    <row r="534" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F534" s="2"/>
+    </row>
+    <row r="535" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F535" s="2"/>
+    </row>
+    <row r="536" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F536" s="2"/>
+    </row>
+    <row r="537" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F537" s="2"/>
+    </row>
+    <row r="538" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F538" s="2"/>
+    </row>
+    <row r="539" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F539" s="2"/>
+    </row>
+    <row r="540" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F540" s="2"/>
+    </row>
+    <row r="541" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F541" s="2"/>
+    </row>
+    <row r="542" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F542" s="2"/>
+    </row>
+    <row r="543" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F543" s="2"/>
+    </row>
+    <row r="544" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F544" s="2"/>
+    </row>
+    <row r="545" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F545" s="2"/>
+    </row>
+    <row r="546" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F546" s="2"/>
+    </row>
+    <row r="547" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F547" s="2"/>
+    </row>
+    <row r="548" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F548" s="2"/>
+    </row>
+    <row r="549" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F549" s="2"/>
+    </row>
+    <row r="550" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F550" s="2"/>
+    </row>
+    <row r="551" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F551" s="2"/>
+    </row>
+    <row r="552" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F552" s="2"/>
+    </row>
+    <row r="553" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F553" s="2"/>
+    </row>
+    <row r="554" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F554" s="2"/>
+    </row>
+    <row r="555" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F555" s="2"/>
+    </row>
+    <row r="556" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F556" s="2"/>
+    </row>
+    <row r="557" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F557" s="2"/>
+    </row>
+    <row r="558" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F558" s="2"/>
+    </row>
+    <row r="559" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F559" s="2"/>
+    </row>
+    <row r="560" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F560" s="2"/>
+    </row>
+    <row r="561" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F561" s="2"/>
+    </row>
+    <row r="562" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F562" s="2"/>
+    </row>
+    <row r="563" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F563" s="2"/>
+    </row>
+    <row r="564" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F564" s="2"/>
+    </row>
+    <row r="565" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F565" s="2"/>
+    </row>
+    <row r="566" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F566" s="2"/>
+    </row>
+    <row r="567" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F567" s="2"/>
+    </row>
+    <row r="568" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F568" s="2"/>
+    </row>
+    <row r="569" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F569" s="2"/>
+    </row>
+    <row r="570" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F570" s="2"/>
+    </row>
+    <row r="571" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F571" s="2"/>
+    </row>
+    <row r="572" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F572" s="2"/>
+    </row>
+    <row r="573" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F573" s="2"/>
+    </row>
+    <row r="574" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F574" s="2"/>
+    </row>
+    <row r="575" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F575" s="2"/>
+    </row>
+    <row r="576" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F576" s="2"/>
+    </row>
+    <row r="577" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F577" s="2"/>
+    </row>
+    <row r="578" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F578" s="2"/>
+    </row>
+    <row r="579" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F579" s="2"/>
+    </row>
+    <row r="580" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F580" s="2"/>
+    </row>
+    <row r="581" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F581" s="2"/>
+    </row>
+    <row r="582" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F582" s="2"/>
+    </row>
+    <row r="583" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F583" s="2"/>
+    </row>
+    <row r="584" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F584" s="2"/>
+    </row>
+    <row r="585" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F585" s="2"/>
+    </row>
+    <row r="586" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F586" s="2"/>
+    </row>
+    <row r="587" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F587" s="2"/>
+    </row>
+    <row r="588" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F588" s="2"/>
+    </row>
+    <row r="589" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F589" s="2"/>
+    </row>
+    <row r="590" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F590" s="2"/>
+    </row>
+    <row r="591" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F591" s="2"/>
+    </row>
+    <row r="592" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F592" s="2"/>
+    </row>
+    <row r="593" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F593" s="2"/>
+    </row>
+    <row r="594" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F594" s="2"/>
+    </row>
+    <row r="595" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F595" s="2"/>
+    </row>
+    <row r="596" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F596" s="2"/>
+    </row>
+    <row r="597" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F597" s="2"/>
+    </row>
+    <row r="598" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F598" s="2"/>
+    </row>
+    <row r="599" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F599" s="2"/>
+    </row>
+    <row r="600" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F600" s="2"/>
+    </row>
+    <row r="601" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F601" s="2"/>
+    </row>
+    <row r="602" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F602" s="2"/>
+    </row>
+    <row r="603" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F603" s="2"/>
+    </row>
+    <row r="604" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F604" s="2"/>
+    </row>
+    <row r="605" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F605" s="2"/>
+    </row>
+    <row r="606" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F606" s="2"/>
+    </row>
+    <row r="607" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F607" s="2"/>
+    </row>
+    <row r="608" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F608" s="2"/>
+    </row>
+    <row r="609" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F609" s="2"/>
+    </row>
+    <row r="610" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F610" s="2"/>
+    </row>
+    <row r="611" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F611" s="2"/>
+    </row>
+    <row r="612" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F612" s="2"/>
+    </row>
+    <row r="613" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F613" s="2"/>
+    </row>
+    <row r="614" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F614" s="2"/>
+    </row>
+    <row r="615" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F615" s="2"/>
+    </row>
+    <row r="616" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F616" s="2"/>
+    </row>
+    <row r="617" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F617" s="2"/>
+    </row>
+    <row r="618" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F618" s="2"/>
+    </row>
+    <row r="619" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F619" s="2"/>
+    </row>
+    <row r="620" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F620" s="2"/>
+    </row>
+    <row r="621" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F621" s="2"/>
+    </row>
+    <row r="622" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F622" s="2"/>
+    </row>
+    <row r="623" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F623" s="2"/>
+    </row>
+    <row r="624" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F624" s="2"/>
+    </row>
+    <row r="625" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F625" s="2"/>
+    </row>
+    <row r="626" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F626" s="2"/>
+    </row>
+    <row r="627" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F627" s="2"/>
+    </row>
+    <row r="628" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F628" s="2"/>
+    </row>
+    <row r="629" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F629" s="2"/>
+    </row>
+    <row r="630" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F630" s="2"/>
+    </row>
+    <row r="631" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F631" s="2"/>
+    </row>
+    <row r="632" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F632" s="2"/>
+    </row>
+    <row r="633" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F633" s="2"/>
+    </row>
+    <row r="634" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F634" s="2"/>
+    </row>
+    <row r="635" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F635" s="2"/>
+    </row>
+    <row r="636" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F636" s="2"/>
+    </row>
+    <row r="637" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F637" s="2"/>
+    </row>
+    <row r="638" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F638" s="2"/>
+    </row>
+    <row r="639" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F639" s="2"/>
+    </row>
+    <row r="640" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F640" s="2"/>
+    </row>
+    <row r="641" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F641" s="2"/>
+    </row>
+    <row r="642" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F642" s="2"/>
+    </row>
+    <row r="643" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F643" s="2"/>
+    </row>
+    <row r="644" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F644" s="2"/>
+    </row>
+    <row r="645" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F645" s="2"/>
+    </row>
+    <row r="646" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F646" s="2"/>
+    </row>
+    <row r="647" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F647" s="2"/>
+    </row>
+    <row r="648" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F648" s="2"/>
+    </row>
+    <row r="649" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F649" s="2"/>
+    </row>
+    <row r="650" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F650" s="2"/>
+    </row>
+    <row r="651" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F651" s="2"/>
+    </row>
+    <row r="652" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F652" s="2"/>
+    </row>
+    <row r="653" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F653" s="2"/>
+    </row>
+    <row r="654" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F654" s="2"/>
+    </row>
+    <row r="655" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F655" s="2"/>
+    </row>
+    <row r="656" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F656" s="2"/>
+    </row>
+    <row r="657" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F657" s="2"/>
+    </row>
+    <row r="658" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F658" s="2"/>
+    </row>
+    <row r="659" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F659" s="2"/>
+    </row>
+    <row r="660" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F660" s="2"/>
+    </row>
+    <row r="661" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F661" s="2"/>
+    </row>
+    <row r="662" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F662" s="2"/>
+    </row>
+    <row r="663" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F663" s="2"/>
+    </row>
+    <row r="664" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F664" s="2"/>
+    </row>
+    <row r="665" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F665" s="2"/>
+    </row>
+    <row r="666" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F666" s="2"/>
+    </row>
+    <row r="667" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F667" s="2"/>
+    </row>
+    <row r="668" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F668" s="2"/>
+    </row>
+    <row r="669" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F669" s="2"/>
+    </row>
+    <row r="670" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F670" s="2"/>
+    </row>
+    <row r="671" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F671" s="2"/>
+    </row>
+    <row r="672" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F672" s="2"/>
+    </row>
+    <row r="673" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F673" s="2"/>
+    </row>
+    <row r="674" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F674" s="2"/>
+    </row>
+    <row r="675" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F675" s="2"/>
+    </row>
+    <row r="676" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F676" s="2"/>
+    </row>
+    <row r="677" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F677" s="2"/>
+    </row>
+    <row r="678" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F678" s="2"/>
+    </row>
+    <row r="679" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F679" s="2"/>
+    </row>
+    <row r="680" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F680" s="2"/>
+    </row>
+    <row r="681" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F681" s="2"/>
+    </row>
+    <row r="682" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F682" s="2"/>
+    </row>
+    <row r="683" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F683" s="2"/>
+    </row>
+    <row r="684" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F684" s="2"/>
+    </row>
+    <row r="685" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F685" s="2"/>
+    </row>
+    <row r="686" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F686" s="2"/>
+    </row>
+    <row r="687" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F687" s="2"/>
+    </row>
+    <row r="688" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F688" s="2"/>
+    </row>
+    <row r="689" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F689" s="2"/>
+    </row>
+    <row r="690" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F690" s="2"/>
+    </row>
+    <row r="691" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F691" s="2"/>
+    </row>
+    <row r="692" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F692" s="2"/>
+    </row>
+    <row r="693" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F693" s="2"/>
+    </row>
+    <row r="694" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F694" s="2"/>
+    </row>
+    <row r="695" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F695" s="2"/>
+    </row>
+    <row r="696" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F696" s="2"/>
+    </row>
+    <row r="697" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F697" s="2"/>
+    </row>
+    <row r="698" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F698" s="2"/>
+    </row>
+    <row r="699" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F699" s="2"/>
+    </row>
+    <row r="700" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F700" s="2"/>
+    </row>
+    <row r="701" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F701" s="2"/>
+    </row>
+    <row r="702" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F702" s="2"/>
+    </row>
+    <row r="703" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F703" s="2"/>
+    </row>
+    <row r="704" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F704" s="2"/>
+    </row>
+    <row r="705" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F705" s="2"/>
+    </row>
+    <row r="706" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F706" s="2"/>
+    </row>
+    <row r="707" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F707" s="2"/>
+    </row>
+    <row r="708" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F708" s="2"/>
+    </row>
+    <row r="709" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F709" s="2"/>
+    </row>
+    <row r="710" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F710" s="2"/>
+    </row>
+    <row r="711" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F711" s="2"/>
+    </row>
+    <row r="712" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F712" s="2"/>
+    </row>
+    <row r="713" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F713" s="2"/>
+    </row>
+    <row r="714" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F714" s="2"/>
+    </row>
+    <row r="715" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F715" s="2"/>
+    </row>
+    <row r="716" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F716" s="2"/>
+    </row>
+    <row r="717" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F717" s="2"/>
+    </row>
+    <row r="718" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F718" s="2"/>
+    </row>
+    <row r="719" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F719" s="2"/>
+    </row>
+    <row r="720" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F720" s="2"/>
+    </row>
+    <row r="721" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F721" s="2"/>
+    </row>
+    <row r="722" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F722" s="2"/>
+    </row>
+    <row r="723" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F723" s="2"/>
+    </row>
+    <row r="724" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F724" s="2"/>
+    </row>
+    <row r="725" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F725" s="2"/>
+    </row>
+    <row r="726" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F726" s="2"/>
+    </row>
+    <row r="727" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F727" s="2"/>
+    </row>
+    <row r="728" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F728" s="2"/>
+    </row>
+    <row r="729" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F729" s="2"/>
+    </row>
+    <row r="730" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F730" s="2"/>
+    </row>
+    <row r="731" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F731" s="2"/>
+    </row>
+    <row r="732" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F732" s="2"/>
+    </row>
+    <row r="733" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F733" s="2"/>
+    </row>
+    <row r="734" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F734" s="2"/>
+    </row>
+    <row r="735" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F735" s="2"/>
+    </row>
+    <row r="736" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F736" s="2"/>
+    </row>
+    <row r="737" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F737" s="2"/>
+    </row>
+    <row r="738" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F738" s="2"/>
+    </row>
+    <row r="739" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F739" s="2"/>
+    </row>
+    <row r="740" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F740" s="2"/>
+    </row>
+    <row r="741" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F741" s="2"/>
+    </row>
+    <row r="742" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F742" s="2"/>
+    </row>
+    <row r="743" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F743" s="2"/>
+    </row>
+    <row r="744" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F744" s="2"/>
+    </row>
+    <row r="745" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F745" s="2"/>
+    </row>
+    <row r="746" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F746" s="2"/>
+    </row>
+    <row r="747" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F747" s="2"/>
+    </row>
+    <row r="748" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F748" s="2"/>
+    </row>
+    <row r="749" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F749" s="2"/>
+    </row>
+    <row r="750" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F750" s="2"/>
+    </row>
+    <row r="751" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F751" s="2"/>
+    </row>
+    <row r="752" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F752" s="2"/>
+    </row>
+    <row r="753" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F753" s="2"/>
+    </row>
+    <row r="754" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F754" s="2"/>
+    </row>
+    <row r="755" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F755" s="2"/>
+    </row>
+    <row r="756" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F756" s="2"/>
+    </row>
+    <row r="757" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F757" s="2"/>
+    </row>
+    <row r="758" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F758" s="2"/>
+    </row>
+    <row r="759" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F759" s="2"/>
+    </row>
+    <row r="760" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F760" s="2"/>
+    </row>
+    <row r="761" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F761" s="2"/>
+    </row>
+    <row r="762" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F762" s="2"/>
+    </row>
+    <row r="763" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F763" s="2"/>
+    </row>
+    <row r="764" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F764" s="2"/>
+    </row>
+    <row r="765" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F765" s="2"/>
+    </row>
+    <row r="766" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F766" s="2"/>
+    </row>
+    <row r="767" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F767" s="2"/>
+    </row>
+    <row r="768" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F768" s="2"/>
+    </row>
+    <row r="769" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F769" s="2"/>
+    </row>
+    <row r="770" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F770" s="2"/>
+    </row>
+    <row r="771" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F771" s="2"/>
+    </row>
+    <row r="772" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F772" s="2"/>
+    </row>
+    <row r="773" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F773" s="2"/>
+    </row>
+    <row r="774" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F774" s="2"/>
+    </row>
+    <row r="775" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F775" s="2"/>
+    </row>
+    <row r="776" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F776" s="2"/>
+    </row>
+    <row r="777" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F777" s="2"/>
+    </row>
+    <row r="778" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F778" s="2"/>
+    </row>
+    <row r="779" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F779" s="2"/>
+    </row>
+    <row r="780" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F780" s="2"/>
+    </row>
+    <row r="781" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F781" s="2"/>
+    </row>
+    <row r="782" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F782" s="2"/>
+    </row>
+    <row r="783" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F783" s="2"/>
+    </row>
+    <row r="784" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F784" s="2"/>
+    </row>
+    <row r="785" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F785" s="2"/>
+    </row>
+    <row r="786" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F786" s="2"/>
+    </row>
+    <row r="787" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F787" s="2"/>
+    </row>
+    <row r="788" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F788" s="2"/>
+    </row>
+    <row r="789" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F789" s="2"/>
+    </row>
+    <row r="790" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F790" s="2"/>
+    </row>
+    <row r="791" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F791" s="2"/>
+    </row>
+    <row r="792" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F792" s="2"/>
+    </row>
+    <row r="793" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F793" s="2"/>
+    </row>
+    <row r="794" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F794" s="2"/>
+    </row>
+    <row r="795" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F795" s="2"/>
+    </row>
+    <row r="796" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F796" s="2"/>
+    </row>
+    <row r="797" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F797" s="2"/>
+    </row>
+    <row r="798" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F798" s="2"/>
+    </row>
+    <row r="799" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F799" s="2"/>
+    </row>
+    <row r="800" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F800" s="2"/>
+    </row>
+    <row r="801" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F801" s="2"/>
+    </row>
+    <row r="802" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F802" s="2"/>
+    </row>
+    <row r="803" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F803" s="2"/>
+    </row>
+    <row r="804" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F804" s="2"/>
+    </row>
+    <row r="805" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F805" s="2"/>
+    </row>
+    <row r="806" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F806" s="2"/>
+    </row>
+    <row r="807" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F807" s="2"/>
+    </row>
+    <row r="808" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F808" s="2"/>
+    </row>
+    <row r="809" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F809" s="2"/>
+    </row>
+    <row r="810" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F810" s="2"/>
+    </row>
+    <row r="811" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F811" s="2"/>
+    </row>
+    <row r="812" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F812" s="2"/>
+    </row>
+    <row r="813" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F813" s="2"/>
+    </row>
+    <row r="814" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F814" s="2"/>
+    </row>
+    <row r="815" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F815" s="2"/>
+    </row>
+    <row r="816" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F816" s="2"/>
+    </row>
+    <row r="817" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F817" s="2"/>
+    </row>
+    <row r="818" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F818" s="2"/>
+    </row>
+    <row r="819" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F819" s="2"/>
+    </row>
+    <row r="820" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F820" s="2"/>
+    </row>
+    <row r="821" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F821" s="2"/>
+    </row>
+    <row r="822" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F822" s="2"/>
+    </row>
+    <row r="823" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F823" s="2"/>
+    </row>
+    <row r="824" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F824" s="2"/>
+    </row>
+    <row r="825" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F825" s="2"/>
+    </row>
+    <row r="826" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F826" s="2"/>
+    </row>
+    <row r="827" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F827" s="2"/>
+    </row>
+    <row r="828" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F828" s="2"/>
+    </row>
+    <row r="829" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F829" s="2"/>
+    </row>
+    <row r="830" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F830" s="2"/>
+    </row>
+    <row r="831" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F831" s="2"/>
+    </row>
+    <row r="832" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F832" s="2"/>
+    </row>
+    <row r="833" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F833" s="2"/>
+    </row>
+    <row r="834" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F834" s="2"/>
+    </row>
+    <row r="835" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F835" s="2"/>
+    </row>
+    <row r="836" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F836" s="2"/>
+    </row>
+    <row r="837" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F837" s="2"/>
+    </row>
+    <row r="838" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F838" s="2"/>
+    </row>
+    <row r="839" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F839" s="2"/>
+    </row>
+    <row r="840" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F840" s="2"/>
+    </row>
+    <row r="841" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F841" s="2"/>
+    </row>
+    <row r="842" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F842" s="2"/>
+    </row>
+    <row r="843" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F843" s="2"/>
+    </row>
+    <row r="844" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F844" s="2"/>
+    </row>
+    <row r="845" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F845" s="2"/>
+    </row>
+    <row r="846" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F846" s="2"/>
+    </row>
+    <row r="847" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F847" s="2"/>
+    </row>
+    <row r="848" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F848" s="2"/>
+    </row>
+    <row r="849" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F849" s="2"/>
+    </row>
+    <row r="850" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F850" s="2"/>
+    </row>
+    <row r="851" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F851" s="2"/>
+    </row>
+    <row r="852" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F852" s="2"/>
+    </row>
+    <row r="853" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F853" s="2"/>
+    </row>
+    <row r="854" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F854" s="2"/>
+    </row>
+    <row r="855" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F855" s="2"/>
+    </row>
+    <row r="856" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F856" s="2"/>
+    </row>
+    <row r="857" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F857" s="2"/>
+    </row>
+    <row r="858" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F858" s="2"/>
+    </row>
+    <row r="859" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F859" s="2"/>
+    </row>
+    <row r="860" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F860" s="2"/>
+    </row>
+    <row r="861" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F861" s="2"/>
+    </row>
+    <row r="862" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F862" s="2"/>
+    </row>
+    <row r="863" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F863" s="2"/>
+    </row>
+    <row r="864" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F864" s="2"/>
+    </row>
+    <row r="865" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F865" s="2"/>
+    </row>
+    <row r="866" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F866" s="2"/>
+    </row>
+    <row r="867" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F867" s="2"/>
+    </row>
+    <row r="868" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F868" s="2"/>
+    </row>
+    <row r="869" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F869" s="2"/>
+    </row>
+    <row r="870" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F870" s="2"/>
+    </row>
+    <row r="871" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F871" s="2"/>
+    </row>
+    <row r="872" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F872" s="2"/>
+    </row>
+    <row r="873" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F873" s="2"/>
+    </row>
+    <row r="874" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F874" s="2"/>
+    </row>
+    <row r="875" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F875" s="2"/>
+    </row>
+    <row r="876" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F876" s="2"/>
+    </row>
+    <row r="877" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F877" s="2"/>
+    </row>
+    <row r="878" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F878" s="2"/>
+    </row>
+    <row r="879" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F879" s="2"/>
+    </row>
+    <row r="880" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F880" s="2"/>
+    </row>
+    <row r="881" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F881" s="2"/>
+    </row>
+    <row r="882" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F882" s="2"/>
+    </row>
+    <row r="883" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F883" s="2"/>
+    </row>
+    <row r="884" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F884" s="2"/>
+    </row>
+    <row r="885" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F885" s="2"/>
+    </row>
+    <row r="886" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F886" s="2"/>
+    </row>
+    <row r="887" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F887" s="2"/>
+    </row>
+    <row r="888" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F888" s="2"/>
+    </row>
+    <row r="889" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F889" s="2"/>
+    </row>
+    <row r="890" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F890" s="2"/>
+    </row>
+    <row r="891" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F891" s="2"/>
+    </row>
+    <row r="892" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F892" s="2"/>
+    </row>
+    <row r="893" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F893" s="2"/>
+    </row>
+    <row r="894" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F894" s="2"/>
+    </row>
+    <row r="895" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F895" s="2"/>
+    </row>
+    <row r="896" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F896" s="2"/>
+    </row>
+    <row r="897" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F897" s="2"/>
+    </row>
+    <row r="898" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F898" s="2"/>
+    </row>
+    <row r="899" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F899" s="2"/>
+    </row>
+    <row r="900" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F900" s="2"/>
+    </row>
+    <row r="901" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F901" s="2"/>
+    </row>
+    <row r="902" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F902" s="2"/>
+    </row>
+    <row r="903" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F903" s="2"/>
+    </row>
+    <row r="904" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F904" s="2"/>
+    </row>
+    <row r="905" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F905" s="2"/>
+    </row>
+    <row r="906" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F906" s="2"/>
+    </row>
+    <row r="907" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F907" s="2"/>
+    </row>
+    <row r="908" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F908" s="2"/>
+    </row>
+    <row r="909" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F909" s="2"/>
+    </row>
+    <row r="910" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F910" s="2"/>
+    </row>
+    <row r="911" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F911" s="2"/>
+    </row>
+    <row r="912" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F912" s="2"/>
+    </row>
+    <row r="913" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F913" s="2"/>
+    </row>
+    <row r="914" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F914" s="2"/>
+    </row>
+    <row r="915" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F915" s="2"/>
+    </row>
+    <row r="916" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F916" s="2"/>
+    </row>
+    <row r="917" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F917" s="2"/>
+    </row>
+    <row r="918" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F918" s="2"/>
+    </row>
+    <row r="919" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F919" s="2"/>
+    </row>
+    <row r="920" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F920" s="2"/>
+    </row>
+    <row r="921" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F921" s="2"/>
+    </row>
+    <row r="922" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F922" s="2"/>
+    </row>
+    <row r="923" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F923" s="2"/>
+    </row>
+    <row r="924" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F924" s="2"/>
+    </row>
+    <row r="925" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F925" s="2"/>
+    </row>
+    <row r="926" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F926" s="2"/>
+    </row>
+    <row r="927" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F927" s="2"/>
+    </row>
+    <row r="928" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F928" s="2"/>
+    </row>
+    <row r="929" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F929" s="2"/>
+    </row>
+    <row r="930" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F930" s="2"/>
+    </row>
+    <row r="931" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F931" s="2"/>
+    </row>
+    <row r="932" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F932" s="2"/>
+    </row>
+    <row r="933" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F933" s="2"/>
+    </row>
+    <row r="934" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F934" s="2"/>
+    </row>
+    <row r="935" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F935" s="2"/>
+    </row>
+    <row r="936" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F936" s="2"/>
+    </row>
+    <row r="937" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F937" s="2"/>
+    </row>
+    <row r="938" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F938" s="2"/>
+    </row>
+    <row r="939" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F939" s="2"/>
+    </row>
+    <row r="940" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F940" s="2"/>
+    </row>
+    <row r="941" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F941" s="2"/>
+    </row>
+    <row r="942" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F942" s="2"/>
+    </row>
+    <row r="943" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F943" s="2"/>
+    </row>
+    <row r="944" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F944" s="2"/>
+    </row>
+    <row r="945" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F945" s="2"/>
+    </row>
+    <row r="946" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F946" s="2"/>
+    </row>
+    <row r="947" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F947" s="2"/>
+    </row>
+    <row r="948" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F948" s="2"/>
+    </row>
+    <row r="949" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F949" s="2"/>
+    </row>
+    <row r="950" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F950" s="2"/>
+    </row>
+    <row r="951" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F951" s="2"/>
+    </row>
+    <row r="952" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F952" s="2"/>
+    </row>
+    <row r="953" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F953" s="2"/>
+    </row>
+    <row r="954" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F954" s="2"/>
+    </row>
+    <row r="955" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F955" s="2"/>
+    </row>
+    <row r="956" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F956" s="2"/>
+    </row>
+    <row r="957" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F957" s="2"/>
+    </row>
+    <row r="958" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F958" s="2"/>
+    </row>
+    <row r="959" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F959" s="2"/>
+    </row>
+    <row r="960" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F960" s="2"/>
+    </row>
+    <row r="961" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F961" s="2"/>
+    </row>
+    <row r="962" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F962" s="2"/>
+    </row>
+    <row r="963" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F963" s="2"/>
+    </row>
+    <row r="964" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F964" s="2"/>
+    </row>
+    <row r="965" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F965" s="2"/>
+    </row>
+    <row r="966" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F966" s="2"/>
+    </row>
+    <row r="967" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F967" s="2"/>
+    </row>
+    <row r="968" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F968" s="2"/>
+    </row>
+    <row r="969" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F969" s="2"/>
+    </row>
+    <row r="970" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F970" s="2"/>
+    </row>
+    <row r="971" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F971" s="2"/>
+    </row>
+    <row r="972" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F972" s="2"/>
+    </row>
+    <row r="973" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F973" s="2"/>
+    </row>
+    <row r="974" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F974" s="2"/>
+    </row>
+    <row r="975" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F975" s="2"/>
+    </row>
+    <row r="976" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F976" s="2"/>
+    </row>
+    <row r="977" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F977" s="2"/>
+    </row>
+    <row r="978" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F978" s="2"/>
+    </row>
+    <row r="979" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F979" s="2"/>
+    </row>
+    <row r="980" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F980" s="2"/>
+    </row>
+    <row r="981" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F981" s="2"/>
+    </row>
+    <row r="982" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F982" s="2"/>
+    </row>
+    <row r="983" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F983" s="2"/>
+    </row>
+    <row r="984" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F984" s="2"/>
+    </row>
+    <row r="985" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F985" s="2"/>
+    </row>
+    <row r="986" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F986" s="2"/>
+    </row>
+    <row r="987" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F987" s="2"/>
+    </row>
+    <row r="988" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F988" s="2"/>
+    </row>
+    <row r="989" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F989" s="2"/>
+    </row>
+    <row r="990" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F990" s="2"/>
+    </row>
+    <row r="991" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F991" s="2"/>
+    </row>
+    <row r="992" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F992" s="2"/>
+    </row>
+    <row r="993" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F993" s="2"/>
+    </row>
+    <row r="994" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F994" s="2"/>
+    </row>
+    <row r="995" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F995" s="2"/>
+    </row>
+    <row r="996" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F996" s="2"/>
+    </row>
+    <row r="997" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F997" s="2"/>
+    </row>
+    <row r="998" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F998" s="2"/>
+    </row>
+    <row r="999" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F999" s="2"/>
+    </row>
+    <row r="1000" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1000" s="2"/>
+    </row>
+    <row r="1001" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1001" s="2"/>
+    </row>
+    <row r="1002" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1002" s="2"/>
+    </row>
+    <row r="1003" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1003" s="2"/>
+    </row>
+    <row r="1004" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1004" s="2"/>
+    </row>
+    <row r="1005" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1005" s="2"/>
+    </row>
+    <row r="1006" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1006" s="2"/>
+    </row>
+    <row r="1007" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1008" s="2"/>
+    </row>
+    <row r="1009" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1009" s="2"/>
+    </row>
+    <row r="1010" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1010" s="2"/>
+    </row>
+    <row r="1011" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1011" s="2"/>
+    </row>
+    <row r="1012" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1012" s="2"/>
+    </row>
+    <row r="1013" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1013" s="2"/>
+    </row>
+    <row r="1014" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1014" s="2"/>
+    </row>
+    <row r="1015" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1015" s="2"/>
+    </row>
+    <row r="1016" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1016" s="2"/>
+    </row>
+    <row r="1017" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1017" s="2"/>
+    </row>
+    <row r="1018" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1018" s="2"/>
+    </row>
+    <row r="1019" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1019" s="2"/>
+    </row>
+    <row r="1020" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1020" s="2"/>
+    </row>
+    <row r="1021" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1021" s="2"/>
+    </row>
+    <row r="1022" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1022" s="2"/>
+    </row>
+    <row r="1023" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1023" s="2"/>
+    </row>
+    <row r="1024" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1024" s="2"/>
+    </row>
+    <row r="1025" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1025" s="2"/>
+    </row>
+    <row r="1026" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1026" s="2"/>
+    </row>
+    <row r="1027" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1027" s="2"/>
+    </row>
+    <row r="1028" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1028" s="2"/>
+    </row>
+    <row r="1029" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1029" s="2"/>
+    </row>
+    <row r="1030" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1030" s="2"/>
+    </row>
+    <row r="1031" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1031" s="2"/>
+    </row>
+    <row r="1032" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1032" s="2"/>
+    </row>
+    <row r="1033" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1033" s="2"/>
+    </row>
+    <row r="1034" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1034" s="2"/>
+    </row>
+    <row r="1035" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1035" s="2"/>
+    </row>
+    <row r="1036" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F1036" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:F39" xr:uid="{18425745-185C-934D-8D33-A0D4918607B5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F39">
+      <sortCondition ref="B4:B39"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/PHA4GE to Sequence Repository Field Mappings.xlsx
+++ b/PHA4GE to Sequence Repository Field Mappings.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fda-my.sharepoint.com/personal/ruth_timme_fda_gov/Documents/workingGroups-Projects/PHA4GE/SARS-CoV-2 metadata spec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmendes/Documents/PHA4GE/SARS-CoV-2-Contextual-Data-Specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{51042134-DAB5-D344-9564-0FBD49DC2C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E146FC95-68C3-504E-9B7D-6922032300AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C2D17-B355-E34D-8B90-EB55AED2CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="25860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GISAID to PHA4GE field mappings" sheetId="3" r:id="rId1"/>
     <sheet name="ENA to PHA4GE field mappings" sheetId="4" r:id="rId2"/>
     <sheet name="NCBI to PHA4GE field mappings" sheetId="5" r:id="rId3"/>
+    <sheet name="WHO to PHA4GE field mappings" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NCBI to PHA4GE field mappings'!$A$4:$F$39</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="632">
   <si>
     <t>bioproject accession</t>
   </si>
@@ -1731,6 +1732,280 @@
   <si>
     <t>additional wastewater attributes being developed</t>
   </si>
+  <si>
+    <t>WHO Metadata Type</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>WHO Details</t>
+  </si>
+  <si>
+    <t>Core Metadata</t>
+  </si>
+  <si>
+    <t>Sample Identification number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "specimen collector sample ID". </t>
+  </si>
+  <si>
+    <t>Sample type</t>
+  </si>
+  <si>
+    <t>Examples: "sputum", "blood", "serum", "saliva", "stool", "nasopharyngeal swab", "wastewater"</t>
+  </si>
+  <si>
+    <t>anatomical material, anatomical part, body product, environmental material, environmental site, collection device, collection method</t>
+  </si>
+  <si>
+    <t>The WHO field can be populated by concatenating the information included in the PHA4GE fields "anatomical material", "anatomical part", "body product", "environmental material", "environmental site", "collection device", and "collection method", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Sample collection date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "sample collection date". </t>
+  </si>
+  <si>
+    <t>Country of collection</t>
+  </si>
+  <si>
+    <t>geo_loc name (country)</t>
+  </si>
+  <si>
+    <t>State/province of collection</t>
+  </si>
+  <si>
+    <t>geo_loc name (state/province/territory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "geo_loc name (state/province/territory)". </t>
+  </si>
+  <si>
+    <t>Originating diagnostic lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "sample collected by". </t>
+  </si>
+  <si>
+    <t>Sequence submitting lab</t>
+  </si>
+  <si>
+    <t>Where sequence data have been generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "sequence submitted by". </t>
+  </si>
+  <si>
+    <t>Sampling method</t>
+  </si>
+  <si>
+    <t>Part of routine surveillance or focused sampling, representative or targeted sampling</t>
+  </si>
+  <si>
+    <t>PHA4GE distinguishes between the criteria for sampling encoded by "purpose of sampling" (i.e. why a sample was collected) and the criteria for sequencing (i.e. why certain samples were selected for sequencing e.g. baseline surveilance (random sampling), targeted surveillance, outbreak/cluster investigation, research etc). The sampling strategy is addressed by four different fields in the PHA4GE specification. The WHO field can be populated by the PHA4GE "purpose of sequencing" field, but additional information can be found in the PHA4GE fields "purpose of sampling", as well as "purpose of sequeincg details" and "purpose of sampling details".</t>
+  </si>
+  <si>
+    <t>e.g. human, animal (specifics), environment, unknown</t>
+  </si>
+  <si>
+    <t>The PHA4GE specification distinguishes host names as either common name and scientific name. The WHO field should be populated by the PHA4GE field "host (scientific name)".</t>
+  </si>
+  <si>
+    <t>Descriptive Metadata</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>PHA4GE also has “host age unit” and “host age bin”</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>e.g. male, female, other, unknown</t>
+  </si>
+  <si>
+    <t>While not an exact semantic match, the WHO field can be populated by the PHA4GE field "host gender".</t>
+  </si>
+  <si>
+    <t>Race and/or ethnicity</t>
+  </si>
+  <si>
+    <t>host ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field can be populated by the PHA4GE field "host ethnicity". </t>
+  </si>
+  <si>
+    <t>Health worker status</t>
+  </si>
+  <si>
+    <t>e.g. yes, no, unknown. See HW definition in surveillance protocol for Health Workers</t>
+  </si>
+  <si>
+    <t>host role</t>
+  </si>
+  <si>
+    <t>The PHA4GE field “host role” contains many professional descriptors. If a descriptor matching a WHO prescribed Health Worker is appropriate, populate the WHO field with "yes". If a descriptor is provided that does not match a WHO prescribed Health Worker, put "no". If no information is provided, or the information is not clear, put "unknown".</t>
+  </si>
+  <si>
+    <t>Travel History</t>
+  </si>
+  <si>
+    <t>Location(s) and timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel history, destination of most recent travel (city), destination of most recent travel (state/province/territory), destination of most recent travel (country), most recent travel departure date, most recent travel return date
+, 
+</t>
+  </si>
+  <si>
+    <t>PHA4GE has several fields to capture information about recent travel. The WHO field can be populated by concatenating information from the PHA4GE fields "travel history" (i.e. travel in the last 6 months), "destination of most recent travel (city)", "destination of most recent travel (state/province/territory)", "destination of most recent travel (country)", "most recent travel departure date", and "most recent travel return date", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Metadata for Characterization</t>
+  </si>
+  <si>
+    <t>RT-PCR assay used (if any)</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "diagnostic pcr protocol 1". If more than one gene was tested in subsequent/multiplex assays, concatenate information from "diagnostic pcr protocol 2", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>RT-PCR Ct value (if any)</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "diagnostic pcr Ct value 1". If more than one gene was tested in subsequent/multiplex assays, concatenate information from "diagnostic pcr Ct value 2", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Symptomatic</t>
+  </si>
+  <si>
+    <t>e.g. yes, no, unknown.</t>
+  </si>
+  <si>
+    <t>PHA4GE specifies whether an individual is symptomatic as a value under the "host health state" field. Populate the WHO field with "yes" when a PHA4GE "Symptomatic" tag is present under "host health state". Put "no" is a PHA4GE "Asymptmmatic" tage is present. Put "unknown" if no tags specifying symptomatic state are present.</t>
+  </si>
+  <si>
+    <t>Vaccination status (for humans)</t>
+  </si>
+  <si>
+    <t>Date of vaccination (dose 1 and/or dose 2, as needed), vaccine type, source of information (documented evidence such as vaccine register or vaccine card versus recall)</t>
+  </si>
+  <si>
+    <t>host vaccination status, vaccine name, number of vaccine doses received, first dose vaccination date, last dose vaccination date</t>
+  </si>
+  <si>
+    <t>PHA4GE has several fields to describe the vaccine types and doses administered. Populate the WHO field by concatenating information from "host vaccination status", "vaccine name, number of vaccine doses received" (make sure to add the words "doses received" after the number), "first dose vaccination date", and "last dose vaccination date", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Date of symptom onset</t>
+  </si>
+  <si>
+    <t>symptom onset date</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "symptom onset date".</t>
+  </si>
+  <si>
+    <t>Hospitalization status</t>
+  </si>
+  <si>
+    <t>e.g. ever hospitalized, never hospitalized, unknown</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>PHA4GE specifies whether an individual was hospitalized as a value under the "host health status details" field. Populate the WHO field with "yes" when a PHA4GE "Hospitalized" tag is present under "host health status details". Put "no" if it is known that the individual was not hospitalized (i.e. if they are asymptomatic). Put "unknown" if no tags specifying hospitalization state are present.</t>
+  </si>
+  <si>
+    <t>Admission to intensive care unit (ICU)</t>
+  </si>
+  <si>
+    <t>e.g. yes, no, unknown</t>
+  </si>
+  <si>
+    <t>Hospitalized (ICU)</t>
+  </si>
+  <si>
+    <t>PHA4GE specifies whether an individual was hospitalized in the intensive care unit (ICU) as a value under the "host health status details" field. Populate the WHO field with "yes" when a PHA4GE "Hospitalized (ICU)" tag is present under "host health status details". Put "no" if it is known that the individual was not hospitalized (i.e. if they are asymptomatic) or it is known that the individual was hospitalized but not in the ICU. Put "unknown" if no tags specifying hospitalization state are present.</t>
+  </si>
+  <si>
+    <t>Mechanical ventilation</t>
+  </si>
+  <si>
+    <t>PHA4GE specifies whether an individual was mechanically ventilated as a value under the "host health status details" field. Populate the WHO field with "yes" when a PHA4GE "Mechanical ventilation" tag is present under "host health status details". Put "no" if it is known that the individual was not mechanically ventilated  or it is known that the individual was hospitalized (i.e. if they are asymptomatic). Put "unknown" if no tags specifying hospitalization state are present.</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Deceased/recovered</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "host disease outcome".</t>
+  </si>
+  <si>
+    <t>Past history of SARS-CoV-2 infection and date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prior SARS-CoV-2 infection, prior SARS-CoV-2 infection isolate, prior SARS-CoV-2 infection date
+</t>
+  </si>
+  <si>
+    <t>PHA4GE has several fields to capture information about prior SARS-CoV-2 infections date. Populate the WHO field by concatenating information from the PHA4GE fields "prior SARS-CoV-2 infection", "prior SARS-CoV-2 infection isolate", and "prior SARS-CoV-2 infection date", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Therapeutics received</t>
+  </si>
+  <si>
+    <t>COVID-19-specific</t>
+  </si>
+  <si>
+    <t>prior SARS-CoV-2 antiviral treatment, prior SARS-CoV-2 antiviral treatment agent, prior SARS-CoV-2 antiviral treatment date</t>
+  </si>
+  <si>
+    <t>PHA4GE has several fields to capture information about prior SARS-CoV-2 treatment. Populate the WHO field by concatenating information from the PHA4GE fields "prior SARS-CoV-2 antiviral treatment", "prior SARS-CoV-2 antiviral treatment agent", and "prior SARS-CoV-2 antiviral treatment date", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Location of exposure, link to known cluster/ outbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location of exposure geo_loc name (country), exposure setting, exposure event, exposure details
+</t>
+  </si>
+  <si>
+    <t>PHA4GE has several fields to capture information about exposure details. Populate the WHO field by concatenating information from the PHA4GE fields "location of exposure geo_loc name (country)", "exposure setting", "exposure event", and "exposure details", separated by semicolons.</t>
+  </si>
+  <si>
+    <t>Contact with known animal reservoir</t>
+  </si>
+  <si>
+    <t>e.g. yes, no, unknown; and type(s) of animal(s)</t>
+  </si>
+  <si>
+    <t>No exact match</t>
+  </si>
+  <si>
+    <t>PHA4GE provides various animal-related pick list terms in different exposure fields that could apply e.g. Veterinarian, abattoir, farm etc. If an animal-related tag is present, populate the WHO field with this information.</t>
+  </si>
+  <si>
+    <t>Comorbidities</t>
+  </si>
+  <si>
+    <t>List comorbidities known to increase COVID-19 severity</t>
+  </si>
+  <si>
+    <t>pre-existing conditions and risk factors</t>
+  </si>
+  <si>
+    <t>This field can be populated by the PHA4GE field "pre-existing conditions and risk factors".</t>
+  </si>
 </sst>
 </file>
 
@@ -1867,7 +2142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1886,11 +2161,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2028,6 +2327,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60992,7 +61300,7 @@
   </sheetPr>
   <dimension ref="A1:AB1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -65578,4 +65886,497 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B78A16-33A2-0347-91B5-D787CF857889}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+      <c r="A3" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A9" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A10" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="A14" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="112" x14ac:dyDescent="0.15">
+      <c r="A15" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A16" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>587</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A17" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="A18" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="A19" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>594</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69" t="s">
+        <v>599</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="98" x14ac:dyDescent="0.15">
+      <c r="A21" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>601</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>603</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.15">
+      <c r="A22" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>605</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="112" x14ac:dyDescent="0.15">
+      <c r="A23" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>609</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>606</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>609</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+      <c r="A25" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="A26" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+      <c r="A27" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A28" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>624</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A29" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>628</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>630</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>